--- a/config_Release/active_daily_task_info_config.xlsx
+++ b/config_Release/active_daily_task_info_config.xlsx
@@ -15,7 +15,7 @@
     <sheet name="active_award_config|总活跃度任务" sheetId="4" r:id="rId1"/>
     <sheet name="active_task_item|单个活跃度任务" sheetId="5" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="162913" concurrentCalc="0"/>
+  <calcPr calcId="162913"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="73" uniqueCount="61">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="66" uniqueCount="53">
   <si>
     <t>id|行号</t>
     <phoneticPr fontId="4" type="noConversion"/>
@@ -71,76 +71,8 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>rw_icon_js</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>rw_icon_hd</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>rw_icon_ljsj</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>rw_icon_ljyj</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>gotoui|按钮跳转位置</t>
     <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>累计获得金币</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>参与小游戏</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>"活跃度","金币"</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>"ty_icon_hytb","ty_icon_jb_15y"</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>"ty_icon_hytb","ty_icon_jb_18y"</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>"ty_icon_hytb","ty_icon_jb_18y"</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>"ty_icon_hytb","ty_icon_jb_30y"</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>"ty_icon_hytb","ty_icon_jb_30y"</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>每日进行捕鱼</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>游戏分享</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>击杀活动鱼</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>击杀彩金鱼</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>幸运彩贝</t>
-    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>单笔充值</t>
@@ -151,71 +83,148 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>rw_icon_mrby</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>每日进入捕鱼游戏</t>
+    <t>"game_Fishing3DHall",</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>3D捕鱼中捕获任意10条鱼</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>3D捕鱼中累计开炮1000次</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>3D捕鱼中累计在线60分钟</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>rw_icon_ljsj</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>rw_icon_bh</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>rw_icon_jn</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>3D捕鱼中使用任意技能3次</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>rw_icon_ljpd</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>使用技能</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>累计开炮</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>累计在线</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>累计捕鱼</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>"ty_icon_flq1","ty_icon_hytb",</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>"ty_icon_flq3","ty_icon_hytb",</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>"ty_icon_jb_30y","ty_icon_hytb",</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>"ty_icon_jb_15y","ty_icon_hytb",</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>"ty_icon_jb_50y","ty_icon_hytb",</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>"金币","活跃度"</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>"福利券","活跃度"</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>"x1万","x20"</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>单笔充值6元及以上</t>
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
-    <t>小游戏累计赢金50万</t>
+    <t>2万鱼币，召唤*1</t>
+  </si>
+  <si>
+    <t>2万鱼币，1万小游戏币</t>
+  </si>
+  <si>
+    <t>3万鱼币，10福利券</t>
+  </si>
+  <si>
+    <t>1万鱼币，锁定*2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>5万金币，50福利券</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>捕获彩金</t>
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
-    <t>分享一次游戏</t>
+    <t>3D捕鱼中捕获3条彩金鱼</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>登录游戏</t>
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
-    <r>
-      <t>在3</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="等线"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>d捕鱼游戏中</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="等线"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>击杀2条活动鱼</t>
-    </r>
+    <t>登陆1次3D捕鱼游戏</t>
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
-    <t>在3d捕鱼游戏中击杀2条彩金鱼</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>参与3种不同的游戏</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>开启5个幸运彩贝</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>单笔充值大于6元</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>rw_icon_rwbz</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>60,50000</t>
+    <t>"x2万","x30"</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>"x30","x30"</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>"x1万","x20"</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>rw_icon_js</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>"x100","x10"</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>"x30","x50"</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -223,165 +232,7 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>"game_Fishing3DHall",</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>"share_hall",</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>"game_Fishing3DHall",</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>"game_Fishing3DHall",</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>"shop_bay",</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>"game_MiniGame",</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>20,800</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>30,2500</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>20,1500</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>30,2000</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>20,2500</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>40,3500</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>30,2500</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>福利券*20，小游戏币*1万</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>鱼币*1万，小游戏币*1万</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>金币</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF191F25"/>
-        <rFont val="Segoe UI"/>
-        <family val="2"/>
-      </rPr>
-      <t>*2000</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF191F25"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>，锁定</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF191F25"/>
-        <rFont val="Segoe UI"/>
-        <family val="2"/>
-      </rPr>
-      <t>*2</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>福利券</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF191F25"/>
-        <rFont val="Segoe UI"/>
-        <family val="2"/>
-      </rPr>
-      <t>*10</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF191F25"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>，小游戏币</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF191F25"/>
-        <rFont val="Segoe UI"/>
-        <family val="2"/>
-      </rPr>
-      <t>*5000</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>金币</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF191F25"/>
-        <rFont val="Segoe UI"/>
-        <family val="2"/>
-      </rPr>
-      <t>*5000</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF191F25"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>，召唤</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF191F25"/>
-        <rFont val="Segoe UI"/>
-        <family val="2"/>
-      </rPr>
-      <t>*3</t>
-    </r>
+    <t>"shop_bay","jing_bi"</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -499,7 +350,7 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="15">
+  <cellXfs count="16">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -539,6 +390,9 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -861,7 +715,7 @@
         <v>30</v>
       </c>
       <c r="C2" s="10" t="s">
-        <v>58</v>
+        <v>39</v>
       </c>
       <c r="D2" s="4"/>
       <c r="E2" s="8"/>
@@ -875,7 +729,7 @@
         <v>60</v>
       </c>
       <c r="C3" s="10" t="s">
-        <v>59</v>
+        <v>36</v>
       </c>
       <c r="D3" s="4"/>
       <c r="E3" s="8"/>
@@ -889,7 +743,7 @@
         <v>90</v>
       </c>
       <c r="C4" s="10" t="s">
-        <v>60</v>
+        <v>37</v>
       </c>
       <c r="D4" s="4"/>
       <c r="E4" s="4"/>
@@ -903,7 +757,7 @@
         <v>120</v>
       </c>
       <c r="C5" s="10" t="s">
-        <v>56</v>
+        <v>38</v>
       </c>
       <c r="D5" s="4"/>
       <c r="E5" s="4"/>
@@ -917,7 +771,7 @@
         <v>150</v>
       </c>
       <c r="C6" s="10" t="s">
-        <v>57</v>
+        <v>40</v>
       </c>
       <c r="D6" s="4"/>
       <c r="E6" s="4"/>
@@ -1173,19 +1027,19 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:N12"/>
+  <dimension ref="A1:N19"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="F1" workbookViewId="0">
-      <selection activeCell="H8" sqref="H8"/>
+      <selection activeCell="I8" sqref="I8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="2" max="2" width="21.375" customWidth="1"/>
     <col min="3" max="3" width="36.625" customWidth="1"/>
-    <col min="4" max="4" width="31.5" customWidth="1"/>
-    <col min="5" max="5" width="41.75" customWidth="1"/>
-    <col min="6" max="6" width="55.25" customWidth="1"/>
+    <col min="4" max="4" width="20" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="27.75" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="58" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="38" customWidth="1"/>
     <col min="8" max="8" width="40.125" customWidth="1"/>
     <col min="9" max="9" width="30.625" customWidth="1"/>
@@ -1218,7 +1072,7 @@
         <v>9</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="J1" s="1"/>
       <c r="K1" s="1"/>
@@ -1234,25 +1088,25 @@
         <v>12512</v>
       </c>
       <c r="C2" s="13" t="s">
-        <v>24</v>
+        <v>43</v>
       </c>
       <c r="D2" s="11" t="s">
         <v>10</v>
       </c>
       <c r="E2" s="13" t="s">
+        <v>44</v>
+      </c>
+      <c r="F2" s="11" t="s">
+        <v>30</v>
+      </c>
+      <c r="G2" s="11" t="s">
         <v>32</v>
       </c>
-      <c r="F2" s="11" t="s">
-        <v>19</v>
-      </c>
-      <c r="G2" s="11" t="s">
-        <v>18</v>
-      </c>
-      <c r="H2" s="14" t="s">
+      <c r="H2" s="11" t="s">
         <v>49</v>
       </c>
       <c r="I2" s="11" t="s">
-        <v>42</v>
+        <v>14</v>
       </c>
     </row>
     <row r="3" spans="1:14" x14ac:dyDescent="0.2">
@@ -1260,28 +1114,28 @@
         <v>2</v>
       </c>
       <c r="B3" s="12">
-        <v>12513</v>
+        <v>12520</v>
       </c>
       <c r="C3" s="13" t="s">
-        <v>16</v>
+        <v>23</v>
       </c>
       <c r="D3" s="11" t="s">
+        <v>20</v>
+      </c>
+      <c r="E3" s="13" t="s">
+        <v>21</v>
+      </c>
+      <c r="F3" s="11" t="s">
+        <v>29</v>
+      </c>
+      <c r="G3" s="11" t="s">
+        <v>32</v>
+      </c>
+      <c r="H3" s="11" t="s">
+        <v>47</v>
+      </c>
+      <c r="I3" s="11" t="s">
         <v>14</v>
-      </c>
-      <c r="E3" s="13" t="s">
-        <v>33</v>
-      </c>
-      <c r="F3" s="11" t="s">
-        <v>20</v>
-      </c>
-      <c r="G3" s="11" t="s">
-        <v>18</v>
-      </c>
-      <c r="H3" s="14" t="s">
-        <v>50</v>
-      </c>
-      <c r="I3" s="11" t="s">
-        <v>43</v>
       </c>
     </row>
     <row r="4" spans="1:14" x14ac:dyDescent="0.2">
@@ -1289,28 +1143,28 @@
         <v>3</v>
       </c>
       <c r="B4" s="12">
-        <v>12514</v>
+        <v>12521</v>
       </c>
       <c r="C4" s="13" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D4" s="11" t="s">
-        <v>40</v>
+        <v>19</v>
       </c>
       <c r="E4" s="13" t="s">
+        <v>15</v>
+      </c>
+      <c r="F4" s="11" t="s">
+        <v>29</v>
+      </c>
+      <c r="G4" s="11" t="s">
+        <v>32</v>
+      </c>
+      <c r="H4" s="11" t="s">
         <v>34</v>
       </c>
-      <c r="F4" s="11" t="s">
-        <v>20</v>
-      </c>
-      <c r="G4" s="11" t="s">
-        <v>18</v>
-      </c>
-      <c r="H4" s="14" t="s">
-        <v>51</v>
-      </c>
       <c r="I4" s="11" t="s">
-        <v>44</v>
+        <v>14</v>
       </c>
     </row>
     <row r="5" spans="1:14" x14ac:dyDescent="0.2">
@@ -1318,28 +1172,28 @@
         <v>4</v>
       </c>
       <c r="B5" s="12">
-        <v>12515</v>
+        <v>12522</v>
       </c>
       <c r="C5" s="13" t="s">
-        <v>26</v>
-      </c>
-      <c r="D5" s="11" t="s">
-        <v>12</v>
+        <v>24</v>
+      </c>
+      <c r="D5" s="15" t="s">
+        <v>22</v>
       </c>
       <c r="E5" s="13" t="s">
-        <v>35</v>
+        <v>16</v>
       </c>
       <c r="F5" s="11" t="s">
-        <v>20</v>
+        <v>31</v>
       </c>
       <c r="G5" s="11" t="s">
-        <v>18</v>
-      </c>
-      <c r="H5" s="14" t="s">
-        <v>52</v>
+        <v>32</v>
+      </c>
+      <c r="H5" s="11" t="s">
+        <v>45</v>
       </c>
       <c r="I5" s="11" t="s">
-        <v>45</v>
+        <v>14</v>
       </c>
     </row>
     <row r="6" spans="1:14" x14ac:dyDescent="0.2">
@@ -1347,28 +1201,28 @@
         <v>5</v>
       </c>
       <c r="B6" s="12">
-        <v>12516</v>
+        <v>12523</v>
       </c>
       <c r="C6" s="13" t="s">
+        <v>25</v>
+      </c>
+      <c r="D6" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="E6" s="13" t="s">
+        <v>17</v>
+      </c>
+      <c r="F6" s="11" t="s">
         <v>27</v>
       </c>
-      <c r="D6" s="11" t="s">
-        <v>11</v>
-      </c>
-      <c r="E6" s="13" t="s">
-        <v>36</v>
-      </c>
-      <c r="F6" s="11" t="s">
-        <v>21</v>
-      </c>
       <c r="G6" s="11" t="s">
-        <v>18</v>
-      </c>
-      <c r="H6" s="14" t="s">
-        <v>53</v>
+        <v>33</v>
+      </c>
+      <c r="H6" s="11" t="s">
+        <v>46</v>
       </c>
       <c r="I6" s="11" t="s">
-        <v>42</v>
+        <v>14</v>
       </c>
     </row>
     <row r="7" spans="1:14" x14ac:dyDescent="0.2">
@@ -1376,28 +1230,28 @@
         <v>6</v>
       </c>
       <c r="B7" s="12">
-        <v>12517</v>
+        <v>12516</v>
       </c>
       <c r="C7" s="13" t="s">
-        <v>17</v>
+        <v>41</v>
       </c>
       <c r="D7" s="11" t="s">
-        <v>31</v>
+        <v>48</v>
       </c>
       <c r="E7" s="13" t="s">
-        <v>37</v>
+        <v>42</v>
       </c>
       <c r="F7" s="11" t="s">
-        <v>22</v>
+        <v>30</v>
       </c>
       <c r="G7" s="11" t="s">
-        <v>18</v>
-      </c>
-      <c r="H7" s="14" t="s">
-        <v>54</v>
+        <v>32</v>
+      </c>
+      <c r="H7" s="11" t="s">
+        <v>45</v>
       </c>
       <c r="I7" s="11" t="s">
-        <v>48</v>
+        <v>51</v>
       </c>
     </row>
     <row r="8" spans="1:14" x14ac:dyDescent="0.2">
@@ -1405,58 +1259,33 @@
         <v>7</v>
       </c>
       <c r="B8" s="12">
-        <v>12518</v>
+        <v>12519</v>
       </c>
       <c r="C8" s="13" t="s">
-        <v>28</v>
+        <v>12</v>
       </c>
       <c r="D8" s="11" t="s">
         <v>13</v>
       </c>
       <c r="E8" s="13" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="F8" s="11" t="s">
-        <v>23</v>
+        <v>28</v>
       </c>
       <c r="G8" s="11" t="s">
-        <v>18</v>
-      </c>
-      <c r="H8" s="14" t="s">
-        <v>55</v>
+        <v>33</v>
+      </c>
+      <c r="H8" s="11" t="s">
+        <v>50</v>
       </c>
       <c r="I8" s="11" t="s">
-        <v>46</v>
+        <v>52</v>
       </c>
     </row>
     <row r="9" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A9" s="11">
-        <v>8</v>
-      </c>
-      <c r="B9" s="12">
-        <v>12519</v>
-      </c>
-      <c r="C9" s="13" t="s">
-        <v>29</v>
-      </c>
-      <c r="D9" s="11" t="s">
-        <v>30</v>
-      </c>
-      <c r="E9" s="13" t="s">
-        <v>39</v>
-      </c>
-      <c r="F9" s="11" t="s">
-        <v>22</v>
-      </c>
-      <c r="G9" s="11" t="s">
-        <v>18</v>
-      </c>
-      <c r="H9" s="14" t="s">
-        <v>41</v>
-      </c>
-      <c r="I9" s="11" t="s">
-        <v>47</v>
-      </c>
+      <c r="C9" s="9"/>
+      <c r="E9" s="9"/>
     </row>
     <row r="10" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C10" s="9"/>
@@ -1466,9 +1295,26 @@
       <c r="C11" s="9"/>
       <c r="E11" s="9"/>
     </row>
-    <row r="12" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="C12" s="9"/>
-      <c r="E12" s="9"/>
+    <row r="13" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="H13" s="14"/>
+    </row>
+    <row r="14" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="H14" s="14"/>
+    </row>
+    <row r="15" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="H15" s="14"/>
+    </row>
+    <row r="16" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="H16" s="14"/>
+    </row>
+    <row r="17" spans="8:8" x14ac:dyDescent="0.2">
+      <c r="H17" s="14"/>
+    </row>
+    <row r="18" spans="8:8" x14ac:dyDescent="0.2">
+      <c r="H18" s="14"/>
+    </row>
+    <row r="19" spans="8:8" x14ac:dyDescent="0.2">
+      <c r="H19" s="14"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>

--- a/config_Release/active_daily_task_info_config.xlsx
+++ b/config_Release/active_daily_task_info_config.xlsx
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="66" uniqueCount="53">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="124" uniqueCount="53">
   <si>
     <t>id|行号</t>
     <phoneticPr fontId="4" type="noConversion"/>
@@ -95,10 +95,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>3D捕鱼中累计在线60分钟</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>rw_icon_ljsj</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -160,10 +156,6 @@
   </si>
   <si>
     <t>"福利券","活跃度"</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>"x1万","x20"</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -171,23 +163,6 @@
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
-    <t>2万鱼币，召唤*1</t>
-  </si>
-  <si>
-    <t>2万鱼币，1万小游戏币</t>
-  </si>
-  <si>
-    <t>3万鱼币，10福利券</t>
-  </si>
-  <si>
-    <t>1万鱼币，锁定*2</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>5万金币，50福利券</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>捕获彩金</t>
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
@@ -196,44 +171,72 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>登录游戏</t>
+    <t>"x30","x30"</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>rw_icon_js</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>"x100","x10"</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>"game_Fishing3DHall",</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>"shop_bay","jing_bi"</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>"x5000","x20"</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>"x5000","x20"</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>"x1万","x30"</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>"x30","x50"</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>5000鱼币，锁定*2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1万鱼币，召唤*1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1万鱼币，1万小游戏币</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1万鱼币，10福利券</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>3万金币，30福利券</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>3D捕鱼中累计在线90分钟</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>进入游戏</t>
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
-    <t>登陆1次3D捕鱼游戏</t>
+    <t>进入3D捕鱼任意场1次</t>
     <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>"x2万","x30"</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>"x30","x30"</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>"x1万","x20"</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>rw_icon_js</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>"x100","x10"</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>"x30","x50"</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>"game_Fishing3DHall",</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>"shop_bay","jing_bi"</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -680,7 +683,7 @@
   <dimension ref="A1:J40"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C6" sqref="C6"/>
+      <selection activeCell="C5" sqref="C5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -715,7 +718,7 @@
         <v>30</v>
       </c>
       <c r="C2" s="10" t="s">
-        <v>39</v>
+        <v>45</v>
       </c>
       <c r="D2" s="4"/>
       <c r="E2" s="8"/>
@@ -729,7 +732,7 @@
         <v>60</v>
       </c>
       <c r="C3" s="10" t="s">
-        <v>36</v>
+        <v>46</v>
       </c>
       <c r="D3" s="4"/>
       <c r="E3" s="8"/>
@@ -743,7 +746,7 @@
         <v>90</v>
       </c>
       <c r="C4" s="10" t="s">
-        <v>37</v>
+        <v>47</v>
       </c>
       <c r="D4" s="4"/>
       <c r="E4" s="4"/>
@@ -757,7 +760,7 @@
         <v>120</v>
       </c>
       <c r="C5" s="10" t="s">
-        <v>38</v>
+        <v>48</v>
       </c>
       <c r="D5" s="4"/>
       <c r="E5" s="4"/>
@@ -771,7 +774,7 @@
         <v>150</v>
       </c>
       <c r="C6" s="10" t="s">
-        <v>40</v>
+        <v>49</v>
       </c>
       <c r="D6" s="4"/>
       <c r="E6" s="4"/>
@@ -1029,8 +1032,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:N19"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="F1" workbookViewId="0">
-      <selection activeCell="I8" sqref="I8"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E2" sqref="E2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -1088,22 +1091,22 @@
         <v>12512</v>
       </c>
       <c r="C2" s="13" t="s">
-        <v>43</v>
+        <v>51</v>
       </c>
       <c r="D2" s="11" t="s">
         <v>10</v>
       </c>
       <c r="E2" s="13" t="s">
-        <v>44</v>
+        <v>52</v>
       </c>
       <c r="F2" s="11" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="G2" s="11" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="H2" s="11" t="s">
-        <v>49</v>
+        <v>38</v>
       </c>
       <c r="I2" s="11" t="s">
         <v>14</v>
@@ -1117,22 +1120,22 @@
         <v>12520</v>
       </c>
       <c r="C3" s="13" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="D3" s="11" t="s">
+        <v>19</v>
+      </c>
+      <c r="E3" s="13" t="s">
         <v>20</v>
       </c>
-      <c r="E3" s="13" t="s">
-        <v>21</v>
-      </c>
       <c r="F3" s="11" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="G3" s="11" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="H3" s="11" t="s">
-        <v>47</v>
+        <v>41</v>
       </c>
       <c r="I3" s="11" t="s">
         <v>14</v>
@@ -1146,22 +1149,22 @@
         <v>12521</v>
       </c>
       <c r="C4" s="13" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D4" s="11" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="E4" s="13" t="s">
         <v>15</v>
       </c>
       <c r="F4" s="11" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="G4" s="11" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="H4" s="11" t="s">
-        <v>34</v>
+        <v>42</v>
       </c>
       <c r="I4" s="11" t="s">
         <v>14</v>
@@ -1175,22 +1178,22 @@
         <v>12522</v>
       </c>
       <c r="C5" s="13" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="D5" s="15" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="E5" s="13" t="s">
         <v>16</v>
       </c>
       <c r="F5" s="11" t="s">
+        <v>30</v>
+      </c>
+      <c r="G5" s="11" t="s">
         <v>31</v>
       </c>
-      <c r="G5" s="11" t="s">
-        <v>32</v>
-      </c>
       <c r="H5" s="11" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="I5" s="11" t="s">
         <v>14</v>
@@ -1204,22 +1207,22 @@
         <v>12523</v>
       </c>
       <c r="C6" s="13" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D6" s="11" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="E6" s="13" t="s">
-        <v>17</v>
+        <v>50</v>
       </c>
       <c r="F6" s="11" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="G6" s="11" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="H6" s="11" t="s">
-        <v>46</v>
+        <v>36</v>
       </c>
       <c r="I6" s="11" t="s">
         <v>14</v>
@@ -1233,25 +1236,25 @@
         <v>12516</v>
       </c>
       <c r="C7" s="13" t="s">
-        <v>41</v>
+        <v>34</v>
       </c>
       <c r="D7" s="11" t="s">
-        <v>48</v>
+        <v>37</v>
       </c>
       <c r="E7" s="13" t="s">
-        <v>42</v>
+        <v>35</v>
       </c>
       <c r="F7" s="11" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="G7" s="11" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="H7" s="11" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="I7" s="11" t="s">
-        <v>51</v>
+        <v>39</v>
       </c>
     </row>
     <row r="8" spans="1:14" x14ac:dyDescent="0.2">
@@ -1268,19 +1271,19 @@
         <v>13</v>
       </c>
       <c r="E8" s="13" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="F8" s="11" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="G8" s="11" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="H8" s="11" t="s">
-        <v>50</v>
+        <v>44</v>
       </c>
       <c r="I8" s="11" t="s">
-        <v>52</v>
+        <v>40</v>
       </c>
     </row>
     <row r="9" spans="1:14" x14ac:dyDescent="0.2">

--- a/config_Release/active_daily_task_info_config.xlsx
+++ b/config_Release/active_daily_task_info_config.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\HLBY\HuanLe_doc\config_debug\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\HLBY\HuanLe_doc\config_Release\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="124" uniqueCount="53">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="66" uniqueCount="53">
   <si>
     <t>id|行号</t>
     <phoneticPr fontId="4" type="noConversion"/>
@@ -87,10 +87,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>3D捕鱼中捕获任意10条鱼</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>3D捕鱼中累计开炮1000次</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -237,6 +233,10 @@
   <si>
     <t>进入3D捕鱼任意场1次</t>
     <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>3D捕鱼中捕获任意100条鱼</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -718,7 +718,7 @@
         <v>30</v>
       </c>
       <c r="C2" s="10" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="D2" s="4"/>
       <c r="E2" s="8"/>
@@ -732,7 +732,7 @@
         <v>60</v>
       </c>
       <c r="C3" s="10" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="D3" s="4"/>
       <c r="E3" s="8"/>
@@ -746,7 +746,7 @@
         <v>90</v>
       </c>
       <c r="C4" s="10" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="D4" s="4"/>
       <c r="E4" s="4"/>
@@ -760,7 +760,7 @@
         <v>120</v>
       </c>
       <c r="C5" s="10" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="D5" s="4"/>
       <c r="E5" s="4"/>
@@ -774,7 +774,7 @@
         <v>150</v>
       </c>
       <c r="C6" s="10" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="D6" s="4"/>
       <c r="E6" s="4"/>
@@ -1033,7 +1033,7 @@
   <dimension ref="A1:N19"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E2" sqref="E2"/>
+      <selection activeCell="A4" sqref="A4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -1091,22 +1091,22 @@
         <v>12512</v>
       </c>
       <c r="C2" s="13" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D2" s="11" t="s">
         <v>10</v>
       </c>
       <c r="E2" s="13" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="F2" s="11" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="G2" s="11" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="H2" s="11" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="I2" s="11" t="s">
         <v>14</v>
@@ -1120,22 +1120,22 @@
         <v>12520</v>
       </c>
       <c r="C3" s="13" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="D3" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="E3" s="13" t="s">
         <v>19</v>
       </c>
-      <c r="E3" s="13" t="s">
-        <v>20</v>
-      </c>
       <c r="F3" s="11" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="G3" s="11" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="H3" s="11" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="I3" s="11" t="s">
         <v>14</v>
@@ -1149,22 +1149,22 @@
         <v>12521</v>
       </c>
       <c r="C4" s="13" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D4" s="11" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="E4" s="13" t="s">
-        <v>15</v>
+        <v>52</v>
       </c>
       <c r="F4" s="11" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="G4" s="11" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="H4" s="11" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="I4" s="11" t="s">
         <v>14</v>
@@ -1178,22 +1178,22 @@
         <v>12522</v>
       </c>
       <c r="C5" s="13" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="D5" s="15" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E5" s="13" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="F5" s="11" t="s">
+        <v>29</v>
+      </c>
+      <c r="G5" s="11" t="s">
         <v>30</v>
       </c>
-      <c r="G5" s="11" t="s">
-        <v>31</v>
-      </c>
       <c r="H5" s="11" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="I5" s="11" t="s">
         <v>14</v>
@@ -1207,22 +1207,22 @@
         <v>12523</v>
       </c>
       <c r="C6" s="13" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="D6" s="11" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="E6" s="13" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="F6" s="11" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="G6" s="11" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="H6" s="11" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="I6" s="11" t="s">
         <v>14</v>
@@ -1236,25 +1236,25 @@
         <v>12516</v>
       </c>
       <c r="C7" s="13" t="s">
+        <v>33</v>
+      </c>
+      <c r="D7" s="11" t="s">
+        <v>36</v>
+      </c>
+      <c r="E7" s="13" t="s">
         <v>34</v>
       </c>
-      <c r="D7" s="11" t="s">
-        <v>37</v>
-      </c>
-      <c r="E7" s="13" t="s">
-        <v>35</v>
-      </c>
       <c r="F7" s="11" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="G7" s="11" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="H7" s="11" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="I7" s="11" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
     </row>
     <row r="8" spans="1:14" x14ac:dyDescent="0.2">
@@ -1271,19 +1271,19 @@
         <v>13</v>
       </c>
       <c r="E8" s="13" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="F8" s="11" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="G8" s="11" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="H8" s="11" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="I8" s="11" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
     </row>
     <row r="9" spans="1:14" x14ac:dyDescent="0.2">

--- a/config_Release/active_daily_task_info_config.xlsx
+++ b/config_Release/active_daily_task_info_config.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\HLBY\HuanLe_doc\config_Release\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\HLBY\HuanLe_doc\config_debug\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="66" uniqueCount="53">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="66" uniqueCount="54">
   <si>
     <t>id|行号</t>
     <phoneticPr fontId="4" type="noConversion"/>
@@ -191,10 +191,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>"x5000","x20"</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>"x1万","x30"</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -236,6 +232,14 @@
   </si>
   <si>
     <t>3D捕鱼中捕获任意100条鱼</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>"50福利券赛门票","活跃度"</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>"x1","x20"</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -718,7 +722,7 @@
         <v>30</v>
       </c>
       <c r="C2" s="10" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="D2" s="4"/>
       <c r="E2" s="8"/>
@@ -732,7 +736,7 @@
         <v>60</v>
       </c>
       <c r="C3" s="10" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="D3" s="4"/>
       <c r="E3" s="8"/>
@@ -746,7 +750,7 @@
         <v>90</v>
       </c>
       <c r="C4" s="10" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="D4" s="4"/>
       <c r="E4" s="4"/>
@@ -760,7 +764,7 @@
         <v>120</v>
       </c>
       <c r="C5" s="10" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="D5" s="4"/>
       <c r="E5" s="4"/>
@@ -774,7 +778,7 @@
         <v>150</v>
       </c>
       <c r="C6" s="10" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="D6" s="4"/>
       <c r="E6" s="4"/>
@@ -1091,13 +1095,13 @@
         <v>12512</v>
       </c>
       <c r="C2" s="13" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="D2" s="11" t="s">
         <v>10</v>
       </c>
       <c r="E2" s="13" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="F2" s="11" t="s">
         <v>28</v>
@@ -1155,16 +1159,16 @@
         <v>17</v>
       </c>
       <c r="E4" s="13" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="F4" s="11" t="s">
         <v>27</v>
       </c>
       <c r="G4" s="11" t="s">
-        <v>30</v>
+        <v>52</v>
       </c>
       <c r="H4" s="11" t="s">
-        <v>41</v>
+        <v>53</v>
       </c>
       <c r="I4" s="11" t="s">
         <v>14</v>
@@ -1193,7 +1197,7 @@
         <v>30</v>
       </c>
       <c r="H5" s="11" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="I5" s="11" t="s">
         <v>14</v>
@@ -1213,7 +1217,7 @@
         <v>16</v>
       </c>
       <c r="E6" s="13" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="F6" s="11" t="s">
         <v>25</v>
@@ -1251,7 +1255,7 @@
         <v>30</v>
       </c>
       <c r="H7" s="11" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="I7" s="11" t="s">
         <v>38</v>
@@ -1280,7 +1284,7 @@
         <v>31</v>
       </c>
       <c r="H8" s="11" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="I8" s="11" t="s">
         <v>39</v>

--- a/config_Release/active_daily_task_info_config.xlsx
+++ b/config_Release/active_daily_task_info_config.xlsx
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="66" uniqueCount="54">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="66" uniqueCount="55">
   <si>
     <t>id|行号</t>
     <phoneticPr fontId="4" type="noConversion"/>
@@ -240,6 +240,10 @@
   </si>
   <si>
     <t>"x1","x20"</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>"ty_icon_pms_1","ty_icon_hytb",</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1036,8 +1040,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:N19"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A4" sqref="A4"/>
+    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
+      <selection activeCell="F4" sqref="F4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -1162,7 +1166,7 @@
         <v>51</v>
       </c>
       <c r="F4" s="11" t="s">
-        <v>27</v>
+        <v>54</v>
       </c>
       <c r="G4" s="11" t="s">
         <v>52</v>

--- a/config_Release/active_daily_task_info_config.xlsx
+++ b/config_Release/active_daily_task_info_config.xlsx
@@ -14,6 +14,7 @@
   <sheets>
     <sheet name="active_award_config|总活跃度任务" sheetId="4" r:id="rId1"/>
     <sheet name="active_task_item|单个活跃度任务" sheetId="5" r:id="rId2"/>
+    <sheet name="tag|标签" sheetId="6" r:id="rId3"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -25,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="66" uniqueCount="55">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="293" uniqueCount="130">
   <si>
     <t>id|行号</t>
     <phoneticPr fontId="4" type="noConversion"/>
@@ -127,14 +128,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>"ty_icon_flq1","ty_icon_hytb",</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>"ty_icon_flq3","ty_icon_hytb",</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>"ty_icon_jb_30y","ty_icon_hytb",</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -148,10 +141,6 @@
   </si>
   <si>
     <t>"金币","活跃度"</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>"福利券","活跃度"</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -167,10 +156,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>"x30","x30"</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>rw_icon_js</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -195,10 +180,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>"x30","x50"</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>5000鱼币，锁定*2</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -208,14 +189,6 @@
   </si>
   <si>
     <t>1万鱼币，1万小游戏币</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>1万鱼币，10福利券</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>3万金币，30福利券</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -244,6 +217,323 @@
   </si>
   <si>
     <t>"ty_icon_pms_1","ty_icon_hytb",</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>id|id</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>line|行号</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">key|对应标签 </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>tag|对应标签</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>tag|标签</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>rate_id|进度任务ID</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>观看广告</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>累计赢金</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>3D捕鱼中累计赢金20万</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>3D捕鱼中捕获5条彩金鱼</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>单笔充值6元及以上</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>累计充值10元及以上</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>累计充值30元及以上</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>累计充值100元及以上</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>累计充值</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>累计充值</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>参与游戏</t>
+  </si>
+  <si>
+    <t>参与游戏</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>参与任意三种小游戏</t>
+  </si>
+  <si>
+    <t>参与任意三种小游戏</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>rw_icon_jn</t>
+  </si>
+  <si>
+    <t>击杀BOSS</t>
+  </si>
+  <si>
+    <t>击杀BOSS</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>3D捕鱼中击杀BOSS鱼1条</t>
+  </si>
+  <si>
+    <t>3D捕鱼中击杀BOSS鱼1条</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>rw_icon_bh</t>
+  </si>
+  <si>
+    <t>3D捕鱼中累计赢金50万</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>击杀活动鱼</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>3D捕鱼中击杀活动鱼1次</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>击杀高倍鱼</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>击杀高倍鱼</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>击杀高倍鱼</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>3D捕鱼中击杀100倍以上鱼5条</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>3D捕鱼中击杀50倍以上鱼5条</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>"x1.5万","x30"</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>观看两次广告</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>"200福利券赛门票","活跃度"</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>"500福利券赛门票","活跃度"</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>"1000福利券赛门票","活跃度"</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>3D捕鱼中击杀100倍以上鱼8条</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>"game_MiniGame",</t>
+  </si>
+  <si>
+    <t>"game_MiniGame",</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>"ty_icon_jb_15y","ty_icon_hytb",</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>rw_icon_hd</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>rw_icon_boss</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>rw_icon_boss</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>rw_icon_ljyj</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>rw_icon_ljyj</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>rw_icon_ljyj</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>rw_icon_ljyj</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>rw_icon_ljyj</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>actp_fish_daily_task_1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>actp_fish_daily_task_2</t>
+  </si>
+  <si>
+    <t>actp_fish_daily_task_3</t>
+  </si>
+  <si>
+    <t>actp_fish_daily_task_4</t>
+  </si>
+  <si>
+    <t>actp_fish_daily_task_5</t>
+  </si>
+  <si>
+    <t>"ty_icon_pms_3","ty_icon_hytb",</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>"ty_icon_pms_4","ty_icon_hytb",</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>"x80000","x20"</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>"x1","x30"</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>"x1","x30"</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>"x50000","x20"</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>"x30000","x30"</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>"x30000","x50"</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>"x30000","x30"</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>"x30000","x30"</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>"x50000","x50"</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>"x30000","x30"</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>"x150000","x50"</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>"x30000","x30"</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>"x500000","x50"</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1万鱼币，1万金币</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>6万金币</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>"x10000","x30"</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>"x2万","x20"</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>"x10000","x30"</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>"x5万","x20"</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>游戏中累计赢金1000万</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>游戏中累计赢金100万</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>"ty_icon_pms_2","ty_icon_hytb",</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>"x10000","x30"</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>"x1.5万","x20"</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -251,7 +541,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="9" x14ac:knownFonts="1">
+  <fonts count="11">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -315,8 +605,22 @@
       <family val="3"/>
       <charset val="134"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <name val="等线"/>
+      <family val="2"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="等线"/>
+      <family val="3"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="3">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -329,8 +633,20 @@
         <bgColor rgb="FFFFFFFF"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.39997558519241921"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="2">
+  <borders count="3">
     <border>
       <left/>
       <right/>
@@ -353,6 +669,17 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -361,7 +688,7 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="16">
+  <cellXfs count="29">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -379,14 +706,8 @@
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
@@ -400,10 +721,55 @@
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1">
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -688,346 +1054,552 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:J40"/>
+  <dimension ref="A1:K35"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C5" sqref="C5"/>
+      <selection activeCell="E15" sqref="E15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="14.25"/>
   <cols>
     <col min="1" max="1" width="8.5" style="2" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="20.625" style="2" customWidth="1"/>
-    <col min="3" max="3" width="29.5" style="2" customWidth="1"/>
-    <col min="4" max="4" width="14.5" style="2" customWidth="1"/>
-    <col min="5" max="7" width="22" style="2" customWidth="1"/>
-    <col min="8" max="8" width="20.125" style="2" customWidth="1"/>
-    <col min="9" max="9" width="8.875" style="2"/>
-    <col min="10" max="10" width="70.625" style="2" customWidth="1"/>
-    <col min="11" max="16384" width="8.875" style="2"/>
+    <col min="2" max="2" width="21.375" style="2" customWidth="1"/>
+    <col min="3" max="3" width="20.625" style="2" customWidth="1"/>
+    <col min="4" max="4" width="29.5" style="2" customWidth="1"/>
+    <col min="5" max="5" width="14.5" style="2" customWidth="1"/>
+    <col min="6" max="8" width="22" style="2" customWidth="1"/>
+    <col min="9" max="9" width="20.125" style="2" customWidth="1"/>
+    <col min="10" max="10" width="8.875" style="2"/>
+    <col min="11" max="11" width="70.625" style="2" customWidth="1"/>
+    <col min="12" max="16384" width="8.875" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" s="1" customFormat="1" ht="32.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:8" s="1" customFormat="1" ht="32.25" customHeight="1">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="C1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="D1" s="1" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:7" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:8" ht="16.5">
       <c r="A2" s="2">
         <v>1</v>
       </c>
       <c r="B2" s="2">
+        <v>1</v>
+      </c>
+      <c r="C2" s="2">
         <v>30</v>
       </c>
-      <c r="C2" s="10" t="s">
-        <v>43</v>
-      </c>
-      <c r="D2" s="4"/>
-      <c r="E2" s="8"/>
-      <c r="F2" s="8"/>
-    </row>
-    <row r="3" spans="1:7" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="D2" s="8" t="s">
+        <v>38</v>
+      </c>
+      <c r="E2" s="4"/>
+      <c r="F2" s="7"/>
+      <c r="G2" s="7"/>
+    </row>
+    <row r="3" spans="1:8" ht="16.5">
       <c r="A3" s="2">
         <v>2</v>
       </c>
       <c r="B3" s="2">
+        <v>1</v>
+      </c>
+      <c r="C3" s="2">
         <v>60</v>
       </c>
-      <c r="C3" s="10" t="s">
-        <v>44</v>
-      </c>
-      <c r="D3" s="4"/>
-      <c r="E3" s="8"/>
-      <c r="F3" s="8"/>
-    </row>
-    <row r="4" spans="1:7" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="D3" s="8" t="s">
+        <v>39</v>
+      </c>
+      <c r="E3" s="4"/>
+      <c r="F3" s="7"/>
+      <c r="G3" s="7"/>
+    </row>
+    <row r="4" spans="1:8" ht="16.5">
       <c r="A4" s="2">
         <v>3</v>
       </c>
       <c r="B4" s="2">
+        <v>1</v>
+      </c>
+      <c r="C4" s="2">
         <v>90</v>
       </c>
-      <c r="C4" s="10" t="s">
-        <v>45</v>
-      </c>
-      <c r="D4" s="4"/>
+      <c r="D4" s="8" t="s">
+        <v>40</v>
+      </c>
       <c r="E4" s="4"/>
-      <c r="F4" s="8"/>
-    </row>
-    <row r="5" spans="1:7" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="F4" s="4"/>
+      <c r="G4" s="7"/>
+    </row>
+    <row r="5" spans="1:8" ht="16.5">
       <c r="A5" s="2">
         <v>4</v>
       </c>
       <c r="B5" s="2">
+        <v>1</v>
+      </c>
+      <c r="C5" s="2">
         <v>120</v>
       </c>
-      <c r="C5" s="10" t="s">
-        <v>46</v>
-      </c>
-      <c r="D5" s="4"/>
+      <c r="D5" s="8" t="s">
+        <v>119</v>
+      </c>
       <c r="E5" s="4"/>
       <c r="F5" s="4"/>
-    </row>
-    <row r="6" spans="1:7" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="G5" s="4"/>
+    </row>
+    <row r="6" spans="1:8" ht="16.5">
       <c r="A6" s="2">
         <v>5</v>
       </c>
       <c r="B6" s="2">
+        <v>1</v>
+      </c>
+      <c r="C6" s="2">
         <v>150</v>
       </c>
-      <c r="C6" s="10" t="s">
-        <v>47</v>
-      </c>
-      <c r="D6" s="4"/>
+      <c r="D6" s="8" t="s">
+        <v>120</v>
+      </c>
       <c r="E6" s="4"/>
       <c r="F6" s="4"/>
-    </row>
-    <row r="7" spans="1:7" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="C7" s="4"/>
-      <c r="D7" s="4"/>
+      <c r="G6" s="4"/>
+    </row>
+    <row r="7" spans="1:8" ht="16.5">
+      <c r="A7" s="2">
+        <v>6</v>
+      </c>
+      <c r="B7" s="2">
+        <v>2</v>
+      </c>
+      <c r="C7" s="2">
+        <v>30</v>
+      </c>
+      <c r="D7" s="8" t="s">
+        <v>38</v>
+      </c>
       <c r="E7" s="4"/>
       <c r="F7" s="4"/>
-    </row>
-    <row r="8" spans="1:7" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="C8" s="4"/>
-      <c r="D8" s="4"/>
+      <c r="G7" s="4"/>
+      <c r="H7" s="4"/>
+    </row>
+    <row r="8" spans="1:8" ht="16.5">
+      <c r="A8" s="2">
+        <v>7</v>
+      </c>
+      <c r="B8" s="2">
+        <v>2</v>
+      </c>
+      <c r="C8" s="2">
+        <v>60</v>
+      </c>
+      <c r="D8" s="8" t="s">
+        <v>39</v>
+      </c>
       <c r="E8" s="4"/>
       <c r="F8" s="4"/>
-    </row>
-    <row r="9" spans="1:7" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="C9" s="7"/>
-      <c r="D9" s="4"/>
+      <c r="G8" s="4"/>
+      <c r="H8" s="4"/>
+    </row>
+    <row r="9" spans="1:8" ht="16.5">
+      <c r="A9" s="2">
+        <v>8</v>
+      </c>
+      <c r="B9" s="2">
+        <v>2</v>
+      </c>
+      <c r="C9" s="2">
+        <v>90</v>
+      </c>
+      <c r="D9" s="8" t="s">
+        <v>40</v>
+      </c>
       <c r="E9" s="4"/>
       <c r="F9" s="4"/>
       <c r="G9" s="4"/>
-    </row>
-    <row r="10" spans="1:7" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="C10" s="5"/>
-      <c r="D10" s="4"/>
+      <c r="H9" s="4"/>
+    </row>
+    <row r="10" spans="1:8" ht="16.5">
+      <c r="A10" s="2">
+        <v>9</v>
+      </c>
+      <c r="B10" s="2">
+        <v>2</v>
+      </c>
+      <c r="C10" s="2">
+        <v>120</v>
+      </c>
+      <c r="D10" s="8" t="s">
+        <v>119</v>
+      </c>
       <c r="E10" s="4"/>
-      <c r="F10" s="5"/>
-      <c r="G10" s="5"/>
-    </row>
-    <row r="11" spans="1:7" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="C11" s="8"/>
-      <c r="D11" s="4"/>
-      <c r="E11" s="4"/>
-      <c r="F11" s="4"/>
-      <c r="G11" s="4"/>
-    </row>
-    <row r="12" spans="1:7" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="C12" s="4"/>
-      <c r="D12" s="4"/>
+      <c r="F10" s="4"/>
+      <c r="G10" s="4"/>
+      <c r="H10" s="4"/>
+    </row>
+    <row r="11" spans="1:8">
+      <c r="A11" s="2">
+        <v>10</v>
+      </c>
+      <c r="B11" s="2">
+        <v>2</v>
+      </c>
+      <c r="C11" s="2">
+        <v>150</v>
+      </c>
+      <c r="D11" s="8" t="s">
+        <v>120</v>
+      </c>
+      <c r="E11" s="5"/>
+      <c r="F11" s="5"/>
+      <c r="G11" s="5"/>
+      <c r="H11" s="5"/>
+    </row>
+    <row r="12" spans="1:8" ht="16.5">
+      <c r="A12" s="2">
+        <v>11</v>
+      </c>
+      <c r="B12" s="2">
+        <v>3</v>
+      </c>
+      <c r="C12" s="2">
+        <v>30</v>
+      </c>
+      <c r="D12" s="8" t="s">
+        <v>38</v>
+      </c>
       <c r="E12" s="4"/>
       <c r="F12" s="4"/>
       <c r="G12" s="4"/>
-    </row>
-    <row r="13" spans="1:7" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="C13" s="4"/>
-      <c r="D13" s="4"/>
+      <c r="H12" s="4"/>
+    </row>
+    <row r="13" spans="1:8" ht="16.5">
+      <c r="A13" s="2">
+        <v>12</v>
+      </c>
+      <c r="B13" s="2">
+        <v>3</v>
+      </c>
+      <c r="C13" s="2">
+        <v>60</v>
+      </c>
+      <c r="D13" s="8" t="s">
+        <v>39</v>
+      </c>
       <c r="E13" s="4"/>
       <c r="F13" s="4"/>
       <c r="G13" s="4"/>
-    </row>
-    <row r="14" spans="1:7" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="C14" s="4"/>
-      <c r="D14" s="4"/>
+      <c r="H13" s="4"/>
+    </row>
+    <row r="14" spans="1:8" ht="16.5">
+      <c r="A14" s="2">
+        <v>13</v>
+      </c>
+      <c r="B14" s="2">
+        <v>3</v>
+      </c>
+      <c r="C14" s="2">
+        <v>90</v>
+      </c>
+      <c r="D14" s="8" t="s">
+        <v>40</v>
+      </c>
       <c r="E14" s="4"/>
       <c r="F14" s="4"/>
       <c r="G14" s="4"/>
-    </row>
-    <row r="15" spans="1:7" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="C15" s="4"/>
-      <c r="D15" s="4"/>
-      <c r="E15" s="4"/>
-      <c r="F15" s="4"/>
-      <c r="G15" s="4"/>
-    </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="C16" s="5"/>
-      <c r="D16" s="5"/>
-      <c r="E16" s="5"/>
-      <c r="F16" s="5"/>
-      <c r="G16" s="5"/>
-    </row>
-    <row r="17" spans="3:10" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="C17" s="4"/>
-      <c r="D17" s="4"/>
+      <c r="H14" s="4"/>
+    </row>
+    <row r="15" spans="1:8">
+      <c r="A15" s="2">
+        <v>14</v>
+      </c>
+      <c r="B15" s="2">
+        <v>3</v>
+      </c>
+      <c r="C15" s="2">
+        <v>120</v>
+      </c>
+      <c r="D15" s="8" t="s">
+        <v>119</v>
+      </c>
+      <c r="E15" s="5"/>
+      <c r="F15" s="5"/>
+      <c r="G15" s="5"/>
+      <c r="H15" s="5"/>
+    </row>
+    <row r="16" spans="1:8" ht="16.5">
+      <c r="A16" s="2">
+        <v>15</v>
+      </c>
+      <c r="B16" s="2">
+        <v>3</v>
+      </c>
+      <c r="C16" s="2">
+        <v>150</v>
+      </c>
+      <c r="D16" s="8" t="s">
+        <v>120</v>
+      </c>
+      <c r="E16" s="4"/>
+      <c r="F16" s="4"/>
+      <c r="G16" s="4"/>
+      <c r="H16" s="4"/>
+    </row>
+    <row r="17" spans="1:11" ht="16.5">
+      <c r="A17" s="2">
+        <v>16</v>
+      </c>
+      <c r="B17" s="2">
+        <v>4</v>
+      </c>
+      <c r="C17" s="2">
+        <v>30</v>
+      </c>
+      <c r="D17" s="8" t="s">
+        <v>38</v>
+      </c>
       <c r="E17" s="4"/>
       <c r="F17" s="4"/>
       <c r="G17" s="4"/>
-    </row>
-    <row r="18" spans="3:10" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="C18" s="4"/>
-      <c r="D18" s="4"/>
+      <c r="H17" s="4"/>
+    </row>
+    <row r="18" spans="1:11" ht="16.5">
+      <c r="A18" s="2">
+        <v>17</v>
+      </c>
+      <c r="B18" s="2">
+        <v>4</v>
+      </c>
+      <c r="C18" s="2">
+        <v>60</v>
+      </c>
+      <c r="D18" s="8" t="s">
+        <v>39</v>
+      </c>
       <c r="E18" s="4"/>
       <c r="F18" s="4"/>
       <c r="G18" s="4"/>
-    </row>
-    <row r="19" spans="3:10" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="C19" s="4"/>
-      <c r="D19" s="4"/>
-      <c r="E19" s="4"/>
-      <c r="F19" s="4"/>
-      <c r="G19" s="4"/>
-    </row>
-    <row r="20" spans="3:10" x14ac:dyDescent="0.2">
-      <c r="C20" s="5"/>
-      <c r="D20" s="5"/>
-      <c r="E20" s="5"/>
-      <c r="F20" s="5"/>
-      <c r="G20" s="5"/>
-    </row>
-    <row r="21" spans="3:10" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="C21" s="4"/>
-      <c r="D21" s="4"/>
+      <c r="H18" s="4"/>
+    </row>
+    <row r="19" spans="1:11" ht="16.5">
+      <c r="A19" s="2">
+        <v>18</v>
+      </c>
+      <c r="B19" s="2">
+        <v>4</v>
+      </c>
+      <c r="C19" s="2">
+        <v>90</v>
+      </c>
+      <c r="D19" s="8" t="s">
+        <v>40</v>
+      </c>
+      <c r="E19" s="6"/>
+      <c r="F19" s="6"/>
+      <c r="G19" s="6"/>
+      <c r="H19" s="6"/>
+      <c r="K19" s="3"/>
+    </row>
+    <row r="20" spans="1:11" ht="16.5">
+      <c r="A20" s="2">
+        <v>19</v>
+      </c>
+      <c r="B20" s="2">
+        <v>4</v>
+      </c>
+      <c r="C20" s="2">
+        <v>120</v>
+      </c>
+      <c r="D20" s="8" t="s">
+        <v>119</v>
+      </c>
+      <c r="E20" s="4"/>
+      <c r="F20" s="4"/>
+      <c r="G20" s="4"/>
+      <c r="H20" s="4"/>
+      <c r="K20" s="3"/>
+    </row>
+    <row r="21" spans="1:11" ht="16.5">
+      <c r="A21" s="2">
+        <v>20</v>
+      </c>
+      <c r="B21" s="2">
+        <v>4</v>
+      </c>
+      <c r="C21" s="2">
+        <v>150</v>
+      </c>
+      <c r="D21" s="8" t="s">
+        <v>120</v>
+      </c>
       <c r="E21" s="4"/>
       <c r="F21" s="4"/>
       <c r="G21" s="4"/>
-    </row>
-    <row r="22" spans="3:10" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="C22" s="4"/>
-      <c r="D22" s="4"/>
-      <c r="E22" s="4"/>
-      <c r="F22" s="4"/>
-      <c r="G22" s="4"/>
-    </row>
-    <row r="23" spans="3:10" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="C23" s="4"/>
-      <c r="D23" s="4"/>
+      <c r="H21" s="4"/>
+      <c r="K21" s="3"/>
+    </row>
+    <row r="22" spans="1:11" ht="16.5">
+      <c r="A22" s="2">
+        <v>21</v>
+      </c>
+      <c r="B22" s="2">
+        <v>5</v>
+      </c>
+      <c r="C22" s="2">
+        <v>30</v>
+      </c>
+      <c r="D22" s="8" t="s">
+        <v>38</v>
+      </c>
+      <c r="E22" s="5"/>
+      <c r="F22" s="5"/>
+      <c r="G22" s="5"/>
+      <c r="H22" s="5"/>
+      <c r="K22" s="3"/>
+    </row>
+    <row r="23" spans="1:11" ht="16.5">
+      <c r="A23" s="2">
+        <v>22</v>
+      </c>
+      <c r="B23" s="2">
+        <v>5</v>
+      </c>
+      <c r="C23" s="2">
+        <v>60</v>
+      </c>
+      <c r="D23" s="8" t="s">
+        <v>39</v>
+      </c>
       <c r="E23" s="4"/>
       <c r="F23" s="4"/>
       <c r="G23" s="4"/>
-    </row>
-    <row r="24" spans="3:10" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="C24" s="6"/>
-      <c r="D24" s="6"/>
-      <c r="E24" s="6"/>
-      <c r="F24" s="6"/>
-      <c r="G24" s="6"/>
-      <c r="J24" s="3"/>
-    </row>
-    <row r="25" spans="3:10" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="C25" s="4"/>
-      <c r="D25" s="4"/>
+      <c r="H23" s="4"/>
+      <c r="K23" s="3"/>
+    </row>
+    <row r="24" spans="1:11" ht="16.5">
+      <c r="A24" s="2">
+        <v>23</v>
+      </c>
+      <c r="B24" s="2">
+        <v>5</v>
+      </c>
+      <c r="C24" s="2">
+        <v>90</v>
+      </c>
+      <c r="D24" s="8" t="s">
+        <v>40</v>
+      </c>
+      <c r="E24" s="4"/>
+      <c r="F24" s="4"/>
+      <c r="G24" s="4"/>
+      <c r="H24" s="4"/>
+    </row>
+    <row r="25" spans="1:11" ht="16.5">
+      <c r="A25" s="2">
+        <v>24</v>
+      </c>
+      <c r="B25" s="2">
+        <v>5</v>
+      </c>
+      <c r="C25" s="2">
+        <v>120</v>
+      </c>
+      <c r="D25" s="8" t="s">
+        <v>119</v>
+      </c>
       <c r="E25" s="4"/>
       <c r="F25" s="4"/>
       <c r="G25" s="4"/>
-      <c r="J25" s="3"/>
-    </row>
-    <row r="26" spans="3:10" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="C26" s="4"/>
-      <c r="D26" s="4"/>
-      <c r="E26" s="4"/>
-      <c r="F26" s="4"/>
-      <c r="G26" s="4"/>
-      <c r="J26" s="3"/>
-    </row>
-    <row r="27" spans="3:10" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="C27" s="5"/>
-      <c r="D27" s="5"/>
-      <c r="E27" s="5"/>
-      <c r="F27" s="5"/>
-      <c r="G27" s="5"/>
-      <c r="J27" s="3"/>
-    </row>
-    <row r="28" spans="3:10" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="C28" s="4"/>
+      <c r="H25" s="4"/>
+    </row>
+    <row r="26" spans="1:11">
+      <c r="A26" s="2">
+        <v>25</v>
+      </c>
+      <c r="B26" s="2">
+        <v>5</v>
+      </c>
+      <c r="C26" s="2">
+        <v>150</v>
+      </c>
+      <c r="D26" s="8" t="s">
+        <v>120</v>
+      </c>
+      <c r="E26" s="6"/>
+      <c r="F26" s="6"/>
+      <c r="G26" s="6"/>
+      <c r="H26" s="6"/>
+    </row>
+    <row r="27" spans="1:11" ht="16.5">
+      <c r="D27" s="4"/>
+      <c r="E27" s="4"/>
+      <c r="F27" s="4"/>
+      <c r="G27" s="4"/>
+      <c r="H27" s="4"/>
+    </row>
+    <row r="28" spans="1:11" ht="16.5">
       <c r="D28" s="4"/>
       <c r="E28" s="4"/>
       <c r="F28" s="4"/>
       <c r="G28" s="4"/>
-      <c r="J28" s="3"/>
-    </row>
-    <row r="29" spans="3:10" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="C29" s="4"/>
-      <c r="D29" s="4"/>
-      <c r="E29" s="4"/>
-      <c r="F29" s="4"/>
-      <c r="G29" s="4"/>
-    </row>
-    <row r="30" spans="3:10" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="C30" s="4"/>
+      <c r="H28" s="4"/>
+    </row>
+    <row r="29" spans="1:11">
+      <c r="D29" s="5"/>
+      <c r="E29" s="5"/>
+      <c r="F29" s="5"/>
+      <c r="G29" s="5"/>
+      <c r="H29" s="5"/>
+    </row>
+    <row r="30" spans="1:11" ht="16.5">
       <c r="D30" s="4"/>
       <c r="E30" s="4"/>
       <c r="F30" s="4"/>
       <c r="G30" s="4"/>
-    </row>
-    <row r="31" spans="3:10" x14ac:dyDescent="0.2">
-      <c r="C31" s="6"/>
-      <c r="D31" s="6"/>
-      <c r="E31" s="6"/>
-      <c r="F31" s="6"/>
-      <c r="G31" s="6"/>
-    </row>
-    <row r="32" spans="3:10" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="C32" s="4"/>
+      <c r="H30" s="4"/>
+    </row>
+    <row r="31" spans="1:11" ht="16.5">
+      <c r="D31" s="4"/>
+      <c r="E31" s="4"/>
+      <c r="F31" s="4"/>
+      <c r="G31" s="4"/>
+      <c r="H31" s="4"/>
+    </row>
+    <row r="32" spans="1:11" ht="16.5">
       <c r="D32" s="4"/>
       <c r="E32" s="4"/>
       <c r="F32" s="4"/>
       <c r="G32" s="4"/>
-    </row>
-    <row r="33" spans="3:7" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="C33" s="4"/>
-      <c r="D33" s="4"/>
-      <c r="E33" s="4"/>
-      <c r="F33" s="4"/>
-      <c r="G33" s="4"/>
-    </row>
-    <row r="34" spans="3:7" x14ac:dyDescent="0.2">
-      <c r="C34" s="5"/>
-      <c r="D34" s="5"/>
-      <c r="E34" s="5"/>
-      <c r="F34" s="5"/>
-      <c r="G34" s="5"/>
-    </row>
-    <row r="35" spans="3:7" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="C35" s="4"/>
-      <c r="D35" s="4"/>
-      <c r="E35" s="4"/>
-      <c r="F35" s="4"/>
-      <c r="G35" s="4"/>
-    </row>
-    <row r="36" spans="3:7" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="C36" s="4"/>
-      <c r="D36" s="4"/>
-      <c r="E36" s="4"/>
-      <c r="F36" s="4"/>
-      <c r="G36" s="4"/>
-    </row>
-    <row r="37" spans="3:7" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="C37" s="4"/>
-      <c r="D37" s="4"/>
-      <c r="E37" s="4"/>
-      <c r="F37" s="4"/>
-      <c r="G37" s="4"/>
-    </row>
-    <row r="38" spans="3:7" x14ac:dyDescent="0.2">
-      <c r="C38" s="6"/>
-      <c r="D38" s="6"/>
-      <c r="E38" s="6"/>
-      <c r="F38" s="6"/>
-      <c r="G38" s="6"/>
-    </row>
-    <row r="39" spans="3:7" x14ac:dyDescent="0.2">
-      <c r="C39" s="6"/>
-      <c r="D39" s="6"/>
-      <c r="E39" s="6"/>
-      <c r="F39" s="6"/>
-      <c r="G39" s="6"/>
-    </row>
-    <row r="40" spans="3:7" x14ac:dyDescent="0.2">
-      <c r="C40" s="6"/>
-      <c r="D40" s="6"/>
-      <c r="E40" s="6"/>
-      <c r="F40" s="6"/>
-      <c r="G40" s="6"/>
+      <c r="H32" s="4"/>
+    </row>
+    <row r="33" spans="4:8">
+      <c r="D33" s="6"/>
+      <c r="E33" s="6"/>
+      <c r="F33" s="6"/>
+      <c r="G33" s="6"/>
+      <c r="H33" s="6"/>
+    </row>
+    <row r="34" spans="4:8">
+      <c r="D34" s="6"/>
+      <c r="E34" s="6"/>
+      <c r="F34" s="6"/>
+      <c r="G34" s="6"/>
+      <c r="H34" s="6"/>
+    </row>
+    <row r="35" spans="4:8">
+      <c r="D35" s="6"/>
+      <c r="E35" s="6"/>
+      <c r="F35" s="6"/>
+      <c r="G35" s="6"/>
+      <c r="H35" s="6"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
@@ -1038,298 +1610,1288 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:N19"/>
+  <dimension ref="A1:O36"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
-      <selection activeCell="F4" sqref="F4"/>
+    <sheetView tabSelected="1" topLeftCell="E7" workbookViewId="0">
+      <selection activeCell="I18" sqref="I18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="14.25"/>
   <cols>
-    <col min="2" max="2" width="21.375" customWidth="1"/>
-    <col min="3" max="3" width="36.625" customWidth="1"/>
-    <col min="4" max="4" width="20" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="27.75" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="58" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="38" customWidth="1"/>
-    <col min="8" max="8" width="40.125" customWidth="1"/>
-    <col min="9" max="9" width="30.625" customWidth="1"/>
-    <col min="10" max="10" width="30.5" customWidth="1"/>
+    <col min="3" max="3" width="21.375" customWidth="1"/>
+    <col min="4" max="4" width="36.625" customWidth="1"/>
+    <col min="5" max="5" width="20" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="27.75" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="58" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="38" customWidth="1"/>
+    <col min="9" max="9" width="40.125" customWidth="1"/>
+    <col min="10" max="10" width="30.625" customWidth="1"/>
+    <col min="11" max="11" width="30.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:15">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="C1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="D1" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="E1" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="F1" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="G1" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="H1" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c r="I1" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="I1" s="1" t="s">
+      <c r="J1" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="J1" s="1"/>
       <c r="K1" s="1"/>
       <c r="L1" s="1"/>
       <c r="M1" s="1"/>
       <c r="N1" s="1"/>
-    </row>
-    <row r="2" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A2" s="11">
+      <c r="O1" s="1"/>
+    </row>
+    <row r="2" spans="1:15">
+      <c r="A2" s="9">
         <v>1</v>
       </c>
-      <c r="B2" s="12">
+      <c r="B2" s="9">
+        <v>1</v>
+      </c>
+      <c r="C2" s="10">
         <v>12512</v>
       </c>
-      <c r="C2" s="13" t="s">
-        <v>49</v>
-      </c>
       <c r="D2" s="11" t="s">
+        <v>42</v>
+      </c>
+      <c r="E2" s="9" t="s">
         <v>10</v>
       </c>
-      <c r="E2" s="13" t="s">
-        <v>50</v>
-      </c>
       <c r="F2" s="11" t="s">
-        <v>28</v>
-      </c>
-      <c r="G2" s="11" t="s">
+        <v>43</v>
+      </c>
+      <c r="G2" s="9" t="s">
+        <v>26</v>
+      </c>
+      <c r="H2" s="9" t="s">
+        <v>28</v>
+      </c>
+      <c r="I2" s="9" t="s">
+        <v>33</v>
+      </c>
+      <c r="J2" s="9" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="3" spans="1:15">
+      <c r="A3" s="9">
+        <v>2</v>
+      </c>
+      <c r="B3" s="9">
+        <v>1</v>
+      </c>
+      <c r="C3" s="10">
+        <v>12520</v>
+      </c>
+      <c r="D3" s="11" t="s">
+        <v>21</v>
+      </c>
+      <c r="E3" s="9" t="s">
+        <v>18</v>
+      </c>
+      <c r="F3" s="11" t="s">
+        <v>19</v>
+      </c>
+      <c r="G3" s="9" t="s">
+        <v>25</v>
+      </c>
+      <c r="H3" s="9" t="s">
+        <v>28</v>
+      </c>
+      <c r="I3" s="9" t="s">
+        <v>36</v>
+      </c>
+      <c r="J3" s="9" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="4" spans="1:15">
+      <c r="A4" s="9">
+        <v>3</v>
+      </c>
+      <c r="B4" s="9">
+        <v>1</v>
+      </c>
+      <c r="C4" s="10">
+        <v>12521</v>
+      </c>
+      <c r="D4" s="11" t="s">
+        <v>24</v>
+      </c>
+      <c r="E4" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="F4" s="11" t="s">
+        <v>44</v>
+      </c>
+      <c r="G4" s="9" t="s">
+        <v>47</v>
+      </c>
+      <c r="H4" s="9" t="s">
+        <v>45</v>
+      </c>
+      <c r="I4" s="9" t="s">
+        <v>46</v>
+      </c>
+      <c r="J4" s="9" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="5" spans="1:15">
+      <c r="A5" s="9">
+        <v>4</v>
+      </c>
+      <c r="B5" s="9">
+        <v>1</v>
+      </c>
+      <c r="C5" s="10">
+        <v>12522</v>
+      </c>
+      <c r="D5" s="11" t="s">
+        <v>22</v>
+      </c>
+      <c r="E5" s="12" t="s">
+        <v>20</v>
+      </c>
+      <c r="F5" s="11" t="s">
+        <v>15</v>
+      </c>
+      <c r="G5" s="9" t="s">
+        <v>27</v>
+      </c>
+      <c r="H5" s="9" t="s">
+        <v>28</v>
+      </c>
+      <c r="I5" s="9" t="s">
+        <v>37</v>
+      </c>
+      <c r="J5" s="9" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="6" spans="1:15">
+      <c r="A6" s="9">
+        <v>5</v>
+      </c>
+      <c r="B6" s="9">
+        <v>1</v>
+      </c>
+      <c r="C6" s="10">
+        <v>12523</v>
+      </c>
+      <c r="D6" s="11" t="s">
+        <v>23</v>
+      </c>
+      <c r="E6" s="9" t="s">
+        <v>16</v>
+      </c>
+      <c r="F6" s="11" t="s">
+        <v>41</v>
+      </c>
+      <c r="G6" s="9" t="s">
+        <v>27</v>
+      </c>
+      <c r="H6" s="9" t="s">
+        <v>28</v>
+      </c>
+      <c r="I6" s="9" t="s">
+        <v>110</v>
+      </c>
+      <c r="J6" s="9" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="7" spans="1:15">
+      <c r="A7" s="9">
+        <v>6</v>
+      </c>
+      <c r="B7" s="9">
+        <v>1</v>
+      </c>
+      <c r="C7" s="10">
+        <v>12516</v>
+      </c>
+      <c r="D7" s="11" t="s">
         <v>30</v>
       </c>
-      <c r="H2" s="11" t="s">
+      <c r="E7" s="9" t="s">
+        <v>32</v>
+      </c>
+      <c r="F7" s="11" t="s">
+        <v>31</v>
+      </c>
+      <c r="G7" s="9" t="s">
+        <v>26</v>
+      </c>
+      <c r="H7" s="9" t="s">
+        <v>28</v>
+      </c>
+      <c r="I7" s="9" t="s">
         <v>37</v>
       </c>
-      <c r="I2" s="11" t="s">
+      <c r="J7" s="9" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="8" spans="1:15">
+      <c r="A8" s="9">
+        <v>7</v>
+      </c>
+      <c r="B8" s="9">
+        <v>1</v>
+      </c>
+      <c r="C8" s="10">
+        <v>12519</v>
+      </c>
+      <c r="D8" s="11" t="s">
+        <v>12</v>
+      </c>
+      <c r="E8" s="9" t="s">
+        <v>13</v>
+      </c>
+      <c r="F8" s="11" t="s">
+        <v>29</v>
+      </c>
+      <c r="G8" s="9" t="s">
+        <v>27</v>
+      </c>
+      <c r="H8" s="9" t="s">
+        <v>28</v>
+      </c>
+      <c r="I8" s="9" t="s">
+        <v>111</v>
+      </c>
+      <c r="J8" s="9" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="9" spans="1:15" s="14" customFormat="1">
+      <c r="A9" s="9">
+        <v>8</v>
+      </c>
+      <c r="B9" s="14">
+        <v>2</v>
+      </c>
+      <c r="C9" s="15">
+        <v>12512</v>
+      </c>
+      <c r="D9" s="16" t="s">
+        <v>42</v>
+      </c>
+      <c r="E9" s="14" t="s">
+        <v>91</v>
+      </c>
+      <c r="F9" s="16" t="s">
+        <v>43</v>
+      </c>
+      <c r="G9" s="14" t="s">
+        <v>90</v>
+      </c>
+      <c r="H9" s="14" t="s">
+        <v>28</v>
+      </c>
+      <c r="I9" s="14" t="s">
+        <v>33</v>
+      </c>
+      <c r="J9" s="14" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="3" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A3" s="11">
+    <row r="10" spans="1:15" s="21" customFormat="1">
+      <c r="A10" s="17">
+        <v>9</v>
+      </c>
+      <c r="B10" s="21">
         <v>2</v>
       </c>
-      <c r="B3" s="12">
-        <v>12520</v>
-      </c>
-      <c r="C3" s="13" t="s">
+      <c r="C10" s="22">
+        <v>12524</v>
+      </c>
+      <c r="D10" s="22" t="s">
+        <v>54</v>
+      </c>
+      <c r="E10" s="21" t="s">
+        <v>98</v>
+      </c>
+      <c r="F10" s="22" t="s">
+        <v>83</v>
+      </c>
+      <c r="G10" s="21" t="s">
+        <v>25</v>
+      </c>
+      <c r="H10" s="21" t="s">
+        <v>28</v>
+      </c>
+      <c r="I10" s="21" t="s">
+        <v>36</v>
+      </c>
+      <c r="J10" s="21" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="11" spans="1:15" s="14" customFormat="1">
+      <c r="A11" s="9">
+        <v>10</v>
+      </c>
+      <c r="B11" s="14">
+        <v>2</v>
+      </c>
+      <c r="C11" s="15">
+        <v>12521</v>
+      </c>
+      <c r="D11" s="16" t="s">
+        <v>24</v>
+      </c>
+      <c r="E11" s="14" t="s">
+        <v>17</v>
+      </c>
+      <c r="F11" s="16" t="s">
+        <v>44</v>
+      </c>
+      <c r="G11" s="14" t="s">
+        <v>47</v>
+      </c>
+      <c r="H11" s="14" t="s">
+        <v>45</v>
+      </c>
+      <c r="I11" s="14" t="s">
+        <v>46</v>
+      </c>
+      <c r="J11" s="14" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="12" spans="1:15" s="21" customFormat="1">
+      <c r="A12" s="17">
+        <v>11</v>
+      </c>
+      <c r="B12" s="21">
+        <v>2</v>
+      </c>
+      <c r="C12" s="22">
+        <v>12525</v>
+      </c>
+      <c r="D12" s="22" t="s">
+        <v>55</v>
+      </c>
+      <c r="E12" s="27" t="s">
+        <v>97</v>
+      </c>
+      <c r="F12" s="22" t="s">
+        <v>56</v>
+      </c>
+      <c r="G12" s="21" t="s">
+        <v>27</v>
+      </c>
+      <c r="H12" s="21" t="s">
+        <v>28</v>
+      </c>
+      <c r="I12" s="21" t="s">
+        <v>37</v>
+      </c>
+      <c r="J12" s="21" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="13" spans="1:15" s="14" customFormat="1">
+      <c r="A13" s="9">
+        <v>12</v>
+      </c>
+      <c r="B13" s="14">
+        <v>2</v>
+      </c>
+      <c r="C13" s="15">
+        <v>12523</v>
+      </c>
+      <c r="D13" s="16" t="s">
+        <v>23</v>
+      </c>
+      <c r="E13" s="14" t="s">
+        <v>16</v>
+      </c>
+      <c r="F13" s="16" t="s">
+        <v>41</v>
+      </c>
+      <c r="G13" s="21" t="s">
+        <v>27</v>
+      </c>
+      <c r="H13" s="21" t="s">
+        <v>28</v>
+      </c>
+      <c r="I13" s="14" t="s">
+        <v>112</v>
+      </c>
+      <c r="J13" s="14" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="14" spans="1:15" s="14" customFormat="1">
+      <c r="A14" s="9">
+        <v>13</v>
+      </c>
+      <c r="B14" s="14">
+        <v>2</v>
+      </c>
+      <c r="C14" s="15">
+        <v>12516</v>
+      </c>
+      <c r="D14" s="16" t="s">
+        <v>30</v>
+      </c>
+      <c r="E14" s="14" t="s">
+        <v>32</v>
+      </c>
+      <c r="F14" s="16" t="s">
+        <v>31</v>
+      </c>
+      <c r="G14" s="14" t="s">
+        <v>26</v>
+      </c>
+      <c r="H14" s="14" t="s">
+        <v>28</v>
+      </c>
+      <c r="I14" s="14" t="s">
+        <v>37</v>
+      </c>
+      <c r="J14" s="14" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="15" spans="1:15" s="14" customFormat="1">
+      <c r="A15" s="9">
+        <v>14</v>
+      </c>
+      <c r="B15" s="14">
+        <v>2</v>
+      </c>
+      <c r="C15" s="15">
+        <v>12519</v>
+      </c>
+      <c r="D15" s="16" t="s">
+        <v>12</v>
+      </c>
+      <c r="E15" s="14" t="s">
+        <v>13</v>
+      </c>
+      <c r="F15" s="16" t="s">
+        <v>58</v>
+      </c>
+      <c r="G15" s="21" t="s">
+        <v>27</v>
+      </c>
+      <c r="H15" s="21" t="s">
+        <v>28</v>
+      </c>
+      <c r="I15" s="14" t="s">
+        <v>111</v>
+      </c>
+      <c r="J15" s="14" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="16" spans="1:15" s="23" customFormat="1">
+      <c r="A16" s="17">
+        <v>15</v>
+      </c>
+      <c r="B16" s="23">
+        <v>3</v>
+      </c>
+      <c r="C16" s="24">
+        <v>12512</v>
+      </c>
+      <c r="D16" s="24" t="s">
+        <v>42</v>
+      </c>
+      <c r="E16" s="23" t="s">
+        <v>10</v>
+      </c>
+      <c r="F16" s="24" t="s">
+        <v>43</v>
+      </c>
+      <c r="G16" s="23" t="s">
+        <v>26</v>
+      </c>
+      <c r="H16" s="23" t="s">
+        <v>28</v>
+      </c>
+      <c r="I16" s="23" t="s">
+        <v>33</v>
+      </c>
+      <c r="J16" s="23" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="17" spans="1:10" s="18" customFormat="1">
+      <c r="A17" s="17">
+        <v>16</v>
+      </c>
+      <c r="B17" s="18">
+        <v>3</v>
+      </c>
+      <c r="C17" s="19">
+        <v>12508</v>
+      </c>
+      <c r="D17" s="19" t="s">
+        <v>75</v>
+      </c>
+      <c r="E17" s="18" t="s">
+        <v>18</v>
+      </c>
+      <c r="F17" s="19" t="s">
+        <v>76</v>
+      </c>
+      <c r="G17" s="18" t="s">
+        <v>25</v>
+      </c>
+      <c r="H17" s="18" t="s">
+        <v>28</v>
+      </c>
+      <c r="I17" s="18" t="s">
+        <v>128</v>
+      </c>
+      <c r="J17" s="18" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="18" spans="1:10" s="18" customFormat="1">
+      <c r="A18" s="17">
+        <v>17</v>
+      </c>
+      <c r="B18" s="18">
+        <v>3</v>
+      </c>
+      <c r="C18" s="19">
+        <v>12529</v>
+      </c>
+      <c r="D18" s="19" t="s">
+        <v>79</v>
+      </c>
+      <c r="E18" s="18" t="s">
+        <v>17</v>
+      </c>
+      <c r="F18" s="19" t="s">
+        <v>81</v>
+      </c>
+      <c r="G18" s="18" t="s">
+        <v>104</v>
+      </c>
+      <c r="H18" s="18" t="s">
+        <v>84</v>
+      </c>
+      <c r="I18" s="18" t="s">
+        <v>46</v>
+      </c>
+      <c r="J18" s="18" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="19" spans="1:10" s="18" customFormat="1">
+      <c r="A19" s="17">
+        <v>18</v>
+      </c>
+      <c r="B19" s="18">
+        <v>3</v>
+      </c>
+      <c r="C19" s="19">
+        <v>12528</v>
+      </c>
+      <c r="D19" s="19" t="s">
+        <v>55</v>
+      </c>
+      <c r="E19" s="20" t="s">
+        <v>96</v>
+      </c>
+      <c r="F19" s="19" t="s">
+        <v>74</v>
+      </c>
+      <c r="G19" s="18" t="s">
+        <v>27</v>
+      </c>
+      <c r="H19" s="18" t="s">
+        <v>28</v>
+      </c>
+      <c r="I19" s="18" t="s">
+        <v>129</v>
+      </c>
+      <c r="J19" s="18" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="20" spans="1:10" s="18" customFormat="1">
+      <c r="A20" s="17">
+        <v>19</v>
+      </c>
+      <c r="B20" s="18">
+        <v>3</v>
+      </c>
+      <c r="C20" s="19">
+        <v>12523</v>
+      </c>
+      <c r="D20" s="19" t="s">
+        <v>23</v>
+      </c>
+      <c r="E20" s="18" t="s">
+        <v>16</v>
+      </c>
+      <c r="F20" s="19" t="s">
+        <v>41</v>
+      </c>
+      <c r="G20" s="18" t="s">
+        <v>27</v>
+      </c>
+      <c r="H20" s="18" t="s">
+        <v>28</v>
+      </c>
+      <c r="I20" s="18" t="s">
+        <v>113</v>
+      </c>
+      <c r="J20" s="18" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="21" spans="1:10" s="23" customFormat="1">
+      <c r="A21" s="28">
+        <v>20</v>
+      </c>
+      <c r="B21" s="23">
+        <v>3</v>
+      </c>
+      <c r="C21" s="24">
+        <v>12526</v>
+      </c>
+      <c r="D21" s="24" t="s">
+        <v>30</v>
+      </c>
+      <c r="E21" s="23" t="s">
+        <v>32</v>
+      </c>
+      <c r="F21" s="24" t="s">
+        <v>57</v>
+      </c>
+      <c r="G21" s="23" t="s">
+        <v>26</v>
+      </c>
+      <c r="H21" s="23" t="s">
+        <v>28</v>
+      </c>
+      <c r="I21" s="23" t="s">
+        <v>82</v>
+      </c>
+      <c r="J21" s="23" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="22" spans="1:10" s="18" customFormat="1">
+      <c r="A22" s="17">
         <v>21</v>
       </c>
-      <c r="D3" s="11" t="s">
+      <c r="B22" s="18">
+        <v>3</v>
+      </c>
+      <c r="C22" s="19">
+        <v>12527</v>
+      </c>
+      <c r="D22" s="19" t="s">
+        <v>63</v>
+      </c>
+      <c r="E22" s="18" t="s">
+        <v>13</v>
+      </c>
+      <c r="F22" s="19" t="s">
+        <v>59</v>
+      </c>
+      <c r="G22" s="18" t="s">
+        <v>27</v>
+      </c>
+      <c r="H22" s="18" t="s">
+        <v>28</v>
+      </c>
+      <c r="I22" s="18" t="s">
+        <v>114</v>
+      </c>
+      <c r="J22" s="18" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="23" spans="1:10" s="21" customFormat="1">
+      <c r="A23" s="17">
+        <v>22</v>
+      </c>
+      <c r="B23" s="21">
+        <v>4</v>
+      </c>
+      <c r="C23" s="22">
+        <v>12512</v>
+      </c>
+      <c r="D23" s="22" t="s">
+        <v>42</v>
+      </c>
+      <c r="E23" s="21" t="s">
+        <v>10</v>
+      </c>
+      <c r="F23" s="22" t="s">
+        <v>43</v>
+      </c>
+      <c r="G23" s="21" t="s">
+        <v>26</v>
+      </c>
+      <c r="H23" s="21" t="s">
+        <v>28</v>
+      </c>
+      <c r="I23" s="21" t="s">
+        <v>33</v>
+      </c>
+      <c r="J23" s="21" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="24" spans="1:10" s="21" customFormat="1">
+      <c r="A24" s="17">
+        <v>23</v>
+      </c>
+      <c r="B24" s="21">
+        <v>4</v>
+      </c>
+      <c r="C24" s="22">
+        <v>12517</v>
+      </c>
+      <c r="D24" s="22" t="s">
+        <v>64</v>
+      </c>
+      <c r="E24" s="21" t="s">
+        <v>68</v>
+      </c>
+      <c r="F24" s="22" t="s">
+        <v>66</v>
+      </c>
+      <c r="G24" s="21" t="s">
+        <v>25</v>
+      </c>
+      <c r="H24" s="21" t="s">
+        <v>28</v>
+      </c>
+      <c r="I24" s="21" t="s">
+        <v>121</v>
+      </c>
+      <c r="J24" s="21" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="25" spans="1:10" s="21" customFormat="1">
+      <c r="A25" s="17">
+        <v>24</v>
+      </c>
+      <c r="B25" s="21">
+        <v>4</v>
+      </c>
+      <c r="C25" s="22">
+        <v>12532</v>
+      </c>
+      <c r="D25" s="22" t="s">
+        <v>78</v>
+      </c>
+      <c r="E25" s="21" t="s">
+        <v>73</v>
+      </c>
+      <c r="F25" s="22" t="s">
+        <v>80</v>
+      </c>
+      <c r="G25" s="21" t="s">
+        <v>25</v>
+      </c>
+      <c r="H25" s="21" t="s">
+        <v>28</v>
+      </c>
+      <c r="I25" s="21" t="s">
+        <v>109</v>
+      </c>
+      <c r="J25" s="21" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="26" spans="1:10" s="21" customFormat="1">
+      <c r="A26" s="17">
+        <v>25</v>
+      </c>
+      <c r="B26" s="21">
+        <v>4</v>
+      </c>
+      <c r="C26" s="22">
+        <v>12531</v>
+      </c>
+      <c r="D26" s="22" t="s">
+        <v>55</v>
+      </c>
+      <c r="E26" s="27" t="s">
+        <v>95</v>
+      </c>
+      <c r="F26" s="22" t="s">
+        <v>126</v>
+      </c>
+      <c r="G26" s="21" t="s">
+        <v>27</v>
+      </c>
+      <c r="H26" s="21" t="s">
+        <v>28</v>
+      </c>
+      <c r="I26" s="21" t="s">
+        <v>122</v>
+      </c>
+      <c r="J26" s="21" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="27" spans="1:10" s="25" customFormat="1">
+      <c r="A27" s="17">
+        <v>26</v>
+      </c>
+      <c r="B27" s="25">
+        <v>4</v>
+      </c>
+      <c r="C27" s="26">
+        <v>12523</v>
+      </c>
+      <c r="D27" s="26" t="s">
+        <v>23</v>
+      </c>
+      <c r="E27" s="25" t="s">
+        <v>16</v>
+      </c>
+      <c r="F27" s="26" t="s">
+        <v>41</v>
+      </c>
+      <c r="G27" s="21" t="s">
+        <v>27</v>
+      </c>
+      <c r="H27" s="21" t="s">
+        <v>28</v>
+      </c>
+      <c r="I27" s="25" t="s">
+        <v>115</v>
+      </c>
+      <c r="J27" s="25" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="28" spans="1:10" s="21" customFormat="1">
+      <c r="A28" s="17">
+        <v>27</v>
+      </c>
+      <c r="B28" s="21">
+        <v>4</v>
+      </c>
+      <c r="C28" s="22">
+        <v>12511</v>
+      </c>
+      <c r="D28" s="22" t="s">
+        <v>70</v>
+      </c>
+      <c r="E28" s="21" t="s">
+        <v>92</v>
+      </c>
+      <c r="F28" s="22" t="s">
+        <v>72</v>
+      </c>
+      <c r="G28" s="21" t="s">
+        <v>127</v>
+      </c>
+      <c r="H28" s="21" t="s">
+        <v>85</v>
+      </c>
+      <c r="I28" s="21" t="s">
+        <v>108</v>
+      </c>
+      <c r="J28" s="21" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="29" spans="1:10" s="21" customFormat="1">
+      <c r="A29" s="17">
+        <v>28</v>
+      </c>
+      <c r="B29" s="21">
+        <v>4</v>
+      </c>
+      <c r="C29" s="22">
+        <v>12530</v>
+      </c>
+      <c r="D29" s="22" t="s">
+        <v>63</v>
+      </c>
+      <c r="E29" s="21" t="s">
+        <v>13</v>
+      </c>
+      <c r="F29" s="22" t="s">
+        <v>60</v>
+      </c>
+      <c r="G29" s="21" t="s">
+        <v>27</v>
+      </c>
+      <c r="H29" s="21" t="s">
+        <v>28</v>
+      </c>
+      <c r="I29" s="21" t="s">
+        <v>116</v>
+      </c>
+      <c r="J29" s="21" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="30" spans="1:10" s="18" customFormat="1">
+      <c r="A30" s="17">
+        <v>29</v>
+      </c>
+      <c r="B30" s="18">
+        <v>5</v>
+      </c>
+      <c r="C30" s="19">
+        <v>12512</v>
+      </c>
+      <c r="D30" s="19" t="s">
+        <v>42</v>
+      </c>
+      <c r="E30" s="18" t="s">
+        <v>10</v>
+      </c>
+      <c r="F30" s="19" t="s">
+        <v>43</v>
+      </c>
+      <c r="G30" s="18" t="s">
+        <v>26</v>
+      </c>
+      <c r="H30" s="18" t="s">
+        <v>28</v>
+      </c>
+      <c r="I30" s="18" t="s">
+        <v>33</v>
+      </c>
+      <c r="J30" s="18" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="31" spans="1:10" s="23" customFormat="1">
+      <c r="A31" s="17">
+        <v>30</v>
+      </c>
+      <c r="B31" s="23">
+        <v>5</v>
+      </c>
+      <c r="C31" s="24">
+        <v>12517</v>
+      </c>
+      <c r="D31" s="24" t="s">
+        <v>65</v>
+      </c>
+      <c r="E31" s="23" t="s">
         <v>18</v>
       </c>
-      <c r="E3" s="13" t="s">
-        <v>19</v>
-      </c>
-      <c r="F3" s="11" t="s">
+      <c r="F31" s="24" t="s">
+        <v>67</v>
+      </c>
+      <c r="G31" s="23" t="s">
+        <v>25</v>
+      </c>
+      <c r="H31" s="23" t="s">
+        <v>28</v>
+      </c>
+      <c r="I31" s="23" t="s">
+        <v>123</v>
+      </c>
+      <c r="J31" s="23" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="32" spans="1:10" s="18" customFormat="1">
+      <c r="A32" s="17">
+        <v>31</v>
+      </c>
+      <c r="B32" s="18">
+        <v>5</v>
+      </c>
+      <c r="C32" s="19">
+        <v>12536</v>
+      </c>
+      <c r="D32" s="19" t="s">
+        <v>77</v>
+      </c>
+      <c r="E32" s="18" t="s">
+        <v>17</v>
+      </c>
+      <c r="F32" s="19" t="s">
+        <v>87</v>
+      </c>
+      <c r="G32" s="23" t="s">
+        <v>25</v>
+      </c>
+      <c r="H32" s="23" t="s">
+        <v>28</v>
+      </c>
+      <c r="I32" s="23" t="s">
+        <v>106</v>
+      </c>
+      <c r="J32" s="18" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="33" spans="1:10" s="18" customFormat="1">
+      <c r="A33" s="17">
+        <v>32</v>
+      </c>
+      <c r="B33" s="18">
+        <v>5</v>
+      </c>
+      <c r="C33" s="19">
+        <v>12535</v>
+      </c>
+      <c r="D33" s="19" t="s">
+        <v>55</v>
+      </c>
+      <c r="E33" s="20" t="s">
+        <v>94</v>
+      </c>
+      <c r="F33" s="19" t="s">
+        <v>125</v>
+      </c>
+      <c r="G33" s="18" t="s">
         <v>27</v>
       </c>
-      <c r="G3" s="11" t="s">
-        <v>30</v>
-      </c>
-      <c r="H3" s="11" t="s">
-        <v>40</v>
-      </c>
-      <c r="I3" s="11" t="s">
+      <c r="H33" s="18" t="s">
+        <v>28</v>
+      </c>
+      <c r="I33" s="18" t="s">
+        <v>124</v>
+      </c>
+      <c r="J33" s="18" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="4" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A4" s="11">
-        <v>3</v>
-      </c>
-      <c r="B4" s="12">
-        <v>12521</v>
-      </c>
-      <c r="C4" s="13" t="s">
-        <v>24</v>
-      </c>
-      <c r="D4" s="11" t="s">
-        <v>17</v>
-      </c>
-      <c r="E4" s="13" t="s">
-        <v>51</v>
-      </c>
-      <c r="F4" s="11" t="s">
-        <v>54</v>
-      </c>
-      <c r="G4" s="11" t="s">
-        <v>52</v>
-      </c>
-      <c r="H4" s="11" t="s">
-        <v>53</v>
-      </c>
-      <c r="I4" s="11" t="s">
+    <row r="34" spans="1:10" s="18" customFormat="1">
+      <c r="A34" s="17">
+        <v>33</v>
+      </c>
+      <c r="B34" s="18">
+        <v>5</v>
+      </c>
+      <c r="C34" s="19">
+        <v>12523</v>
+      </c>
+      <c r="D34" s="19" t="s">
+        <v>23</v>
+      </c>
+      <c r="E34" s="18" t="s">
+        <v>16</v>
+      </c>
+      <c r="F34" s="19" t="s">
+        <v>41</v>
+      </c>
+      <c r="G34" s="18" t="s">
+        <v>27</v>
+      </c>
+      <c r="H34" s="18" t="s">
+        <v>28</v>
+      </c>
+      <c r="I34" s="18" t="s">
+        <v>117</v>
+      </c>
+      <c r="J34" s="18" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="5" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A5" s="11">
-        <v>4</v>
-      </c>
-      <c r="B5" s="12">
-        <v>12522</v>
-      </c>
-      <c r="C5" s="13" t="s">
-        <v>22</v>
-      </c>
-      <c r="D5" s="15" t="s">
-        <v>20</v>
-      </c>
-      <c r="E5" s="13" t="s">
-        <v>15</v>
-      </c>
-      <c r="F5" s="11" t="s">
-        <v>29</v>
-      </c>
-      <c r="G5" s="11" t="s">
-        <v>30</v>
-      </c>
-      <c r="H5" s="11" t="s">
-        <v>41</v>
-      </c>
-      <c r="I5" s="11" t="s">
+    <row r="35" spans="1:10" s="18" customFormat="1">
+      <c r="A35" s="17">
+        <v>34</v>
+      </c>
+      <c r="B35" s="18">
+        <v>5</v>
+      </c>
+      <c r="C35" s="19">
+        <v>12537</v>
+      </c>
+      <c r="D35" s="19" t="s">
+        <v>69</v>
+      </c>
+      <c r="E35" s="18" t="s">
+        <v>93</v>
+      </c>
+      <c r="F35" s="19" t="s">
+        <v>71</v>
+      </c>
+      <c r="G35" s="18" t="s">
+        <v>105</v>
+      </c>
+      <c r="H35" s="18" t="s">
+        <v>86</v>
+      </c>
+      <c r="I35" s="18" t="s">
+        <v>107</v>
+      </c>
+      <c r="J35" s="18" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="6" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A6" s="11">
+    <row r="36" spans="1:10" s="18" customFormat="1">
+      <c r="A36" s="17">
+        <v>35</v>
+      </c>
+      <c r="B36" s="18">
         <v>5</v>
       </c>
-      <c r="B6" s="12">
-        <v>12523</v>
-      </c>
-      <c r="C6" s="13" t="s">
-        <v>23</v>
-      </c>
-      <c r="D6" s="11" t="s">
-        <v>16</v>
-      </c>
-      <c r="E6" s="13" t="s">
-        <v>48</v>
-      </c>
-      <c r="F6" s="11" t="s">
-        <v>25</v>
-      </c>
-      <c r="G6" s="11" t="s">
-        <v>31</v>
-      </c>
-      <c r="H6" s="11" t="s">
+      <c r="C36" s="19">
+        <v>12534</v>
+      </c>
+      <c r="D36" s="19" t="s">
+        <v>62</v>
+      </c>
+      <c r="E36" s="18" t="s">
+        <v>13</v>
+      </c>
+      <c r="F36" s="19" t="s">
+        <v>61</v>
+      </c>
+      <c r="G36" s="18" t="s">
+        <v>27</v>
+      </c>
+      <c r="H36" s="18" t="s">
+        <v>28</v>
+      </c>
+      <c r="I36" s="18" t="s">
+        <v>118</v>
+      </c>
+      <c r="J36" s="18" t="s">
         <v>35</v>
       </c>
-      <c r="I6" s="11" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="7" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A7" s="11">
-        <v>6</v>
-      </c>
-      <c r="B7" s="12">
-        <v>12516</v>
-      </c>
-      <c r="C7" s="13" t="s">
-        <v>33</v>
-      </c>
-      <c r="D7" s="11" t="s">
-        <v>36</v>
-      </c>
-      <c r="E7" s="13" t="s">
-        <v>34</v>
-      </c>
-      <c r="F7" s="11" t="s">
-        <v>28</v>
-      </c>
-      <c r="G7" s="11" t="s">
-        <v>30</v>
-      </c>
-      <c r="H7" s="11" t="s">
-        <v>41</v>
-      </c>
-      <c r="I7" s="11" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="8" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A8" s="11">
-        <v>7</v>
-      </c>
-      <c r="B8" s="12">
-        <v>12519</v>
-      </c>
-      <c r="C8" s="13" t="s">
-        <v>12</v>
-      </c>
-      <c r="D8" s="11" t="s">
-        <v>13</v>
-      </c>
-      <c r="E8" s="13" t="s">
-        <v>32</v>
-      </c>
-      <c r="F8" s="11" t="s">
-        <v>26</v>
-      </c>
-      <c r="G8" s="11" t="s">
-        <v>31</v>
-      </c>
-      <c r="H8" s="11" t="s">
-        <v>42</v>
-      </c>
-      <c r="I8" s="11" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="9" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="C9" s="9"/>
-      <c r="E9" s="9"/>
-    </row>
-    <row r="10" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="C10" s="9"/>
-      <c r="E10" s="9"/>
-    </row>
-    <row r="11" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="C11" s="9"/>
-      <c r="E11" s="9"/>
-    </row>
-    <row r="13" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="H13" s="14"/>
-    </row>
-    <row r="14" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="H14" s="14"/>
-    </row>
-    <row r="15" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="H15" s="14"/>
-    </row>
-    <row r="16" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="H16" s="14"/>
-    </row>
-    <row r="17" spans="8:8" x14ac:dyDescent="0.2">
-      <c r="H17" s="14"/>
-    </row>
-    <row r="18" spans="8:8" x14ac:dyDescent="0.2">
-      <c r="H18" s="14"/>
-    </row>
-    <row r="19" spans="8:8" x14ac:dyDescent="0.2">
-      <c r="H19" s="14"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:D6"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D18" sqref="D18"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.25"/>
+  <cols>
+    <col min="3" max="3" width="20.25" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" ht="40.5">
+      <c r="A1" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="D1" s="13" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4">
+      <c r="A2">
+        <v>1</v>
+      </c>
+      <c r="B2">
+        <v>1</v>
+      </c>
+      <c r="C2" t="s">
+        <v>99</v>
+      </c>
+      <c r="D2">
+        <v>13000</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4">
+      <c r="A3">
+        <v>2</v>
+      </c>
+      <c r="B3">
+        <v>2</v>
+      </c>
+      <c r="C3" t="s">
+        <v>100</v>
+      </c>
+      <c r="D3">
+        <v>13000</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4">
+      <c r="A4">
+        <v>3</v>
+      </c>
+      <c r="B4">
+        <v>3</v>
+      </c>
+      <c r="C4" t="s">
+        <v>101</v>
+      </c>
+      <c r="D4">
+        <v>13000</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4">
+      <c r="A5">
+        <v>4</v>
+      </c>
+      <c r="B5">
+        <v>4</v>
+      </c>
+      <c r="C5" t="s">
+        <v>102</v>
+      </c>
+      <c r="D5">
+        <v>13000</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4">
+      <c r="A6">
+        <v>5</v>
+      </c>
+      <c r="B6">
+        <v>5</v>
+      </c>
+      <c r="C6" t="s">
+        <v>103</v>
+      </c>
+      <c r="D6">
+        <v>13000</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/config_Release/active_daily_task_info_config.xlsx
+++ b/config_Release/active_daily_task_info_config.xlsx
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="293" uniqueCount="130">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="293" uniqueCount="131">
   <si>
     <t>id|行号</t>
     <phoneticPr fontId="4" type="noConversion"/>
@@ -208,10 +208,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>"50福利券赛门票","活跃度"</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>"x1","x20"</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -358,18 +354,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>"200福利券赛门票","活跃度"</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>"500福利券赛门票","活跃度"</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>"1000福利券赛门票","活跃度"</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>3D捕鱼中击杀100倍以上鱼8条</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -534,6 +518,26 @@
   </si>
   <si>
     <t>"x1.5万","x20"</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>"250福利券赛门票","活跃度"</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>"250福利券赛门票","活跃度"</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>"2500福利券赛门票","活跃度"</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>"25000福利券赛门票","活跃度"</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>"250000福利券赛门票","活跃度"</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1079,7 +1083,7 @@
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="C1" s="1" t="s">
         <v>1</v>
@@ -1150,7 +1154,7 @@
         <v>120</v>
       </c>
       <c r="D5" s="8" t="s">
-        <v>119</v>
+        <v>115</v>
       </c>
       <c r="E5" s="4"/>
       <c r="F5" s="4"/>
@@ -1167,7 +1171,7 @@
         <v>150</v>
       </c>
       <c r="D6" s="8" t="s">
-        <v>120</v>
+        <v>116</v>
       </c>
       <c r="E6" s="4"/>
       <c r="F6" s="4"/>
@@ -1238,7 +1242,7 @@
         <v>120</v>
       </c>
       <c r="D10" s="8" t="s">
-        <v>119</v>
+        <v>115</v>
       </c>
       <c r="E10" s="4"/>
       <c r="F10" s="4"/>
@@ -1256,7 +1260,7 @@
         <v>150</v>
       </c>
       <c r="D11" s="8" t="s">
-        <v>120</v>
+        <v>116</v>
       </c>
       <c r="E11" s="5"/>
       <c r="F11" s="5"/>
@@ -1328,7 +1332,7 @@
         <v>120</v>
       </c>
       <c r="D15" s="8" t="s">
-        <v>119</v>
+        <v>115</v>
       </c>
       <c r="E15" s="5"/>
       <c r="F15" s="5"/>
@@ -1346,7 +1350,7 @@
         <v>150</v>
       </c>
       <c r="D16" s="8" t="s">
-        <v>120</v>
+        <v>116</v>
       </c>
       <c r="E16" s="4"/>
       <c r="F16" s="4"/>
@@ -1419,7 +1423,7 @@
         <v>120</v>
       </c>
       <c r="D20" s="8" t="s">
-        <v>119</v>
+        <v>115</v>
       </c>
       <c r="E20" s="4"/>
       <c r="F20" s="4"/>
@@ -1438,7 +1442,7 @@
         <v>150</v>
       </c>
       <c r="D21" s="8" t="s">
-        <v>120</v>
+        <v>116</v>
       </c>
       <c r="E21" s="4"/>
       <c r="F21" s="4"/>
@@ -1513,7 +1517,7 @@
         <v>120</v>
       </c>
       <c r="D25" s="8" t="s">
-        <v>119</v>
+        <v>115</v>
       </c>
       <c r="E25" s="4"/>
       <c r="F25" s="4"/>
@@ -1531,7 +1535,7 @@
         <v>150</v>
       </c>
       <c r="D26" s="8" t="s">
-        <v>120</v>
+        <v>116</v>
       </c>
       <c r="E26" s="6"/>
       <c r="F26" s="6"/>
@@ -1612,8 +1616,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:O36"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="E7" workbookViewId="0">
-      <selection activeCell="I18" sqref="I18"/>
+    <sheetView tabSelected="1" topLeftCell="E1" workbookViewId="0">
+      <selection activeCell="H18" sqref="H18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25"/>
@@ -1634,7 +1638,7 @@
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="C1" s="1" t="s">
         <v>3</v>
@@ -1750,13 +1754,13 @@
         <v>44</v>
       </c>
       <c r="G4" s="9" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="H4" s="9" t="s">
+        <v>126</v>
+      </c>
+      <c r="I4" s="9" t="s">
         <v>45</v>
-      </c>
-      <c r="I4" s="9" t="s">
-        <v>46</v>
       </c>
       <c r="J4" s="9" t="s">
         <v>14</v>
@@ -1820,7 +1824,7 @@
         <v>28</v>
       </c>
       <c r="I6" s="9" t="s">
-        <v>110</v>
+        <v>106</v>
       </c>
       <c r="J6" s="9" t="s">
         <v>14</v>
@@ -1884,7 +1888,7 @@
         <v>28</v>
       </c>
       <c r="I8" s="9" t="s">
-        <v>111</v>
+        <v>107</v>
       </c>
       <c r="J8" s="9" t="s">
         <v>35</v>
@@ -1904,13 +1908,13 @@
         <v>42</v>
       </c>
       <c r="E9" s="14" t="s">
-        <v>91</v>
+        <v>87</v>
       </c>
       <c r="F9" s="16" t="s">
         <v>43</v>
       </c>
       <c r="G9" s="14" t="s">
-        <v>90</v>
+        <v>86</v>
       </c>
       <c r="H9" s="14" t="s">
         <v>28</v>
@@ -1933,13 +1937,13 @@
         <v>12524</v>
       </c>
       <c r="D10" s="22" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="E10" s="21" t="s">
-        <v>98</v>
+        <v>94</v>
       </c>
       <c r="F10" s="22" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="G10" s="21" t="s">
         <v>25</v>
@@ -1974,13 +1978,13 @@
         <v>44</v>
       </c>
       <c r="G11" s="14" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="H11" s="14" t="s">
+        <v>127</v>
+      </c>
+      <c r="I11" s="14" t="s">
         <v>45</v>
-      </c>
-      <c r="I11" s="14" t="s">
-        <v>46</v>
       </c>
       <c r="J11" s="14" t="s">
         <v>14</v>
@@ -1997,13 +2001,13 @@
         <v>12525</v>
       </c>
       <c r="D12" s="22" t="s">
+        <v>54</v>
+      </c>
+      <c r="E12" s="27" t="s">
+        <v>93</v>
+      </c>
+      <c r="F12" s="22" t="s">
         <v>55</v>
-      </c>
-      <c r="E12" s="27" t="s">
-        <v>97</v>
-      </c>
-      <c r="F12" s="22" t="s">
-        <v>56</v>
       </c>
       <c r="G12" s="21" t="s">
         <v>27</v>
@@ -2044,7 +2048,7 @@
         <v>28</v>
       </c>
       <c r="I13" s="14" t="s">
-        <v>112</v>
+        <v>108</v>
       </c>
       <c r="J13" s="14" t="s">
         <v>14</v>
@@ -2099,7 +2103,7 @@
         <v>13</v>
       </c>
       <c r="F15" s="16" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="G15" s="21" t="s">
         <v>27</v>
@@ -2108,7 +2112,7 @@
         <v>28</v>
       </c>
       <c r="I15" s="14" t="s">
-        <v>111</v>
+        <v>107</v>
       </c>
       <c r="J15" s="14" t="s">
         <v>35</v>
@@ -2157,13 +2161,13 @@
         <v>12508</v>
       </c>
       <c r="D17" s="19" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="E17" s="18" t="s">
         <v>18</v>
       </c>
       <c r="F17" s="19" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="G17" s="18" t="s">
         <v>25</v>
@@ -2172,7 +2176,7 @@
         <v>28</v>
       </c>
       <c r="I17" s="18" t="s">
-        <v>128</v>
+        <v>124</v>
       </c>
       <c r="J17" s="18" t="s">
         <v>14</v>
@@ -2189,22 +2193,22 @@
         <v>12529</v>
       </c>
       <c r="D18" s="19" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="E18" s="18" t="s">
         <v>17</v>
       </c>
       <c r="F18" s="19" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="G18" s="18" t="s">
-        <v>104</v>
+        <v>100</v>
       </c>
       <c r="H18" s="18" t="s">
-        <v>84</v>
+        <v>128</v>
       </c>
       <c r="I18" s="18" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="J18" s="18" t="s">
         <v>14</v>
@@ -2221,13 +2225,13 @@
         <v>12528</v>
       </c>
       <c r="D19" s="19" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="E19" s="20" t="s">
-        <v>96</v>
+        <v>92</v>
       </c>
       <c r="F19" s="19" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="G19" s="18" t="s">
         <v>27</v>
@@ -2236,7 +2240,7 @@
         <v>28</v>
       </c>
       <c r="I19" s="18" t="s">
-        <v>129</v>
+        <v>125</v>
       </c>
       <c r="J19" s="18" t="s">
         <v>14</v>
@@ -2268,7 +2272,7 @@
         <v>28</v>
       </c>
       <c r="I20" s="18" t="s">
-        <v>113</v>
+        <v>109</v>
       </c>
       <c r="J20" s="18" t="s">
         <v>14</v>
@@ -2291,7 +2295,7 @@
         <v>32</v>
       </c>
       <c r="F21" s="24" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="G21" s="23" t="s">
         <v>26</v>
@@ -2300,7 +2304,7 @@
         <v>28</v>
       </c>
       <c r="I21" s="23" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="J21" s="23" t="s">
         <v>14</v>
@@ -2317,13 +2321,13 @@
         <v>12527</v>
       </c>
       <c r="D22" s="19" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="E22" s="18" t="s">
         <v>13</v>
       </c>
       <c r="F22" s="19" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="G22" s="18" t="s">
         <v>27</v>
@@ -2332,7 +2336,7 @@
         <v>28</v>
       </c>
       <c r="I22" s="18" t="s">
-        <v>114</v>
+        <v>110</v>
       </c>
       <c r="J22" s="18" t="s">
         <v>35</v>
@@ -2381,13 +2385,13 @@
         <v>12517</v>
       </c>
       <c r="D24" s="22" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="E24" s="21" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="F24" s="22" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="G24" s="21" t="s">
         <v>25</v>
@@ -2396,10 +2400,10 @@
         <v>28</v>
       </c>
       <c r="I24" s="21" t="s">
-        <v>121</v>
+        <v>117</v>
       </c>
       <c r="J24" s="21" t="s">
-        <v>89</v>
+        <v>85</v>
       </c>
     </row>
     <row r="25" spans="1:10" s="21" customFormat="1">
@@ -2413,13 +2417,13 @@
         <v>12532</v>
       </c>
       <c r="D25" s="22" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="E25" s="21" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="F25" s="22" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="G25" s="21" t="s">
         <v>25</v>
@@ -2428,7 +2432,7 @@
         <v>28</v>
       </c>
       <c r="I25" s="21" t="s">
-        <v>109</v>
+        <v>105</v>
       </c>
       <c r="J25" s="21" t="s">
         <v>14</v>
@@ -2445,13 +2449,13 @@
         <v>12531</v>
       </c>
       <c r="D26" s="22" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="E26" s="27" t="s">
-        <v>95</v>
+        <v>91</v>
       </c>
       <c r="F26" s="22" t="s">
-        <v>126</v>
+        <v>122</v>
       </c>
       <c r="G26" s="21" t="s">
         <v>27</v>
@@ -2460,7 +2464,7 @@
         <v>28</v>
       </c>
       <c r="I26" s="21" t="s">
-        <v>122</v>
+        <v>118</v>
       </c>
       <c r="J26" s="21" t="s">
         <v>14</v>
@@ -2492,7 +2496,7 @@
         <v>28</v>
       </c>
       <c r="I27" s="25" t="s">
-        <v>115</v>
+        <v>111</v>
       </c>
       <c r="J27" s="25" t="s">
         <v>14</v>
@@ -2509,22 +2513,22 @@
         <v>12511</v>
       </c>
       <c r="D28" s="22" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="E28" s="21" t="s">
-        <v>92</v>
+        <v>88</v>
       </c>
       <c r="F28" s="22" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="G28" s="21" t="s">
-        <v>127</v>
+        <v>123</v>
       </c>
       <c r="H28" s="21" t="s">
-        <v>85</v>
+        <v>129</v>
       </c>
       <c r="I28" s="21" t="s">
-        <v>108</v>
+        <v>104</v>
       </c>
       <c r="J28" s="21" t="s">
         <v>14</v>
@@ -2541,13 +2545,13 @@
         <v>12530</v>
       </c>
       <c r="D29" s="22" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="E29" s="21" t="s">
         <v>13</v>
       </c>
       <c r="F29" s="22" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="G29" s="21" t="s">
         <v>27</v>
@@ -2556,7 +2560,7 @@
         <v>28</v>
       </c>
       <c r="I29" s="21" t="s">
-        <v>116</v>
+        <v>112</v>
       </c>
       <c r="J29" s="21" t="s">
         <v>35</v>
@@ -2605,13 +2609,13 @@
         <v>12517</v>
       </c>
       <c r="D31" s="24" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="E31" s="23" t="s">
         <v>18</v>
       </c>
       <c r="F31" s="24" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="G31" s="23" t="s">
         <v>25</v>
@@ -2620,10 +2624,10 @@
         <v>28</v>
       </c>
       <c r="I31" s="23" t="s">
-        <v>123</v>
+        <v>119</v>
       </c>
       <c r="J31" s="23" t="s">
-        <v>88</v>
+        <v>84</v>
       </c>
     </row>
     <row r="32" spans="1:10" s="18" customFormat="1">
@@ -2637,13 +2641,13 @@
         <v>12536</v>
       </c>
       <c r="D32" s="19" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="E32" s="18" t="s">
         <v>17</v>
       </c>
       <c r="F32" s="19" t="s">
-        <v>87</v>
+        <v>83</v>
       </c>
       <c r="G32" s="23" t="s">
         <v>25</v>
@@ -2652,7 +2656,7 @@
         <v>28</v>
       </c>
       <c r="I32" s="23" t="s">
-        <v>106</v>
+        <v>102</v>
       </c>
       <c r="J32" s="18" t="s">
         <v>14</v>
@@ -2669,13 +2673,13 @@
         <v>12535</v>
       </c>
       <c r="D33" s="19" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="E33" s="20" t="s">
-        <v>94</v>
+        <v>90</v>
       </c>
       <c r="F33" s="19" t="s">
-        <v>125</v>
+        <v>121</v>
       </c>
       <c r="G33" s="18" t="s">
         <v>27</v>
@@ -2684,7 +2688,7 @@
         <v>28</v>
       </c>
       <c r="I33" s="18" t="s">
-        <v>124</v>
+        <v>120</v>
       </c>
       <c r="J33" s="18" t="s">
         <v>14</v>
@@ -2716,7 +2720,7 @@
         <v>28</v>
       </c>
       <c r="I34" s="18" t="s">
-        <v>117</v>
+        <v>113</v>
       </c>
       <c r="J34" s="18" t="s">
         <v>14</v>
@@ -2733,22 +2737,22 @@
         <v>12537</v>
       </c>
       <c r="D35" s="19" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="E35" s="18" t="s">
-        <v>93</v>
+        <v>89</v>
       </c>
       <c r="F35" s="19" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="G35" s="18" t="s">
-        <v>105</v>
+        <v>101</v>
       </c>
       <c r="H35" s="18" t="s">
-        <v>86</v>
+        <v>130</v>
       </c>
       <c r="I35" s="18" t="s">
-        <v>107</v>
+        <v>103</v>
       </c>
       <c r="J35" s="18" t="s">
         <v>14</v>
@@ -2765,13 +2769,13 @@
         <v>12534</v>
       </c>
       <c r="D36" s="19" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="E36" s="18" t="s">
         <v>13</v>
       </c>
       <c r="F36" s="19" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="G36" s="18" t="s">
         <v>27</v>
@@ -2780,7 +2784,7 @@
         <v>28</v>
       </c>
       <c r="I36" s="18" t="s">
-        <v>118</v>
+        <v>114</v>
       </c>
       <c r="J36" s="18" t="s">
         <v>35</v>
@@ -2808,16 +2812,16 @@
   <sheetData>
     <row r="1" spans="1:4" ht="40.5">
       <c r="A1" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="C1" s="1" t="s">
         <v>49</v>
       </c>
-      <c r="B1" s="1" t="s">
-        <v>48</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>50</v>
-      </c>
       <c r="D1" s="13" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
     </row>
     <row r="2" spans="1:4">
@@ -2828,7 +2832,7 @@
         <v>1</v>
       </c>
       <c r="C2" t="s">
-        <v>99</v>
+        <v>95</v>
       </c>
       <c r="D2">
         <v>13000</v>
@@ -2842,7 +2846,7 @@
         <v>2</v>
       </c>
       <c r="C3" t="s">
-        <v>100</v>
+        <v>96</v>
       </c>
       <c r="D3">
         <v>13000</v>
@@ -2856,7 +2860,7 @@
         <v>3</v>
       </c>
       <c r="C4" t="s">
-        <v>101</v>
+        <v>97</v>
       </c>
       <c r="D4">
         <v>13000</v>
@@ -2870,7 +2874,7 @@
         <v>4</v>
       </c>
       <c r="C5" t="s">
-        <v>102</v>
+        <v>98</v>
       </c>
       <c r="D5">
         <v>13000</v>
@@ -2884,7 +2888,7 @@
         <v>5</v>
       </c>
       <c r="C6" t="s">
-        <v>103</v>
+        <v>99</v>
       </c>
       <c r="D6">
         <v>13000</v>

--- a/config_Release/active_daily_task_info_config.xlsx
+++ b/config_Release/active_daily_task_info_config.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\HLBY\HuanLe_doc\config_debug\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\HLBY\HuanLe_doc\config_Release\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="241" uniqueCount="151">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="241" uniqueCount="154">
   <si>
     <t>id|行号</t>
     <phoneticPr fontId="4" type="noConversion"/>
@@ -606,6 +606,18 @@
   </si>
   <si>
     <t>actp_own_task_p_task_fish_daily_5_cps</t>
+  </si>
+  <si>
+    <t>actp_own_task_p_task_fish_daily_1_2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>actp_own_task_p_task_fish_daily_2_no_cps</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>actp_own_task_p_task_fish_daily_1_2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -1262,7 +1274,7 @@
   <dimension ref="A1:O29"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B7" sqref="B7"/>
+      <selection activeCell="B6" sqref="B6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25"/>
@@ -1415,7 +1427,7 @@
         <v>4</v>
       </c>
       <c r="B5" s="8" t="s">
-        <v>134</v>
+        <v>153</v>
       </c>
       <c r="C5" s="9">
         <v>12522</v>
@@ -1479,7 +1491,7 @@
         <v>6</v>
       </c>
       <c r="B7" s="8" t="s">
-        <v>134</v>
+        <v>151</v>
       </c>
       <c r="C7" s="9">
         <v>12516</v>
@@ -1543,7 +1555,7 @@
         <v>8</v>
       </c>
       <c r="B9" s="15" t="s">
-        <v>138</v>
+        <v>152</v>
       </c>
       <c r="C9" s="16">
         <v>12524</v>

--- a/config_Release/active_daily_task_info_config.xlsx
+++ b/config_Release/active_daily_task_info_config.xlsx
@@ -337,10 +337,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>"ty_icon_pms_3","ty_icon_hytb",</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>"ty_icon_pms_4","ty_icon_hytb",</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -617,6 +613,10 @@
   </si>
   <si>
     <t>actp_own_task_p_task_fish_daily_1_2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>"ty_icon_pms_3","ty_icon_hytb",</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1179,7 +1179,7 @@
         <v>120</v>
       </c>
       <c r="C5" s="7" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="D5" s="3"/>
       <c r="E5" s="3"/>
@@ -1193,7 +1193,7 @@
         <v>150</v>
       </c>
       <c r="C6" s="7" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="D6" s="3"/>
       <c r="E6" s="3"/>
@@ -1273,8 +1273,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:O29"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B6" sqref="B6"/>
+    <sheetView tabSelected="1" topLeftCell="F1" workbookViewId="0">
+      <selection activeCell="G12" sqref="G12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25"/>
@@ -1296,7 +1296,7 @@
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="C1" s="1" t="s">
         <v>3</v>
@@ -1337,25 +1337,25 @@
         <v>12512</v>
       </c>
       <c r="D2" s="10" t="s">
+        <v>108</v>
+      </c>
+      <c r="E2" s="8" t="s">
         <v>109</v>
       </c>
-      <c r="E2" s="8" t="s">
+      <c r="F2" s="10" t="s">
         <v>110</v>
       </c>
-      <c r="F2" s="10" t="s">
+      <c r="G2" s="8" t="s">
         <v>111</v>
       </c>
-      <c r="G2" s="8" t="s">
+      <c r="H2" s="8" t="s">
         <v>112</v>
       </c>
-      <c r="H2" s="8" t="s">
+      <c r="I2" s="8" t="s">
         <v>113</v>
       </c>
-      <c r="I2" s="8" t="s">
+      <c r="J2" s="8" t="s">
         <v>114</v>
-      </c>
-      <c r="J2" s="8" t="s">
-        <v>115</v>
       </c>
     </row>
     <row r="3" spans="1:15">
@@ -1363,7 +1363,7 @@
         <v>2</v>
       </c>
       <c r="B3" s="8" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="C3" s="9">
         <v>12520</v>
@@ -1395,7 +1395,7 @@
         <v>3</v>
       </c>
       <c r="B4" s="8" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="C4" s="9">
         <v>12521</v>
@@ -1413,7 +1413,7 @@
         <v>42</v>
       </c>
       <c r="H4" s="8" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="I4" s="8" t="s">
         <v>41</v>
@@ -1427,7 +1427,7 @@
         <v>4</v>
       </c>
       <c r="B5" s="8" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="C5" s="9">
         <v>12522</v>
@@ -1459,7 +1459,7 @@
         <v>5</v>
       </c>
       <c r="B6" s="11" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="C6" s="9">
         <v>12523</v>
@@ -1480,7 +1480,7 @@
         <v>27</v>
       </c>
       <c r="I6" s="8" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="J6" s="8" t="s">
         <v>13</v>
@@ -1491,7 +1491,7 @@
         <v>6</v>
       </c>
       <c r="B7" s="8" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="C7" s="9">
         <v>12516</v>
@@ -1523,7 +1523,7 @@
         <v>7</v>
       </c>
       <c r="B8" s="8" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="C8" s="9">
         <v>12519</v>
@@ -1544,7 +1544,7 @@
         <v>27</v>
       </c>
       <c r="I8" s="8" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="J8" s="8" t="s">
         <v>33</v>
@@ -1555,7 +1555,7 @@
         <v>8</v>
       </c>
       <c r="B9" s="15" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="C9" s="16">
         <v>12524</v>
@@ -1587,7 +1587,7 @@
         <v>9</v>
       </c>
       <c r="B10" s="15" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="C10" s="16">
         <v>12525</v>
@@ -1619,7 +1619,7 @@
         <v>10</v>
       </c>
       <c r="B11" s="12" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="C11" s="13">
         <v>12508</v>
@@ -1640,7 +1640,7 @@
         <v>27</v>
       </c>
       <c r="I11" s="12" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="J11" s="12" t="s">
         <v>13</v>
@@ -1651,7 +1651,7 @@
         <v>11</v>
       </c>
       <c r="B12" s="12" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="C12" s="13">
         <v>12529</v>
@@ -1666,10 +1666,10 @@
         <v>67</v>
       </c>
       <c r="G12" s="12" t="s">
-        <v>79</v>
+        <v>96</v>
       </c>
       <c r="H12" s="12" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="I12" s="12" t="s">
         <v>41</v>
@@ -1683,7 +1683,7 @@
         <v>12</v>
       </c>
       <c r="B13" s="12" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="C13" s="13">
         <v>12528</v>
@@ -1704,7 +1704,7 @@
         <v>27</v>
       </c>
       <c r="I13" s="12" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="J13" s="12" t="s">
         <v>13</v>
@@ -1715,7 +1715,7 @@
         <v>13</v>
       </c>
       <c r="B14" s="17" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="C14" s="18">
         <v>12526</v>
@@ -1747,7 +1747,7 @@
         <v>14</v>
       </c>
       <c r="B15" s="12" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="C15" s="13">
         <v>12527</v>
@@ -1768,7 +1768,7 @@
         <v>27</v>
       </c>
       <c r="I15" s="12" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="J15" s="12" t="s">
         <v>33</v>
@@ -1779,7 +1779,7 @@
         <v>15</v>
       </c>
       <c r="B16" s="15" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="C16" s="16">
         <v>12517</v>
@@ -1800,7 +1800,7 @@
         <v>27</v>
       </c>
       <c r="I16" s="15" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="J16" s="15" t="s">
         <v>71</v>
@@ -1811,7 +1811,7 @@
         <v>16</v>
       </c>
       <c r="B17" s="15" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="C17" s="16">
         <v>12532</v>
@@ -1832,7 +1832,7 @@
         <v>27</v>
       </c>
       <c r="I17" s="15" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="J17" s="15" t="s">
         <v>13</v>
@@ -1843,7 +1843,7 @@
         <v>17</v>
       </c>
       <c r="B18" s="15" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="C18" s="16">
         <v>12531</v>
@@ -1855,7 +1855,7 @@
         <v>75</v>
       </c>
       <c r="F18" s="16" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="G18" s="15" t="s">
         <v>26</v>
@@ -1864,7 +1864,7 @@
         <v>27</v>
       </c>
       <c r="I18" s="15" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="J18" s="15" t="s">
         <v>13</v>
@@ -1875,7 +1875,7 @@
         <v>18</v>
       </c>
       <c r="B19" s="15" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="C19" s="16">
         <v>12511</v>
@@ -1890,13 +1890,13 @@
         <v>58</v>
       </c>
       <c r="G19" s="15" t="s">
-        <v>97</v>
+        <v>153</v>
       </c>
       <c r="H19" s="15" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="I19" s="15" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="J19" s="15" t="s">
         <v>13</v>
@@ -1907,7 +1907,7 @@
         <v>19</v>
       </c>
       <c r="B20" s="15" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="C20" s="16">
         <v>12530</v>
@@ -1928,7 +1928,7 @@
         <v>27</v>
       </c>
       <c r="I20" s="15" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="J20" s="15" t="s">
         <v>33</v>
@@ -1939,7 +1939,7 @@
         <v>20</v>
       </c>
       <c r="B21" s="12" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="C21" s="13">
         <v>12536</v>
@@ -1960,7 +1960,7 @@
         <v>27</v>
       </c>
       <c r="I21" s="17" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="J21" s="12" t="s">
         <v>13</v>
@@ -1971,7 +1971,7 @@
         <v>21</v>
       </c>
       <c r="B22" s="12" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="C22" s="13">
         <v>12535</v>
@@ -1983,7 +1983,7 @@
         <v>74</v>
       </c>
       <c r="F22" s="13" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="G22" s="12" t="s">
         <v>26</v>
@@ -1992,7 +1992,7 @@
         <v>27</v>
       </c>
       <c r="I22" s="12" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="J22" s="12" t="s">
         <v>13</v>
@@ -2003,7 +2003,7 @@
         <v>22</v>
       </c>
       <c r="B23" s="12" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="C23" s="13">
         <v>12537</v>
@@ -2018,13 +2018,13 @@
         <v>57</v>
       </c>
       <c r="G23" s="12" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="H23" s="12" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="I23" s="12" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="J23" s="12" t="s">
         <v>13</v>
@@ -2035,7 +2035,7 @@
         <v>23</v>
       </c>
       <c r="B24" s="12" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="C24" s="13">
         <v>12534</v>
@@ -2056,7 +2056,7 @@
         <v>27</v>
       </c>
       <c r="I24" s="12" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="J24" s="12" t="s">
         <v>33</v>
@@ -2067,7 +2067,7 @@
         <v>24</v>
       </c>
       <c r="B25" s="11" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="C25" s="9">
         <v>12538</v>
@@ -2082,13 +2082,13 @@
         <v>39</v>
       </c>
       <c r="G25" s="8" t="s">
+        <v>105</v>
+      </c>
+      <c r="H25" s="8" t="s">
         <v>106</v>
       </c>
-      <c r="H25" s="8" t="s">
+      <c r="I25" s="8" t="s">
         <v>107</v>
-      </c>
-      <c r="I25" s="8" t="s">
-        <v>108</v>
       </c>
       <c r="J25" s="8" t="s">
         <v>13</v>
@@ -2099,31 +2099,31 @@
         <v>25</v>
       </c>
       <c r="B26" s="8" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="C26" s="9">
         <v>12539</v>
       </c>
       <c r="D26" s="10" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="E26" s="8" t="s">
         <v>12</v>
       </c>
       <c r="F26" s="10" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="G26" s="8" t="s">
+        <v>118</v>
+      </c>
+      <c r="H26" s="8" t="s">
         <v>119</v>
       </c>
-      <c r="H26" s="8" t="s">
+      <c r="I26" s="8" t="s">
         <v>120</v>
       </c>
-      <c r="I26" s="8" t="s">
+      <c r="J26" s="8" t="s">
         <v>121</v>
-      </c>
-      <c r="J26" s="8" t="s">
-        <v>122</v>
       </c>
     </row>
     <row r="27" spans="1:10" s="12" customFormat="1">
@@ -2131,28 +2131,28 @@
         <v>26</v>
       </c>
       <c r="B27" s="12" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="C27" s="13">
         <v>12540</v>
       </c>
       <c r="D27" s="13" t="s">
+        <v>122</v>
+      </c>
+      <c r="E27" s="12" t="s">
         <v>123</v>
-      </c>
-      <c r="E27" s="12" t="s">
-        <v>124</v>
       </c>
       <c r="F27" s="13" t="s">
         <v>47</v>
       </c>
       <c r="G27" s="8" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="H27" s="8" t="s">
+        <v>124</v>
+      </c>
+      <c r="I27" s="8" t="s">
         <v>125</v>
-      </c>
-      <c r="I27" s="8" t="s">
-        <v>126</v>
       </c>
       <c r="J27" s="12" t="s">
         <v>33</v>
@@ -2163,31 +2163,31 @@
         <v>27</v>
       </c>
       <c r="B28" s="15" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="C28" s="16">
         <v>12541</v>
       </c>
       <c r="D28" s="16" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="E28" s="15" t="s">
         <v>12</v>
       </c>
       <c r="F28" s="16" t="s">
+        <v>127</v>
+      </c>
+      <c r="G28" s="8" t="s">
+        <v>117</v>
+      </c>
+      <c r="H28" s="8" t="s">
+        <v>104</v>
+      </c>
+      <c r="I28" s="8" t="s">
         <v>128</v>
       </c>
-      <c r="G28" s="8" t="s">
-        <v>118</v>
-      </c>
-      <c r="H28" s="8" t="s">
-        <v>105</v>
-      </c>
-      <c r="I28" s="8" t="s">
+      <c r="J28" s="15" t="s">
         <v>129</v>
-      </c>
-      <c r="J28" s="15" t="s">
-        <v>130</v>
       </c>
     </row>
     <row r="29" spans="1:10" s="12" customFormat="1">
@@ -2195,28 +2195,28 @@
         <v>28</v>
       </c>
       <c r="B29" s="12" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="C29" s="13">
         <v>12542</v>
       </c>
       <c r="D29" s="13" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="E29" s="12" t="s">
         <v>12</v>
       </c>
       <c r="F29" s="13" t="s">
+        <v>130</v>
+      </c>
+      <c r="G29" s="8" t="s">
         <v>131</v>
       </c>
-      <c r="G29" s="8" t="s">
+      <c r="H29" s="8" t="s">
+        <v>104</v>
+      </c>
+      <c r="I29" s="8" t="s">
         <v>132</v>
-      </c>
-      <c r="H29" s="8" t="s">
-        <v>105</v>
-      </c>
-      <c r="I29" s="8" t="s">
-        <v>133</v>
       </c>
       <c r="J29" s="12" t="s">
         <v>33</v>

--- a/config_Release/active_daily_task_info_config.xlsx
+++ b/config_Release/active_daily_task_info_config.xlsx
@@ -5,15 +5,18 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\HLBY\HuanLe_doc\config_Release\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\HLBY\HuanLe_doc\config_debug\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="30720" windowHeight="13605" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="30720" windowHeight="13605" activeTab="3"/>
   </bookViews>
   <sheets>
-    <sheet name="active_award_config|总活跃度任务" sheetId="4" r:id="rId1"/>
+    <sheet name="config|索引表" sheetId="7" r:id="rId1"/>
     <sheet name="active_task_item|单个活跃度任务" sheetId="5" r:id="rId2"/>
+    <sheet name="active_award_config|总活跃度任务" sheetId="4" r:id="rId3"/>
+    <sheet name="active_task_item_cjj|冲金鸡" sheetId="10" r:id="rId4"/>
+    <sheet name="active_award_config_cjj|冲金鸡" sheetId="9" r:id="rId5"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -25,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="241" uniqueCount="154">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="368" uniqueCount="201">
   <si>
     <t>id|行号</t>
     <phoneticPr fontId="4" type="noConversion"/>
@@ -553,70 +556,254 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>actp_own_task_p_task_fish_daily_1_2</t>
+  </si>
+  <si>
+    <t>actp_own_task_p_task_fish_daily_no_cps</t>
+  </si>
+  <si>
+    <t>actp_own_task_p_task_fish_daily_2</t>
+  </si>
+  <si>
+    <t>actp_own_task_p_task_fish_daily_3</t>
+  </si>
+  <si>
+    <t>actp_own_task_p_task_fish_daily_3_no_cps</t>
+  </si>
+  <si>
+    <t>actp_own_task_p_task_fish_daily_4_5</t>
+  </si>
+  <si>
+    <t>actp_own_task_p_task_fish_daily_4</t>
+  </si>
+  <si>
+    <t>actp_own_task_p_task_fish_daily_4_no_cps</t>
+  </si>
+  <si>
+    <t>actp_own_task_p_task_fish_daily_5</t>
+  </si>
+  <si>
+    <t>actp_own_task_p_task_fish_daily_5_no_cps</t>
+  </si>
+  <si>
+    <t>actp_own_task_p_task_fish_daily_cps</t>
+  </si>
+  <si>
+    <t>actp_own_task_p_task_fish_daily_1_2_cps</t>
+  </si>
+  <si>
+    <t>actp_own_task_p_task_fish_daily_3_cps</t>
+  </si>
+  <si>
+    <t>actp_own_task_p_task_fish_daily_4_cps</t>
+  </si>
+  <si>
+    <t>actp_own_task_p_task_fish_daily_5_cps</t>
+  </si>
+  <si>
+    <t>actp_own_task_p_task_fish_daily_1_2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>actp_own_task_p_task_fish_daily_2_no_cps</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>actp_own_task_p_task_fish_daily_1_2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>"ty_icon_pms_3","ty_icon_hytb",</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>5000小游戏币</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1万小游戏币，玩具锤*1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>5万金币</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1万金币，1万小游戏币</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2万金币，2万小游戏币</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>actp_own_task_p_task_fish_daily_1_2_no_cps</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>id</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>key|权限key</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>active_award_config</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>task|任务表</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>award|活跃度表</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>award_task|活跃度任务ID</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>active_award_config_cjj</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>active_task_item_cjj</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>actp_own_task_p_task_fish_daily_1</t>
-  </si>
-  <si>
-    <t>actp_own_task_p_task_fish_daily_1_2</t>
-  </si>
-  <si>
-    <t>actp_own_task_p_task_fish_daily_no_cps</t>
-  </si>
-  <si>
-    <t>actp_own_task_p_task_fish_daily_1_2_no_cps</t>
-  </si>
-  <si>
-    <t>actp_own_task_p_task_fish_daily_2</t>
-  </si>
-  <si>
-    <t>actp_own_task_p_task_fish_daily_3</t>
-  </si>
-  <si>
-    <t>actp_own_task_p_task_fish_daily_3_no_cps</t>
-  </si>
-  <si>
-    <t>actp_own_task_p_task_fish_daily_4_5</t>
-  </si>
-  <si>
-    <t>actp_own_task_p_task_fish_daily_4</t>
-  </si>
-  <si>
-    <t>actp_own_task_p_task_fish_daily_4_no_cps</t>
-  </si>
-  <si>
-    <t>actp_own_task_p_task_fish_daily_5</t>
-  </si>
-  <si>
-    <t>actp_own_task_p_task_fish_daily_5_no_cps</t>
-  </si>
-  <si>
-    <t>actp_own_task_p_task_fish_daily_cps</t>
-  </si>
-  <si>
-    <t>actp_own_task_p_task_fish_daily_1_2_cps</t>
-  </si>
-  <si>
-    <t>actp_own_task_p_task_fish_daily_3_cps</t>
-  </si>
-  <si>
-    <t>actp_own_task_p_task_fish_daily_4_cps</t>
-  </si>
-  <si>
-    <t>actp_own_task_p_task_fish_daily_5_cps</t>
-  </si>
-  <si>
-    <t>actp_own_task_p_task_fish_daily_1_2</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>actp_own_task_p_task_fish_daily_2_no_cps</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>actp_own_task_p_task_fish_daily_1_2</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>"ty_icon_pms_3","ty_icon_hytb",</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>累计赢金</t>
+  </si>
+  <si>
+    <t>红包场累计赢金500万</t>
+  </si>
+  <si>
+    <t>红包场累计赢金1000万</t>
+  </si>
+  <si>
+    <t>active_task_item</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>cpl_notcjj</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>cpl_cjj</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>龙王争霸累计赢金500万</t>
+  </si>
+  <si>
+    <t>龙王争霸累计赢金1000万</t>
+  </si>
+  <si>
+    <t>龙王争霸累计赢金1万</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>龙王争霸累计赢金5万</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>龙王争霸累计赢金100万</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>龙王争霸累计赢金10万</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>龙王争霸累计赢金50万</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>红包场累计赢金1万</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>红包场累计赢金5万</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>红包场累计赢金10万</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>红包场累计赢金50万</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>红包场累计赢金100万</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>"ty_icon_jb_15y","ty_icon_hytb",</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>"ty_icon_jb_15y","ty_icon_hytb",</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>"ty_icon_jb_30y","ty_icon_hytb",</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>"ty_icon_jb_30y","ty_icon_hytb",</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>"ty_icon_jb_2498y","ty_icon_hytb",</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>"ty_icon_jb_198y","ty_icon_hytb",</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>"ty_icon_jb_198y","ty_icon_hytb",</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>"金币","活跃度"</t>
+  </si>
+  <si>
+    <t>"game_LWZBHall",</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>"x200","x5"</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>"x1000","x5"</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>"x2000","x10"</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>"x10000","x10"</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>"x20000","x10"</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>"x100000","x20"</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>"x200000","x30"</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -703,7 +890,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="5">
+  <fills count="6">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -725,6 +912,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="4" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.59999389629810485"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -760,7 +953,7 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="20">
+  <cellXfs count="22">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -816,6 +1009,12 @@
     </xf>
     <xf numFmtId="0" fontId="10" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
@@ -1099,173 +1298,74 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G15"/>
+  <dimension ref="A1:E3"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C5" sqref="C5"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="14.25"/>
+  <sheetFormatPr defaultRowHeight="14.25"/>
   <cols>
-    <col min="1" max="1" width="8.5" style="2" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="20.625" style="2" customWidth="1"/>
-    <col min="3" max="3" width="29.5" style="2" customWidth="1"/>
-    <col min="4" max="4" width="14.5" style="2" customWidth="1"/>
-    <col min="5" max="7" width="22" style="2" customWidth="1"/>
-    <col min="8" max="8" width="20.125" style="2" customWidth="1"/>
-    <col min="9" max="9" width="8.875" style="2"/>
-    <col min="10" max="10" width="70.625" style="2" customWidth="1"/>
-    <col min="11" max="16384" width="8.875" style="2"/>
+    <col min="2" max="2" width="11.25" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="31.625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="30.125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="23.5" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" s="1" customFormat="1" ht="32.25" customHeight="1">
-      <c r="A1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="1" t="s">
+    <row r="1" spans="1:5">
+      <c r="A1" s="20" t="s">
+        <v>158</v>
+      </c>
+      <c r="B1" s="20" t="s">
+        <v>159</v>
+      </c>
+      <c r="C1" s="20" t="s">
+        <v>161</v>
+      </c>
+      <c r="D1" s="20" t="s">
+        <v>162</v>
+      </c>
+      <c r="E1" s="20" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5">
+      <c r="A2">
         <v>1</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="B2" t="s">
+        <v>171</v>
+      </c>
+      <c r="C2" t="s">
+        <v>170</v>
+      </c>
+      <c r="D2" t="s">
+        <v>160</v>
+      </c>
+      <c r="E2">
+        <v>13000</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5">
+      <c r="A3">
         <v>2</v>
       </c>
-    </row>
-    <row r="2" spans="1:7" ht="16.5">
-      <c r="A2" s="2">
-        <v>1</v>
-      </c>
-      <c r="B2" s="2">
-        <v>30</v>
-      </c>
-      <c r="C2" s="7" t="s">
-        <v>36</v>
-      </c>
-      <c r="D2" s="3"/>
-      <c r="E2" s="6"/>
-      <c r="F2" s="6"/>
-    </row>
-    <row r="3" spans="1:7" ht="16.5">
-      <c r="A3" s="2">
-        <v>2</v>
-      </c>
-      <c r="B3" s="2">
-        <v>60</v>
-      </c>
-      <c r="C3" s="7" t="s">
-        <v>37</v>
-      </c>
-      <c r="D3" s="3"/>
-      <c r="E3" s="6"/>
-      <c r="F3" s="6"/>
-    </row>
-    <row r="4" spans="1:7" ht="16.5">
-      <c r="A4" s="2">
-        <v>3</v>
-      </c>
-      <c r="B4" s="2">
-        <v>90</v>
-      </c>
-      <c r="C4" s="7" t="s">
-        <v>38</v>
-      </c>
-      <c r="D4" s="3"/>
-      <c r="E4" s="3"/>
-      <c r="F4" s="6"/>
-    </row>
-    <row r="5" spans="1:7" ht="16.5">
-      <c r="A5" s="2">
-        <v>4</v>
-      </c>
-      <c r="B5" s="2">
-        <v>120</v>
-      </c>
-      <c r="C5" s="7" t="s">
-        <v>89</v>
-      </c>
-      <c r="D5" s="3"/>
-      <c r="E5" s="3"/>
-      <c r="F5" s="3"/>
-    </row>
-    <row r="6" spans="1:7" ht="16.5">
-      <c r="A6" s="2">
-        <v>5</v>
-      </c>
-      <c r="B6" s="2">
-        <v>150</v>
-      </c>
-      <c r="C6" s="7" t="s">
-        <v>90</v>
-      </c>
-      <c r="D6" s="3"/>
-      <c r="E6" s="3"/>
-      <c r="F6" s="3"/>
-    </row>
-    <row r="7" spans="1:7" ht="16.5">
-      <c r="C7" s="3"/>
-      <c r="D7" s="3"/>
-      <c r="E7" s="3"/>
-      <c r="F7" s="3"/>
-      <c r="G7" s="3"/>
-    </row>
-    <row r="8" spans="1:7" ht="16.5">
-      <c r="C8" s="3"/>
-      <c r="D8" s="3"/>
-      <c r="E8" s="3"/>
-      <c r="F8" s="3"/>
-      <c r="G8" s="3"/>
-    </row>
-    <row r="9" spans="1:7">
-      <c r="C9" s="4"/>
-      <c r="D9" s="4"/>
-      <c r="E9" s="4"/>
-      <c r="F9" s="4"/>
-      <c r="G9" s="4"/>
-    </row>
-    <row r="10" spans="1:7" ht="16.5">
-      <c r="C10" s="3"/>
-      <c r="D10" s="3"/>
-      <c r="E10" s="3"/>
-      <c r="F10" s="3"/>
-      <c r="G10" s="3"/>
-    </row>
-    <row r="11" spans="1:7" ht="16.5">
-      <c r="C11" s="3"/>
-      <c r="D11" s="3"/>
-      <c r="E11" s="3"/>
-      <c r="F11" s="3"/>
-      <c r="G11" s="3"/>
-    </row>
-    <row r="12" spans="1:7" ht="16.5">
-      <c r="C12" s="3"/>
-      <c r="D12" s="3"/>
-      <c r="E12" s="3"/>
-      <c r="F12" s="3"/>
-      <c r="G12" s="3"/>
-    </row>
-    <row r="13" spans="1:7">
-      <c r="C13" s="5"/>
-      <c r="D13" s="5"/>
-      <c r="E13" s="5"/>
-      <c r="F13" s="5"/>
-      <c r="G13" s="5"/>
-    </row>
-    <row r="14" spans="1:7">
-      <c r="C14" s="5"/>
-      <c r="D14" s="5"/>
-      <c r="E14" s="5"/>
-      <c r="F14" s="5"/>
-      <c r="G14" s="5"/>
-    </row>
-    <row r="15" spans="1:7">
-      <c r="C15" s="5"/>
-      <c r="D15" s="5"/>
-      <c r="E15" s="5"/>
-      <c r="F15" s="5"/>
-      <c r="G15" s="5"/>
+      <c r="B3" t="s">
+        <v>172</v>
+      </c>
+      <c r="C3" t="s">
+        <v>165</v>
+      </c>
+      <c r="D3" t="s">
+        <v>164</v>
+      </c>
+      <c r="E3">
+        <v>13001</v>
+      </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -1273,8 +1373,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:O29"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="F1" workbookViewId="0">
-      <selection activeCell="G12" sqref="G12"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B3" sqref="A1:J29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25"/>
@@ -1363,7 +1463,7 @@
         <v>2</v>
       </c>
       <c r="B3" s="8" t="s">
-        <v>133</v>
+        <v>166</v>
       </c>
       <c r="C3" s="9">
         <v>12520</v>
@@ -1395,7 +1495,7 @@
         <v>3</v>
       </c>
       <c r="B4" s="8" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="C4" s="9">
         <v>12521</v>
@@ -1427,7 +1527,7 @@
         <v>4</v>
       </c>
       <c r="B5" s="8" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="C5" s="9">
         <v>12522</v>
@@ -1459,7 +1559,7 @@
         <v>5</v>
       </c>
       <c r="B6" s="11" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="C6" s="9">
         <v>12523</v>
@@ -1491,7 +1591,7 @@
         <v>6</v>
       </c>
       <c r="B7" s="8" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="C7" s="9">
         <v>12516</v>
@@ -1523,7 +1623,7 @@
         <v>7</v>
       </c>
       <c r="B8" s="8" t="s">
-        <v>136</v>
+        <v>157</v>
       </c>
       <c r="C8" s="9">
         <v>12519</v>
@@ -1555,7 +1655,7 @@
         <v>8</v>
       </c>
       <c r="B9" s="15" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="C9" s="16">
         <v>12524</v>
@@ -1587,7 +1687,7 @@
         <v>9</v>
       </c>
       <c r="B10" s="15" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="C10" s="16">
         <v>12525</v>
@@ -1619,7 +1719,7 @@
         <v>10</v>
       </c>
       <c r="B11" s="12" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="C11" s="13">
         <v>12508</v>
@@ -1651,7 +1751,7 @@
         <v>11</v>
       </c>
       <c r="B12" s="12" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="C12" s="13">
         <v>12529</v>
@@ -1683,7 +1783,7 @@
         <v>12</v>
       </c>
       <c r="B13" s="12" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="C13" s="13">
         <v>12528</v>
@@ -1715,7 +1815,7 @@
         <v>13</v>
       </c>
       <c r="B14" s="17" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="C14" s="18">
         <v>12526</v>
@@ -1747,7 +1847,7 @@
         <v>14</v>
       </c>
       <c r="B15" s="12" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="C15" s="13">
         <v>12527</v>
@@ -1779,7 +1879,7 @@
         <v>15</v>
       </c>
       <c r="B16" s="15" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="C16" s="16">
         <v>12517</v>
@@ -1811,7 +1911,7 @@
         <v>16</v>
       </c>
       <c r="B17" s="15" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="C17" s="16">
         <v>12532</v>
@@ -1843,7 +1943,7 @@
         <v>17</v>
       </c>
       <c r="B18" s="15" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="C18" s="16">
         <v>12531</v>
@@ -1875,7 +1975,7 @@
         <v>18</v>
       </c>
       <c r="B19" s="15" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="C19" s="16">
         <v>12511</v>
@@ -1890,7 +1990,7 @@
         <v>58</v>
       </c>
       <c r="G19" s="15" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="H19" s="15" t="s">
         <v>101</v>
@@ -1907,7 +2007,7 @@
         <v>19</v>
       </c>
       <c r="B20" s="15" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="C20" s="16">
         <v>12530</v>
@@ -1939,7 +2039,7 @@
         <v>20</v>
       </c>
       <c r="B21" s="12" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="C21" s="13">
         <v>12536</v>
@@ -1971,7 +2071,7 @@
         <v>21</v>
       </c>
       <c r="B22" s="12" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="C22" s="13">
         <v>12535</v>
@@ -2003,7 +2103,7 @@
         <v>22</v>
       </c>
       <c r="B23" s="12" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="C23" s="13">
         <v>12537</v>
@@ -2035,7 +2135,7 @@
         <v>23</v>
       </c>
       <c r="B24" s="12" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="C24" s="13">
         <v>12534</v>
@@ -2067,7 +2167,7 @@
         <v>24</v>
       </c>
       <c r="B25" s="11" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="C25" s="9">
         <v>12538</v>
@@ -2099,7 +2199,7 @@
         <v>25</v>
       </c>
       <c r="B26" s="8" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="C26" s="9">
         <v>12539</v>
@@ -2131,7 +2231,7 @@
         <v>26</v>
       </c>
       <c r="B27" s="12" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="C27" s="13">
         <v>12540</v>
@@ -2163,7 +2263,7 @@
         <v>27</v>
       </c>
       <c r="B28" s="15" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="C28" s="16">
         <v>12541</v>
@@ -2195,7 +2295,7 @@
         <v>28</v>
       </c>
       <c r="B29" s="12" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="C29" s="13">
         <v>12542</v>
@@ -2227,4 +2327,868 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:G15"/>
+  <sheetViews>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="E38" sqref="E38"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="14.25"/>
+  <cols>
+    <col min="1" max="1" width="8.5" style="2" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="20.625" style="2" customWidth="1"/>
+    <col min="3" max="3" width="29.5" style="2" customWidth="1"/>
+    <col min="4" max="4" width="14.5" style="2" customWidth="1"/>
+    <col min="5" max="7" width="22" style="2" customWidth="1"/>
+    <col min="8" max="8" width="20.125" style="2" customWidth="1"/>
+    <col min="9" max="9" width="8.875" style="2"/>
+    <col min="10" max="10" width="70.625" style="2" customWidth="1"/>
+    <col min="11" max="16384" width="8.875" style="2"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:7" s="1" customFormat="1" ht="32.25" customHeight="1">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" ht="16.5">
+      <c r="A2" s="2">
+        <v>1</v>
+      </c>
+      <c r="B2" s="2">
+        <v>30</v>
+      </c>
+      <c r="C2" s="7" t="s">
+        <v>36</v>
+      </c>
+      <c r="D2" s="3"/>
+      <c r="E2" s="6"/>
+      <c r="F2" s="6"/>
+    </row>
+    <row r="3" spans="1:7" ht="16.5">
+      <c r="A3" s="2">
+        <v>2</v>
+      </c>
+      <c r="B3" s="2">
+        <v>60</v>
+      </c>
+      <c r="C3" s="7" t="s">
+        <v>37</v>
+      </c>
+      <c r="D3" s="3"/>
+      <c r="E3" s="6"/>
+      <c r="F3" s="6"/>
+    </row>
+    <row r="4" spans="1:7" ht="16.5">
+      <c r="A4" s="2">
+        <v>3</v>
+      </c>
+      <c r="B4" s="2">
+        <v>90</v>
+      </c>
+      <c r="C4" s="7" t="s">
+        <v>38</v>
+      </c>
+      <c r="D4" s="3"/>
+      <c r="E4" s="3"/>
+      <c r="F4" s="6"/>
+    </row>
+    <row r="5" spans="1:7" ht="16.5">
+      <c r="A5" s="2">
+        <v>4</v>
+      </c>
+      <c r="B5" s="2">
+        <v>120</v>
+      </c>
+      <c r="C5" s="7" t="s">
+        <v>89</v>
+      </c>
+      <c r="D5" s="3"/>
+      <c r="E5" s="3"/>
+      <c r="F5" s="3"/>
+    </row>
+    <row r="6" spans="1:7" ht="16.5">
+      <c r="A6" s="2">
+        <v>5</v>
+      </c>
+      <c r="B6" s="2">
+        <v>150</v>
+      </c>
+      <c r="C6" s="7" t="s">
+        <v>90</v>
+      </c>
+      <c r="D6" s="3"/>
+      <c r="E6" s="3"/>
+      <c r="F6" s="3"/>
+    </row>
+    <row r="7" spans="1:7" ht="16.5">
+      <c r="C7" s="3"/>
+      <c r="D7" s="3"/>
+      <c r="E7" s="3"/>
+      <c r="F7" s="3"/>
+      <c r="G7" s="3"/>
+    </row>
+    <row r="8" spans="1:7" ht="16.5">
+      <c r="C8" s="3"/>
+      <c r="D8" s="3"/>
+      <c r="E8" s="3"/>
+      <c r="F8" s="3"/>
+      <c r="G8" s="3"/>
+    </row>
+    <row r="9" spans="1:7">
+      <c r="C9" s="4"/>
+      <c r="D9" s="4"/>
+      <c r="E9" s="4"/>
+      <c r="F9" s="4"/>
+      <c r="G9" s="4"/>
+    </row>
+    <row r="10" spans="1:7" ht="16.5">
+      <c r="C10" s="3"/>
+      <c r="D10" s="3"/>
+      <c r="E10" s="3"/>
+      <c r="F10" s="3"/>
+      <c r="G10" s="3"/>
+    </row>
+    <row r="11" spans="1:7" ht="16.5">
+      <c r="C11" s="3"/>
+      <c r="D11" s="3"/>
+      <c r="E11" s="3"/>
+      <c r="F11" s="3"/>
+      <c r="G11" s="3"/>
+    </row>
+    <row r="12" spans="1:7" ht="16.5">
+      <c r="C12" s="3"/>
+      <c r="D12" s="3"/>
+      <c r="E12" s="3"/>
+      <c r="F12" s="3"/>
+      <c r="G12" s="3"/>
+    </row>
+    <row r="13" spans="1:7">
+      <c r="C13" s="5"/>
+      <c r="D13" s="5"/>
+      <c r="E13" s="5"/>
+      <c r="F13" s="5"/>
+      <c r="G13" s="5"/>
+    </row>
+    <row r="14" spans="1:7">
+      <c r="C14" s="5"/>
+      <c r="D14" s="5"/>
+      <c r="E14" s="5"/>
+      <c r="F14" s="5"/>
+      <c r="G14" s="5"/>
+    </row>
+    <row r="15" spans="1:7">
+      <c r="C15" s="5"/>
+      <c r="D15" s="5"/>
+      <c r="E15" s="5"/>
+      <c r="F15" s="5"/>
+      <c r="G15" s="5"/>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:J32"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="I9" sqref="I9:I15"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.25"/>
+  <cols>
+    <col min="2" max="2" width="13.375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="8.5" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="11" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="12.625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="28.25" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="28.125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="29.125" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.625" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="20.375" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:10" ht="40.5">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>103</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10">
+      <c r="A2" s="8">
+        <v>1</v>
+      </c>
+      <c r="B2" s="8"/>
+      <c r="C2" s="9">
+        <v>12600</v>
+      </c>
+      <c r="D2" s="10" t="s">
+        <v>167</v>
+      </c>
+      <c r="E2" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="F2" s="10" t="s">
+        <v>175</v>
+      </c>
+      <c r="G2" s="8" t="s">
+        <v>185</v>
+      </c>
+      <c r="H2" s="8" t="s">
+        <v>192</v>
+      </c>
+      <c r="I2" s="8" t="s">
+        <v>194</v>
+      </c>
+      <c r="J2" s="8" t="s">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10">
+      <c r="A3" s="8">
+        <v>2</v>
+      </c>
+      <c r="B3" s="8"/>
+      <c r="C3" s="9">
+        <v>12601</v>
+      </c>
+      <c r="D3" s="10" t="s">
+        <v>167</v>
+      </c>
+      <c r="E3" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="F3" s="10" t="s">
+        <v>176</v>
+      </c>
+      <c r="G3" s="8" t="s">
+        <v>186</v>
+      </c>
+      <c r="H3" s="8" t="s">
+        <v>192</v>
+      </c>
+      <c r="I3" s="8" t="s">
+        <v>195</v>
+      </c>
+      <c r="J3" s="8" t="s">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10">
+      <c r="A4" s="8">
+        <v>3</v>
+      </c>
+      <c r="B4" s="8"/>
+      <c r="C4" s="9">
+        <v>12602</v>
+      </c>
+      <c r="D4" s="10" t="s">
+        <v>167</v>
+      </c>
+      <c r="E4" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="F4" s="10" t="s">
+        <v>178</v>
+      </c>
+      <c r="G4" s="8" t="s">
+        <v>187</v>
+      </c>
+      <c r="H4" s="8" t="s">
+        <v>192</v>
+      </c>
+      <c r="I4" s="8" t="s">
+        <v>196</v>
+      </c>
+      <c r="J4" s="8" t="s">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10">
+      <c r="A5" s="8">
+        <v>4</v>
+      </c>
+      <c r="B5" s="8"/>
+      <c r="C5" s="9">
+        <v>12603</v>
+      </c>
+      <c r="D5" s="10" t="s">
+        <v>167</v>
+      </c>
+      <c r="E5" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="F5" s="10" t="s">
+        <v>179</v>
+      </c>
+      <c r="G5" s="8" t="s">
+        <v>188</v>
+      </c>
+      <c r="H5" s="8" t="s">
+        <v>192</v>
+      </c>
+      <c r="I5" s="8" t="s">
+        <v>197</v>
+      </c>
+      <c r="J5" s="8" t="s">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10">
+      <c r="A6" s="8">
+        <v>5</v>
+      </c>
+      <c r="B6" s="11"/>
+      <c r="C6" s="9">
+        <v>12604</v>
+      </c>
+      <c r="D6" s="10" t="s">
+        <v>167</v>
+      </c>
+      <c r="E6" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="F6" s="10" t="s">
+        <v>177</v>
+      </c>
+      <c r="G6" s="8" t="s">
+        <v>191</v>
+      </c>
+      <c r="H6" s="8" t="s">
+        <v>192</v>
+      </c>
+      <c r="I6" s="8" t="s">
+        <v>198</v>
+      </c>
+      <c r="J6" s="8" t="s">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10">
+      <c r="A7" s="8">
+        <v>6</v>
+      </c>
+      <c r="B7" s="8"/>
+      <c r="C7" s="9">
+        <v>12605</v>
+      </c>
+      <c r="D7" s="10" t="s">
+        <v>167</v>
+      </c>
+      <c r="E7" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="F7" s="10" t="s">
+        <v>173</v>
+      </c>
+      <c r="G7" s="8" t="s">
+        <v>190</v>
+      </c>
+      <c r="H7" s="8" t="s">
+        <v>192</v>
+      </c>
+      <c r="I7" s="8" t="s">
+        <v>199</v>
+      </c>
+      <c r="J7" s="8" t="s">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10">
+      <c r="A8" s="8">
+        <v>7</v>
+      </c>
+      <c r="B8" s="8"/>
+      <c r="C8" s="9">
+        <v>12606</v>
+      </c>
+      <c r="D8" s="10" t="s">
+        <v>167</v>
+      </c>
+      <c r="E8" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="F8" s="10" t="s">
+        <v>174</v>
+      </c>
+      <c r="G8" s="8" t="s">
+        <v>189</v>
+      </c>
+      <c r="H8" s="8" t="s">
+        <v>192</v>
+      </c>
+      <c r="I8" s="8" t="s">
+        <v>200</v>
+      </c>
+      <c r="J8" s="8" t="s">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10">
+      <c r="A9" s="8">
+        <v>8</v>
+      </c>
+      <c r="B9" s="8"/>
+      <c r="C9" s="9">
+        <v>12607</v>
+      </c>
+      <c r="D9" s="10" t="s">
+        <v>167</v>
+      </c>
+      <c r="E9" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="F9" s="10" t="s">
+        <v>180</v>
+      </c>
+      <c r="G9" s="8" t="s">
+        <v>185</v>
+      </c>
+      <c r="H9" s="8" t="s">
+        <v>192</v>
+      </c>
+      <c r="I9" s="8" t="s">
+        <v>194</v>
+      </c>
+      <c r="J9" s="8" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10">
+      <c r="A10" s="8">
+        <v>9</v>
+      </c>
+      <c r="B10" s="8"/>
+      <c r="C10" s="9">
+        <v>12608</v>
+      </c>
+      <c r="D10" s="10" t="s">
+        <v>167</v>
+      </c>
+      <c r="E10" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="F10" s="10" t="s">
+        <v>181</v>
+      </c>
+      <c r="G10" s="8" t="s">
+        <v>186</v>
+      </c>
+      <c r="H10" s="8" t="s">
+        <v>192</v>
+      </c>
+      <c r="I10" s="8" t="s">
+        <v>195</v>
+      </c>
+      <c r="J10" s="8" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10">
+      <c r="A11" s="8">
+        <v>10</v>
+      </c>
+      <c r="B11" s="8"/>
+      <c r="C11" s="9">
+        <v>12609</v>
+      </c>
+      <c r="D11" s="10" t="s">
+        <v>167</v>
+      </c>
+      <c r="E11" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="F11" s="10" t="s">
+        <v>182</v>
+      </c>
+      <c r="G11" s="8" t="s">
+        <v>187</v>
+      </c>
+      <c r="H11" s="8" t="s">
+        <v>192</v>
+      </c>
+      <c r="I11" s="8" t="s">
+        <v>196</v>
+      </c>
+      <c r="J11" s="8" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10">
+      <c r="A12" s="8">
+        <v>11</v>
+      </c>
+      <c r="B12" s="8"/>
+      <c r="C12" s="9">
+        <v>12610</v>
+      </c>
+      <c r="D12" s="10" t="s">
+        <v>167</v>
+      </c>
+      <c r="E12" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="F12" s="10" t="s">
+        <v>183</v>
+      </c>
+      <c r="G12" s="8" t="s">
+        <v>188</v>
+      </c>
+      <c r="H12" s="8" t="s">
+        <v>192</v>
+      </c>
+      <c r="I12" s="8" t="s">
+        <v>197</v>
+      </c>
+      <c r="J12" s="8" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="13" spans="1:10">
+      <c r="A13" s="8">
+        <v>12</v>
+      </c>
+      <c r="B13" s="11"/>
+      <c r="C13" s="9">
+        <v>12611</v>
+      </c>
+      <c r="D13" s="10" t="s">
+        <v>167</v>
+      </c>
+      <c r="E13" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="F13" s="10" t="s">
+        <v>184</v>
+      </c>
+      <c r="G13" s="8" t="s">
+        <v>191</v>
+      </c>
+      <c r="H13" s="8" t="s">
+        <v>192</v>
+      </c>
+      <c r="I13" s="8" t="s">
+        <v>198</v>
+      </c>
+      <c r="J13" s="8" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="14" spans="1:10">
+      <c r="A14" s="8">
+        <v>13</v>
+      </c>
+      <c r="B14" s="8"/>
+      <c r="C14" s="9">
+        <v>12612</v>
+      </c>
+      <c r="D14" s="10" t="s">
+        <v>167</v>
+      </c>
+      <c r="E14" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="F14" s="10" t="s">
+        <v>168</v>
+      </c>
+      <c r="G14" s="8" t="s">
+        <v>190</v>
+      </c>
+      <c r="H14" s="8" t="s">
+        <v>192</v>
+      </c>
+      <c r="I14" s="8" t="s">
+        <v>199</v>
+      </c>
+      <c r="J14" s="8" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="15" spans="1:10">
+      <c r="A15" s="8">
+        <v>14</v>
+      </c>
+      <c r="B15" s="8"/>
+      <c r="C15" s="9">
+        <v>12613</v>
+      </c>
+      <c r="D15" s="10" t="s">
+        <v>167</v>
+      </c>
+      <c r="E15" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="F15" s="10" t="s">
+        <v>169</v>
+      </c>
+      <c r="G15" s="8" t="s">
+        <v>189</v>
+      </c>
+      <c r="H15" s="8" t="s">
+        <v>192</v>
+      </c>
+      <c r="I15" s="8" t="s">
+        <v>200</v>
+      </c>
+      <c r="J15" s="8" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="19" spans="6:6">
+      <c r="F19" s="21"/>
+    </row>
+    <row r="20" spans="6:6">
+      <c r="F20" s="21"/>
+    </row>
+    <row r="21" spans="6:6">
+      <c r="F21" s="21"/>
+    </row>
+    <row r="22" spans="6:6">
+      <c r="F22" s="21"/>
+    </row>
+    <row r="23" spans="6:6">
+      <c r="F23" s="21"/>
+    </row>
+    <row r="24" spans="6:6">
+      <c r="F24" s="21"/>
+    </row>
+    <row r="25" spans="6:6">
+      <c r="F25" s="21"/>
+    </row>
+    <row r="26" spans="6:6">
+      <c r="F26" s="21"/>
+    </row>
+    <row r="27" spans="6:6">
+      <c r="F27" s="21"/>
+    </row>
+    <row r="28" spans="6:6">
+      <c r="F28" s="21"/>
+    </row>
+    <row r="29" spans="6:6">
+      <c r="F29" s="21"/>
+    </row>
+    <row r="30" spans="6:6">
+      <c r="F30" s="21"/>
+    </row>
+    <row r="31" spans="6:6">
+      <c r="F31" s="21"/>
+    </row>
+    <row r="32" spans="6:6">
+      <c r="F32" s="21"/>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:G15"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B2" sqref="B2:C6"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="14.25"/>
+  <cols>
+    <col min="1" max="1" width="8.5" style="2" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="20.625" style="2" customWidth="1"/>
+    <col min="3" max="3" width="29.5" style="2" customWidth="1"/>
+    <col min="4" max="4" width="14.5" style="2" customWidth="1"/>
+    <col min="5" max="7" width="22" style="2" customWidth="1"/>
+    <col min="8" max="8" width="20.125" style="2" customWidth="1"/>
+    <col min="9" max="9" width="8.875" style="2"/>
+    <col min="10" max="10" width="70.625" style="2" customWidth="1"/>
+    <col min="11" max="16384" width="8.875" style="2"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:7" s="1" customFormat="1" ht="32.25" customHeight="1">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" ht="16.5">
+      <c r="A2" s="2">
+        <v>1</v>
+      </c>
+      <c r="B2" s="2">
+        <v>30</v>
+      </c>
+      <c r="C2" s="7" t="s">
+        <v>152</v>
+      </c>
+      <c r="D2" s="3"/>
+      <c r="E2" s="6"/>
+      <c r="F2" s="6"/>
+    </row>
+    <row r="3" spans="1:7" ht="16.5">
+      <c r="A3" s="2">
+        <v>2</v>
+      </c>
+      <c r="B3" s="2">
+        <v>60</v>
+      </c>
+      <c r="C3" s="7" t="s">
+        <v>153</v>
+      </c>
+      <c r="D3" s="3"/>
+      <c r="E3" s="6"/>
+      <c r="F3" s="6"/>
+    </row>
+    <row r="4" spans="1:7" ht="16.5">
+      <c r="A4" s="2">
+        <v>3</v>
+      </c>
+      <c r="B4" s="2">
+        <v>90</v>
+      </c>
+      <c r="C4" s="7" t="s">
+        <v>155</v>
+      </c>
+      <c r="D4" s="3"/>
+      <c r="E4" s="3"/>
+      <c r="F4" s="6"/>
+    </row>
+    <row r="5" spans="1:7" ht="16.5">
+      <c r="A5" s="2">
+        <v>4</v>
+      </c>
+      <c r="B5" s="2">
+        <v>120</v>
+      </c>
+      <c r="C5" s="7" t="s">
+        <v>156</v>
+      </c>
+      <c r="D5" s="3"/>
+      <c r="E5" s="3"/>
+      <c r="F5" s="3"/>
+    </row>
+    <row r="6" spans="1:7" ht="16.5">
+      <c r="A6" s="2">
+        <v>5</v>
+      </c>
+      <c r="B6" s="2">
+        <v>150</v>
+      </c>
+      <c r="C6" s="7" t="s">
+        <v>154</v>
+      </c>
+      <c r="D6" s="3"/>
+      <c r="E6" s="3"/>
+      <c r="F6" s="3"/>
+    </row>
+    <row r="7" spans="1:7" ht="16.5">
+      <c r="C7" s="3"/>
+      <c r="D7" s="3"/>
+      <c r="E7" s="3"/>
+      <c r="F7" s="3"/>
+      <c r="G7" s="3"/>
+    </row>
+    <row r="8" spans="1:7" ht="16.5">
+      <c r="C8" s="3"/>
+      <c r="D8" s="3"/>
+      <c r="E8" s="3"/>
+      <c r="F8" s="3"/>
+      <c r="G8" s="3"/>
+    </row>
+    <row r="9" spans="1:7">
+      <c r="C9" s="4"/>
+      <c r="D9" s="4"/>
+      <c r="E9" s="4"/>
+      <c r="F9" s="4"/>
+      <c r="G9" s="4"/>
+    </row>
+    <row r="10" spans="1:7" ht="16.5">
+      <c r="C10" s="3"/>
+      <c r="D10" s="3"/>
+      <c r="E10" s="3"/>
+      <c r="F10" s="3"/>
+      <c r="G10" s="3"/>
+    </row>
+    <row r="11" spans="1:7" ht="16.5">
+      <c r="C11" s="3"/>
+      <c r="D11" s="3"/>
+      <c r="E11" s="3"/>
+      <c r="F11" s="3"/>
+      <c r="G11" s="3"/>
+    </row>
+    <row r="12" spans="1:7" ht="16.5">
+      <c r="C12" s="3"/>
+      <c r="D12" s="3"/>
+      <c r="E12" s="3"/>
+      <c r="F12" s="3"/>
+      <c r="G12" s="3"/>
+    </row>
+    <row r="13" spans="1:7">
+      <c r="C13" s="5"/>
+      <c r="D13" s="5"/>
+      <c r="E13" s="5"/>
+      <c r="F13" s="5"/>
+      <c r="G13" s="5"/>
+    </row>
+    <row r="14" spans="1:7">
+      <c r="C14" s="5"/>
+      <c r="D14" s="5"/>
+      <c r="E14" s="5"/>
+      <c r="F14" s="5"/>
+      <c r="G14" s="5"/>
+    </row>
+    <row r="15" spans="1:7">
+      <c r="C15" s="5"/>
+      <c r="D15" s="5"/>
+      <c r="E15" s="5"/>
+      <c r="F15" s="5"/>
+      <c r="G15" s="5"/>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/config_Release/active_daily_task_info_config.xlsx
+++ b/config_Release/active_daily_task_info_config.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="368" uniqueCount="201">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="368" uniqueCount="205">
   <si>
     <t>id|行号</t>
     <phoneticPr fontId="4" type="noConversion"/>
@@ -698,32 +698,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>龙王争霸累计赢金500万</t>
-  </si>
-  <si>
-    <t>龙王争霸累计赢金1000万</t>
-  </si>
-  <si>
-    <t>龙王争霸累计赢金1万</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>龙王争霸累计赢金5万</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>龙王争霸累计赢金100万</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>龙王争霸累计赢金10万</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>龙王争霸累计赢金50万</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>红包场累计赢金1万</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -775,10 +749,6 @@
     <t>"金币","活跃度"</t>
   </si>
   <si>
-    <t>"game_LWZBHall",</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>"x200","x5"</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -804,6 +774,49 @@
   </si>
   <si>
     <t>"x200000","x30"</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>水果消消乐</t>
+  </si>
+  <si>
+    <t>水果消消乐游戏50次</t>
+  </si>
+  <si>
+    <t>水果消消乐累计消除苹果200个</t>
+  </si>
+  <si>
+    <t>水果消消乐累计消除铃铛200个</t>
+  </si>
+  <si>
+    <t>水果消消乐累计消除西瓜200个</t>
+  </si>
+  <si>
+    <t>"x2000","x5"</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>"x5000","x5"</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>"x30000","x10"</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>"x20000","x20"</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>水果消消乐累计消除BAR100个</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>出现幸运时刻(单局至少投入3万)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>累计赢金100万(单局至少投入5千)</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -811,7 +824,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="11">
+  <fonts count="12">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -889,6 +902,14 @@
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <family val="3"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="6">
     <fill>
@@ -917,7 +938,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.59999389629810485"/>
+        <fgColor theme="8" tint="0.59999389629810485"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -946,14 +967,15 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="3">
+  <cellStyleXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="22">
+  <cellXfs count="24">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1013,13 +1035,20 @@
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="5" borderId="0" xfId="3" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="5" borderId="0" xfId="3" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="0" xfId="3" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
-  <cellStyles count="3">
+  <cellStyles count="4">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
     <cellStyle name="常规 2" xfId="2"/>
+    <cellStyle name="常规 3" xfId="3"/>
     <cellStyle name="常规 4" xfId="1"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -2503,10 +2532,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:J32"/>
+  <dimension ref="A1:J15"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I9" sqref="I9:I15"/>
+      <selection activeCell="F8" sqref="F8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25"/>
@@ -2515,7 +2544,7 @@
     <col min="3" max="3" width="8.5" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="11" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="12.625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="28.25" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="50.25" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="28.125" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="29.125" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="14.625" bestFit="1" customWidth="1"/>
@@ -2562,26 +2591,26 @@
       <c r="C2" s="9">
         <v>12600</v>
       </c>
-      <c r="D2" s="10" t="s">
-        <v>167</v>
+      <c r="D2" s="21" t="s">
+        <v>193</v>
       </c>
       <c r="E2" s="8" t="s">
         <v>12</v>
       </c>
-      <c r="F2" s="10" t="s">
-        <v>175</v>
+      <c r="F2" s="22" t="s">
+        <v>194</v>
       </c>
       <c r="G2" s="8" t="s">
+        <v>178</v>
+      </c>
+      <c r="H2" s="8" t="s">
         <v>185</v>
       </c>
-      <c r="H2" s="8" t="s">
-        <v>192</v>
-      </c>
       <c r="I2" s="8" t="s">
-        <v>194</v>
+        <v>198</v>
       </c>
       <c r="J2" s="8" t="s">
-        <v>193</v>
+        <v>71</v>
       </c>
     </row>
     <row r="3" spans="1:10">
@@ -2592,26 +2621,26 @@
       <c r="C3" s="9">
         <v>12601</v>
       </c>
-      <c r="D3" s="10" t="s">
-        <v>167</v>
+      <c r="D3" s="21" t="s">
+        <v>193</v>
       </c>
       <c r="E3" s="8" t="s">
         <v>12</v>
       </c>
-      <c r="F3" s="10" t="s">
-        <v>176</v>
+      <c r="F3" s="22" t="s">
+        <v>195</v>
       </c>
       <c r="G3" s="8" t="s">
-        <v>186</v>
+        <v>179</v>
       </c>
       <c r="H3" s="8" t="s">
-        <v>192</v>
+        <v>185</v>
       </c>
       <c r="I3" s="8" t="s">
-        <v>195</v>
+        <v>199</v>
       </c>
       <c r="J3" s="8" t="s">
-        <v>193</v>
+        <v>71</v>
       </c>
     </row>
     <row r="4" spans="1:10">
@@ -2622,26 +2651,26 @@
       <c r="C4" s="9">
         <v>12602</v>
       </c>
-      <c r="D4" s="10" t="s">
-        <v>167</v>
+      <c r="D4" s="21" t="s">
+        <v>193</v>
       </c>
       <c r="E4" s="8" t="s">
         <v>12</v>
       </c>
-      <c r="F4" s="10" t="s">
-        <v>178</v>
+      <c r="F4" s="22" t="s">
+        <v>196</v>
       </c>
       <c r="G4" s="8" t="s">
-        <v>187</v>
+        <v>180</v>
       </c>
       <c r="H4" s="8" t="s">
-        <v>192</v>
+        <v>185</v>
       </c>
       <c r="I4" s="8" t="s">
-        <v>196</v>
+        <v>189</v>
       </c>
       <c r="J4" s="8" t="s">
-        <v>193</v>
+        <v>71</v>
       </c>
     </row>
     <row r="5" spans="1:10">
@@ -2652,26 +2681,26 @@
       <c r="C5" s="9">
         <v>12603</v>
       </c>
-      <c r="D5" s="10" t="s">
-        <v>167</v>
+      <c r="D5" s="21" t="s">
+        <v>193</v>
       </c>
       <c r="E5" s="8" t="s">
         <v>12</v>
       </c>
-      <c r="F5" s="10" t="s">
-        <v>179</v>
+      <c r="F5" s="22" t="s">
+        <v>197</v>
       </c>
       <c r="G5" s="8" t="s">
-        <v>188</v>
+        <v>181</v>
       </c>
       <c r="H5" s="8" t="s">
-        <v>192</v>
+        <v>185</v>
       </c>
       <c r="I5" s="8" t="s">
-        <v>197</v>
+        <v>190</v>
       </c>
       <c r="J5" s="8" t="s">
-        <v>193</v>
+        <v>71</v>
       </c>
     </row>
     <row r="6" spans="1:10">
@@ -2682,26 +2711,26 @@
       <c r="C6" s="9">
         <v>12604</v>
       </c>
-      <c r="D6" s="10" t="s">
-        <v>167</v>
+      <c r="D6" s="21" t="s">
+        <v>193</v>
       </c>
       <c r="E6" s="8" t="s">
         <v>12</v>
       </c>
-      <c r="F6" s="10" t="s">
-        <v>177</v>
+      <c r="F6" s="23" t="s">
+        <v>202</v>
       </c>
       <c r="G6" s="8" t="s">
-        <v>191</v>
+        <v>184</v>
       </c>
       <c r="H6" s="8" t="s">
-        <v>192</v>
+        <v>185</v>
       </c>
       <c r="I6" s="8" t="s">
-        <v>198</v>
+        <v>200</v>
       </c>
       <c r="J6" s="8" t="s">
-        <v>193</v>
+        <v>71</v>
       </c>
     </row>
     <row r="7" spans="1:10">
@@ -2712,26 +2741,26 @@
       <c r="C7" s="9">
         <v>12605</v>
       </c>
-      <c r="D7" s="10" t="s">
-        <v>167</v>
+      <c r="D7" s="21" t="s">
+        <v>193</v>
       </c>
       <c r="E7" s="8" t="s">
         <v>12</v>
       </c>
-      <c r="F7" s="10" t="s">
-        <v>173</v>
+      <c r="F7" s="22" t="s">
+        <v>204</v>
       </c>
       <c r="G7" s="8" t="s">
-        <v>190</v>
+        <v>183</v>
       </c>
       <c r="H7" s="8" t="s">
-        <v>192</v>
+        <v>185</v>
       </c>
       <c r="I7" s="8" t="s">
-        <v>199</v>
+        <v>201</v>
       </c>
       <c r="J7" s="8" t="s">
-        <v>193</v>
+        <v>71</v>
       </c>
     </row>
     <row r="8" spans="1:10">
@@ -2742,26 +2771,26 @@
       <c r="C8" s="9">
         <v>12606</v>
       </c>
-      <c r="D8" s="10" t="s">
-        <v>167</v>
+      <c r="D8" s="21" t="s">
+        <v>193</v>
       </c>
       <c r="E8" s="8" t="s">
         <v>12</v>
       </c>
-      <c r="F8" s="10" t="s">
-        <v>174</v>
+      <c r="F8" s="22" t="s">
+        <v>203</v>
       </c>
       <c r="G8" s="8" t="s">
-        <v>189</v>
+        <v>182</v>
       </c>
       <c r="H8" s="8" t="s">
-        <v>192</v>
+        <v>185</v>
       </c>
       <c r="I8" s="8" t="s">
-        <v>200</v>
+        <v>84</v>
       </c>
       <c r="J8" s="8" t="s">
-        <v>193</v>
+        <v>71</v>
       </c>
     </row>
     <row r="9" spans="1:10">
@@ -2779,16 +2808,16 @@
         <v>12</v>
       </c>
       <c r="F9" s="10" t="s">
-        <v>180</v>
+        <v>173</v>
       </c>
       <c r="G9" s="8" t="s">
+        <v>178</v>
+      </c>
+      <c r="H9" s="8" t="s">
         <v>185</v>
       </c>
-      <c r="H9" s="8" t="s">
-        <v>192</v>
-      </c>
       <c r="I9" s="8" t="s">
-        <v>194</v>
+        <v>186</v>
       </c>
       <c r="J9" s="8" t="s">
         <v>71</v>
@@ -2809,16 +2838,16 @@
         <v>12</v>
       </c>
       <c r="F10" s="10" t="s">
-        <v>181</v>
+        <v>174</v>
       </c>
       <c r="G10" s="8" t="s">
-        <v>186</v>
+        <v>179</v>
       </c>
       <c r="H10" s="8" t="s">
-        <v>192</v>
+        <v>185</v>
       </c>
       <c r="I10" s="8" t="s">
-        <v>195</v>
+        <v>187</v>
       </c>
       <c r="J10" s="8" t="s">
         <v>71</v>
@@ -2839,16 +2868,16 @@
         <v>12</v>
       </c>
       <c r="F11" s="10" t="s">
-        <v>182</v>
+        <v>175</v>
       </c>
       <c r="G11" s="8" t="s">
-        <v>187</v>
+        <v>180</v>
       </c>
       <c r="H11" s="8" t="s">
-        <v>192</v>
+        <v>185</v>
       </c>
       <c r="I11" s="8" t="s">
-        <v>196</v>
+        <v>188</v>
       </c>
       <c r="J11" s="8" t="s">
         <v>71</v>
@@ -2869,16 +2898,16 @@
         <v>12</v>
       </c>
       <c r="F12" s="10" t="s">
-        <v>183</v>
+        <v>176</v>
       </c>
       <c r="G12" s="8" t="s">
-        <v>188</v>
+        <v>181</v>
       </c>
       <c r="H12" s="8" t="s">
-        <v>192</v>
+        <v>185</v>
       </c>
       <c r="I12" s="8" t="s">
-        <v>197</v>
+        <v>189</v>
       </c>
       <c r="J12" s="8" t="s">
         <v>71</v>
@@ -2899,16 +2928,16 @@
         <v>12</v>
       </c>
       <c r="F13" s="10" t="s">
+        <v>177</v>
+      </c>
+      <c r="G13" s="8" t="s">
         <v>184</v>
       </c>
-      <c r="G13" s="8" t="s">
-        <v>191</v>
-      </c>
       <c r="H13" s="8" t="s">
-        <v>192</v>
+        <v>185</v>
       </c>
       <c r="I13" s="8" t="s">
-        <v>198</v>
+        <v>190</v>
       </c>
       <c r="J13" s="8" t="s">
         <v>71</v>
@@ -2932,13 +2961,13 @@
         <v>168</v>
       </c>
       <c r="G14" s="8" t="s">
-        <v>190</v>
+        <v>183</v>
       </c>
       <c r="H14" s="8" t="s">
-        <v>192</v>
+        <v>185</v>
       </c>
       <c r="I14" s="8" t="s">
-        <v>199</v>
+        <v>191</v>
       </c>
       <c r="J14" s="8" t="s">
         <v>71</v>
@@ -2962,63 +2991,22 @@
         <v>169</v>
       </c>
       <c r="G15" s="8" t="s">
-        <v>189</v>
+        <v>182</v>
       </c>
       <c r="H15" s="8" t="s">
+        <v>185</v>
+      </c>
+      <c r="I15" s="8" t="s">
         <v>192</v>
-      </c>
-      <c r="I15" s="8" t="s">
-        <v>200</v>
       </c>
       <c r="J15" s="8" t="s">
         <v>71</v>
       </c>
-    </row>
-    <row r="19" spans="6:6">
-      <c r="F19" s="21"/>
-    </row>
-    <row r="20" spans="6:6">
-      <c r="F20" s="21"/>
-    </row>
-    <row r="21" spans="6:6">
-      <c r="F21" s="21"/>
-    </row>
-    <row r="22" spans="6:6">
-      <c r="F22" s="21"/>
-    </row>
-    <row r="23" spans="6:6">
-      <c r="F23" s="21"/>
-    </row>
-    <row r="24" spans="6:6">
-      <c r="F24" s="21"/>
-    </row>
-    <row r="25" spans="6:6">
-      <c r="F25" s="21"/>
-    </row>
-    <row r="26" spans="6:6">
-      <c r="F26" s="21"/>
-    </row>
-    <row r="27" spans="6:6">
-      <c r="F27" s="21"/>
-    </row>
-    <row r="28" spans="6:6">
-      <c r="F28" s="21"/>
-    </row>
-    <row r="29" spans="6:6">
-      <c r="F29" s="21"/>
-    </row>
-    <row r="30" spans="6:6">
-      <c r="F30" s="21"/>
-    </row>
-    <row r="31" spans="6:6">
-      <c r="F31" s="21"/>
-    </row>
-    <row r="32" spans="6:6">
-      <c r="F32" s="21"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
 </worksheet>
 </file>
 

--- a/config_Release/active_daily_task_info_config.xlsx
+++ b/config_Release/active_daily_task_info_config.xlsx
@@ -5,11 +5,11 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\HLBY\HuanLe_doc\config_debug\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\HLBY\HuanLe_doc\config_Release\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="30720" windowHeight="13605" activeTab="3"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="30720" windowHeight="13605"/>
   </bookViews>
   <sheets>
     <sheet name="config|索引表" sheetId="7" r:id="rId1"/>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="368" uniqueCount="205">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="360" uniqueCount="200">
   <si>
     <t>id|行号</t>
     <phoneticPr fontId="4" type="noConversion"/>
@@ -202,10 +202,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>观看广告</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>累计赢金</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -300,10 +296,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>观看两次广告</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>3D捕鱼中击杀100倍以上鱼8条</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -317,10 +309,6 @@
   </si>
   <si>
     <t>rw_icon_boss</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>rw_icon_ljyj</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -605,10 +593,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>actp_own_task_p_task_fish_daily_2_no_cps</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>actp_own_task_p_task_fish_daily_1_2</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -670,10 +654,6 @@
   </si>
   <si>
     <t>active_task_item_cjj</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>actp_own_task_p_task_fish_daily_1</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -1329,8 +1309,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E3"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B3" sqref="B3"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E4" sqref="E4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25"/>
@@ -1343,19 +1323,19 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1" s="20" t="s">
+        <v>154</v>
+      </c>
+      <c r="B1" s="20" t="s">
+        <v>155</v>
+      </c>
+      <c r="C1" s="20" t="s">
+        <v>157</v>
+      </c>
+      <c r="D1" s="20" t="s">
         <v>158</v>
       </c>
-      <c r="B1" s="20" t="s">
+      <c r="E1" s="20" t="s">
         <v>159</v>
-      </c>
-      <c r="C1" s="20" t="s">
-        <v>161</v>
-      </c>
-      <c r="D1" s="20" t="s">
-        <v>162</v>
-      </c>
-      <c r="E1" s="20" t="s">
-        <v>163</v>
       </c>
     </row>
     <row r="2" spans="1:5">
@@ -1363,13 +1343,13 @@
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>171</v>
+        <v>166</v>
       </c>
       <c r="C2" t="s">
-        <v>170</v>
+        <v>165</v>
       </c>
       <c r="D2" t="s">
-        <v>160</v>
+        <v>156</v>
       </c>
       <c r="E2">
         <v>13000</v>
@@ -1380,13 +1360,13 @@
         <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>172</v>
+        <v>167</v>
       </c>
       <c r="C3" t="s">
-        <v>165</v>
+        <v>161</v>
       </c>
       <c r="D3" t="s">
-        <v>164</v>
+        <v>160</v>
       </c>
       <c r="E3">
         <v>13001</v>
@@ -1400,10 +1380,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:O29"/>
+  <dimension ref="A1:O28"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B3" sqref="A1:J29"/>
+      <selection activeCell="A2" sqref="A2:A28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25"/>
@@ -1425,7 +1405,7 @@
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
       <c r="C1" s="1" t="s">
         <v>3</v>
@@ -1466,25 +1446,25 @@
         <v>12512</v>
       </c>
       <c r="D2" s="10" t="s">
+        <v>105</v>
+      </c>
+      <c r="E2" s="8" t="s">
+        <v>106</v>
+      </c>
+      <c r="F2" s="10" t="s">
+        <v>107</v>
+      </c>
+      <c r="G2" s="8" t="s">
         <v>108</v>
       </c>
-      <c r="E2" s="8" t="s">
+      <c r="H2" s="8" t="s">
         <v>109</v>
       </c>
-      <c r="F2" s="10" t="s">
+      <c r="I2" s="8" t="s">
         <v>110</v>
       </c>
-      <c r="G2" s="8" t="s">
+      <c r="J2" s="8" t="s">
         <v>111</v>
-      </c>
-      <c r="H2" s="8" t="s">
-        <v>112</v>
-      </c>
-      <c r="I2" s="8" t="s">
-        <v>113</v>
-      </c>
-      <c r="J2" s="8" t="s">
-        <v>114</v>
       </c>
     </row>
     <row r="3" spans="1:15">
@@ -1492,7 +1472,7 @@
         <v>2</v>
       </c>
       <c r="B3" s="8" t="s">
-        <v>166</v>
+        <v>130</v>
       </c>
       <c r="C3" s="9">
         <v>12520</v>
@@ -1524,7 +1504,7 @@
         <v>3</v>
       </c>
       <c r="B4" s="8" t="s">
-        <v>133</v>
+        <v>130</v>
       </c>
       <c r="C4" s="9">
         <v>12521</v>
@@ -1542,7 +1522,7 @@
         <v>42</v>
       </c>
       <c r="H4" s="8" t="s">
-        <v>99</v>
+        <v>96</v>
       </c>
       <c r="I4" s="8" t="s">
         <v>41</v>
@@ -1556,7 +1536,7 @@
         <v>4</v>
       </c>
       <c r="B5" s="8" t="s">
-        <v>150</v>
+        <v>146</v>
       </c>
       <c r="C5" s="9">
         <v>12522</v>
@@ -1588,7 +1568,7 @@
         <v>5</v>
       </c>
       <c r="B6" s="11" t="s">
-        <v>134</v>
+        <v>131</v>
       </c>
       <c r="C6" s="9">
         <v>12523</v>
@@ -1609,7 +1589,7 @@
         <v>27</v>
       </c>
       <c r="I6" s="8" t="s">
-        <v>84</v>
+        <v>81</v>
       </c>
       <c r="J6" s="8" t="s">
         <v>13</v>
@@ -1620,7 +1600,7 @@
         <v>6</v>
       </c>
       <c r="B7" s="8" t="s">
-        <v>148</v>
+        <v>145</v>
       </c>
       <c r="C7" s="9">
         <v>12516</v>
@@ -1652,7 +1632,7 @@
         <v>7</v>
       </c>
       <c r="B8" s="8" t="s">
-        <v>157</v>
+        <v>153</v>
       </c>
       <c r="C8" s="9">
         <v>12519</v>
@@ -1673,7 +1653,7 @@
         <v>27</v>
       </c>
       <c r="I8" s="8" t="s">
-        <v>85</v>
+        <v>82</v>
       </c>
       <c r="J8" s="8" t="s">
         <v>33</v>
@@ -1684,62 +1664,62 @@
         <v>8</v>
       </c>
       <c r="B9" s="15" t="s">
-        <v>149</v>
+        <v>132</v>
       </c>
       <c r="C9" s="16">
-        <v>12524</v>
+        <v>12525</v>
       </c>
       <c r="D9" s="16" t="s">
         <v>43</v>
       </c>
-      <c r="E9" s="15" t="s">
-        <v>78</v>
+      <c r="E9" s="19" t="s">
+        <v>75</v>
       </c>
       <c r="F9" s="16" t="s">
-        <v>69</v>
+        <v>44</v>
       </c>
       <c r="G9" s="15" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="H9" s="15" t="s">
         <v>27</v>
       </c>
       <c r="I9" s="15" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="J9" s="15" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="10" spans="1:15" s="15" customFormat="1">
+    <row r="10" spans="1:15" s="12" customFormat="1">
       <c r="A10" s="8">
         <v>9</v>
       </c>
-      <c r="B10" s="15" t="s">
-        <v>135</v>
-      </c>
-      <c r="C10" s="16">
-        <v>12525</v>
-      </c>
-      <c r="D10" s="16" t="s">
-        <v>44</v>
-      </c>
-      <c r="E10" s="19" t="s">
-        <v>77</v>
-      </c>
-      <c r="F10" s="16" t="s">
-        <v>45</v>
-      </c>
-      <c r="G10" s="15" t="s">
-        <v>26</v>
-      </c>
-      <c r="H10" s="15" t="s">
+      <c r="B10" s="12" t="s">
+        <v>133</v>
+      </c>
+      <c r="C10" s="13">
+        <v>12508</v>
+      </c>
+      <c r="D10" s="13" t="s">
+        <v>60</v>
+      </c>
+      <c r="E10" s="12" t="s">
+        <v>17</v>
+      </c>
+      <c r="F10" s="13" t="s">
+        <v>61</v>
+      </c>
+      <c r="G10" s="12" t="s">
+        <v>24</v>
+      </c>
+      <c r="H10" s="12" t="s">
         <v>27</v>
       </c>
-      <c r="I10" s="15" t="s">
-        <v>35</v>
-      </c>
-      <c r="J10" s="15" t="s">
+      <c r="I10" s="12" t="s">
+        <v>94</v>
+      </c>
+      <c r="J10" s="12" t="s">
         <v>13</v>
       </c>
     </row>
@@ -1748,28 +1728,28 @@
         <v>10</v>
       </c>
       <c r="B11" s="12" t="s">
-        <v>136</v>
+        <v>133</v>
       </c>
       <c r="C11" s="13">
-        <v>12508</v>
+        <v>12529</v>
       </c>
       <c r="D11" s="13" t="s">
-        <v>61</v>
+        <v>64</v>
       </c>
       <c r="E11" s="12" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="F11" s="13" t="s">
-        <v>62</v>
+        <v>66</v>
       </c>
       <c r="G11" s="12" t="s">
-        <v>24</v>
+        <v>93</v>
       </c>
       <c r="H11" s="12" t="s">
-        <v>27</v>
+        <v>97</v>
       </c>
       <c r="I11" s="12" t="s">
-        <v>97</v>
+        <v>41</v>
       </c>
       <c r="J11" s="12" t="s">
         <v>13</v>
@@ -1780,127 +1760,127 @@
         <v>11</v>
       </c>
       <c r="B12" s="12" t="s">
-        <v>136</v>
+        <v>133</v>
       </c>
       <c r="C12" s="13">
-        <v>12529</v>
+        <v>12528</v>
       </c>
       <c r="D12" s="13" t="s">
-        <v>65</v>
-      </c>
-      <c r="E12" s="12" t="s">
-        <v>16</v>
+        <v>43</v>
+      </c>
+      <c r="E12" s="14" t="s">
+        <v>74</v>
       </c>
       <c r="F12" s="13" t="s">
-        <v>67</v>
+        <v>59</v>
       </c>
       <c r="G12" s="12" t="s">
-        <v>96</v>
+        <v>26</v>
       </c>
       <c r="H12" s="12" t="s">
-        <v>100</v>
+        <v>27</v>
       </c>
       <c r="I12" s="12" t="s">
-        <v>41</v>
+        <v>95</v>
       </c>
       <c r="J12" s="12" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="13" spans="1:15" s="12" customFormat="1">
+    <row r="13" spans="1:15" s="17" customFormat="1">
       <c r="A13" s="8">
         <v>12</v>
       </c>
-      <c r="B13" s="12" t="s">
-        <v>136</v>
-      </c>
-      <c r="C13" s="13">
-        <v>12528</v>
-      </c>
-      <c r="D13" s="13" t="s">
-        <v>44</v>
-      </c>
-      <c r="E13" s="14" t="s">
-        <v>76</v>
-      </c>
-      <c r="F13" s="13" t="s">
-        <v>60</v>
-      </c>
-      <c r="G13" s="12" t="s">
-        <v>26</v>
-      </c>
-      <c r="H13" s="12" t="s">
+      <c r="B13" s="17" t="s">
+        <v>133</v>
+      </c>
+      <c r="C13" s="18">
+        <v>12526</v>
+      </c>
+      <c r="D13" s="18" t="s">
+        <v>29</v>
+      </c>
+      <c r="E13" s="17" t="s">
+        <v>31</v>
+      </c>
+      <c r="F13" s="18" t="s">
+        <v>45</v>
+      </c>
+      <c r="G13" s="17" t="s">
+        <v>25</v>
+      </c>
+      <c r="H13" s="17" t="s">
         <v>27</v>
       </c>
-      <c r="I13" s="12" t="s">
-        <v>98</v>
-      </c>
-      <c r="J13" s="12" t="s">
+      <c r="I13" s="17" t="s">
+        <v>67</v>
+      </c>
+      <c r="J13" s="17" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="14" spans="1:15" s="17" customFormat="1">
+    <row r="14" spans="1:15" s="12" customFormat="1">
       <c r="A14" s="8">
         <v>13</v>
       </c>
-      <c r="B14" s="17" t="s">
-        <v>136</v>
-      </c>
-      <c r="C14" s="18">
-        <v>12526</v>
-      </c>
-      <c r="D14" s="18" t="s">
-        <v>29</v>
-      </c>
-      <c r="E14" s="17" t="s">
-        <v>31</v>
-      </c>
-      <c r="F14" s="18" t="s">
+      <c r="B14" s="12" t="s">
+        <v>134</v>
+      </c>
+      <c r="C14" s="13">
+        <v>12527</v>
+      </c>
+      <c r="D14" s="13" t="s">
+        <v>50</v>
+      </c>
+      <c r="E14" s="12" t="s">
+        <v>12</v>
+      </c>
+      <c r="F14" s="13" t="s">
         <v>46</v>
       </c>
-      <c r="G14" s="17" t="s">
-        <v>25</v>
-      </c>
-      <c r="H14" s="17" t="s">
+      <c r="G14" s="12" t="s">
+        <v>26</v>
+      </c>
+      <c r="H14" s="12" t="s">
         <v>27</v>
       </c>
-      <c r="I14" s="17" t="s">
-        <v>68</v>
-      </c>
-      <c r="J14" s="17" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="15" spans="1:15" s="12" customFormat="1">
+      <c r="I14" s="12" t="s">
+        <v>83</v>
+      </c>
+      <c r="J14" s="12" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="15" spans="1:15" s="15" customFormat="1">
       <c r="A15" s="8">
         <v>14</v>
       </c>
-      <c r="B15" s="12" t="s">
-        <v>137</v>
-      </c>
-      <c r="C15" s="13">
-        <v>12527</v>
-      </c>
-      <c r="D15" s="13" t="s">
+      <c r="B15" s="15" t="s">
+        <v>135</v>
+      </c>
+      <c r="C15" s="16">
+        <v>12517</v>
+      </c>
+      <c r="D15" s="16" t="s">
         <v>51</v>
       </c>
-      <c r="E15" s="12" t="s">
-        <v>12</v>
-      </c>
-      <c r="F15" s="13" t="s">
-        <v>47</v>
-      </c>
-      <c r="G15" s="12" t="s">
-        <v>26</v>
-      </c>
-      <c r="H15" s="12" t="s">
+      <c r="E15" s="15" t="s">
+        <v>53</v>
+      </c>
+      <c r="F15" s="16" t="s">
+        <v>52</v>
+      </c>
+      <c r="G15" s="15" t="s">
+        <v>24</v>
+      </c>
+      <c r="H15" s="15" t="s">
         <v>27</v>
       </c>
-      <c r="I15" s="12" t="s">
-        <v>86</v>
-      </c>
-      <c r="J15" s="12" t="s">
-        <v>33</v>
+      <c r="I15" s="15" t="s">
+        <v>88</v>
+      </c>
+      <c r="J15" s="15" t="s">
+        <v>69</v>
       </c>
     </row>
     <row r="16" spans="1:15" s="15" customFormat="1">
@@ -1908,19 +1888,19 @@
         <v>15</v>
       </c>
       <c r="B16" s="15" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="C16" s="16">
-        <v>12517</v>
+        <v>12532</v>
       </c>
       <c r="D16" s="16" t="s">
-        <v>52</v>
+        <v>63</v>
       </c>
       <c r="E16" s="15" t="s">
-        <v>54</v>
+        <v>58</v>
       </c>
       <c r="F16" s="16" t="s">
-        <v>53</v>
+        <v>65</v>
       </c>
       <c r="G16" s="15" t="s">
         <v>24</v>
@@ -1929,10 +1909,10 @@
         <v>27</v>
       </c>
       <c r="I16" s="15" t="s">
-        <v>91</v>
+        <v>80</v>
       </c>
       <c r="J16" s="15" t="s">
-        <v>71</v>
+        <v>13</v>
       </c>
     </row>
     <row r="17" spans="1:10" s="15" customFormat="1">
@@ -1940,28 +1920,28 @@
         <v>16</v>
       </c>
       <c r="B17" s="15" t="s">
-        <v>139</v>
+        <v>136</v>
       </c>
       <c r="C17" s="16">
-        <v>12532</v>
+        <v>12531</v>
       </c>
       <c r="D17" s="16" t="s">
-        <v>64</v>
-      </c>
-      <c r="E17" s="15" t="s">
-        <v>59</v>
+        <v>43</v>
+      </c>
+      <c r="E17" s="19" t="s">
+        <v>73</v>
       </c>
       <c r="F17" s="16" t="s">
-        <v>66</v>
+        <v>92</v>
       </c>
       <c r="G17" s="15" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="H17" s="15" t="s">
         <v>27</v>
       </c>
       <c r="I17" s="15" t="s">
-        <v>83</v>
+        <v>89</v>
       </c>
       <c r="J17" s="15" t="s">
         <v>13</v>
@@ -1972,28 +1952,28 @@
         <v>17</v>
       </c>
       <c r="B18" s="15" t="s">
-        <v>139</v>
+        <v>136</v>
       </c>
       <c r="C18" s="16">
-        <v>12531</v>
+        <v>12511</v>
       </c>
       <c r="D18" s="16" t="s">
-        <v>44</v>
-      </c>
-      <c r="E18" s="19" t="s">
-        <v>75</v>
+        <v>55</v>
+      </c>
+      <c r="E18" s="15" t="s">
+        <v>70</v>
       </c>
       <c r="F18" s="16" t="s">
-        <v>95</v>
+        <v>57</v>
       </c>
       <c r="G18" s="15" t="s">
-        <v>26</v>
+        <v>147</v>
       </c>
       <c r="H18" s="15" t="s">
-        <v>27</v>
+        <v>98</v>
       </c>
       <c r="I18" s="15" t="s">
-        <v>92</v>
+        <v>79</v>
       </c>
       <c r="J18" s="15" t="s">
         <v>13</v>
@@ -2004,63 +1984,63 @@
         <v>18</v>
       </c>
       <c r="B19" s="15" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="C19" s="16">
-        <v>12511</v>
+        <v>12530</v>
       </c>
       <c r="D19" s="16" t="s">
-        <v>56</v>
+        <v>50</v>
       </c>
       <c r="E19" s="15" t="s">
-        <v>72</v>
+        <v>12</v>
       </c>
       <c r="F19" s="16" t="s">
-        <v>58</v>
+        <v>47</v>
       </c>
       <c r="G19" s="15" t="s">
-        <v>151</v>
+        <v>26</v>
       </c>
       <c r="H19" s="15" t="s">
-        <v>101</v>
+        <v>27</v>
       </c>
       <c r="I19" s="15" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="J19" s="15" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="20" spans="1:10" s="15" customFormat="1">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="20" spans="1:10" s="12" customFormat="1">
       <c r="A20" s="8">
         <v>19</v>
       </c>
-      <c r="B20" s="15" t="s">
-        <v>140</v>
-      </c>
-      <c r="C20" s="16">
-        <v>12530</v>
-      </c>
-      <c r="D20" s="16" t="s">
-        <v>51</v>
-      </c>
-      <c r="E20" s="15" t="s">
-        <v>12</v>
-      </c>
-      <c r="F20" s="16" t="s">
-        <v>48</v>
-      </c>
-      <c r="G20" s="15" t="s">
-        <v>26</v>
-      </c>
-      <c r="H20" s="15" t="s">
+      <c r="B20" s="12" t="s">
+        <v>138</v>
+      </c>
+      <c r="C20" s="13">
+        <v>12536</v>
+      </c>
+      <c r="D20" s="13" t="s">
+        <v>62</v>
+      </c>
+      <c r="E20" s="12" t="s">
+        <v>16</v>
+      </c>
+      <c r="F20" s="13" t="s">
+        <v>68</v>
+      </c>
+      <c r="G20" s="17" t="s">
+        <v>24</v>
+      </c>
+      <c r="H20" s="17" t="s">
         <v>27</v>
       </c>
-      <c r="I20" s="15" t="s">
-        <v>87</v>
-      </c>
-      <c r="J20" s="15" t="s">
-        <v>33</v>
+      <c r="I20" s="17" t="s">
+        <v>77</v>
+      </c>
+      <c r="J20" s="12" t="s">
+        <v>13</v>
       </c>
     </row>
     <row r="21" spans="1:10" s="12" customFormat="1">
@@ -2068,28 +2048,28 @@
         <v>20</v>
       </c>
       <c r="B21" s="12" t="s">
-        <v>141</v>
+        <v>138</v>
       </c>
       <c r="C21" s="13">
-        <v>12536</v>
+        <v>12535</v>
       </c>
       <c r="D21" s="13" t="s">
-        <v>63</v>
-      </c>
-      <c r="E21" s="12" t="s">
-        <v>16</v>
+        <v>43</v>
+      </c>
+      <c r="E21" s="14" t="s">
+        <v>72</v>
       </c>
       <c r="F21" s="13" t="s">
-        <v>70</v>
-      </c>
-      <c r="G21" s="17" t="s">
-        <v>24</v>
-      </c>
-      <c r="H21" s="17" t="s">
+        <v>91</v>
+      </c>
+      <c r="G21" s="12" t="s">
+        <v>26</v>
+      </c>
+      <c r="H21" s="12" t="s">
         <v>27</v>
       </c>
-      <c r="I21" s="17" t="s">
-        <v>80</v>
+      <c r="I21" s="12" t="s">
+        <v>90</v>
       </c>
       <c r="J21" s="12" t="s">
         <v>13</v>
@@ -2100,28 +2080,28 @@
         <v>21</v>
       </c>
       <c r="B22" s="12" t="s">
-        <v>141</v>
+        <v>138</v>
       </c>
       <c r="C22" s="13">
-        <v>12535</v>
+        <v>12537</v>
       </c>
       <c r="D22" s="13" t="s">
-        <v>44</v>
-      </c>
-      <c r="E22" s="14" t="s">
-        <v>74</v>
+        <v>54</v>
+      </c>
+      <c r="E22" s="12" t="s">
+        <v>71</v>
       </c>
       <c r="F22" s="13" t="s">
-        <v>94</v>
+        <v>56</v>
       </c>
       <c r="G22" s="12" t="s">
-        <v>26</v>
+        <v>76</v>
       </c>
       <c r="H22" s="12" t="s">
-        <v>27</v>
+        <v>99</v>
       </c>
       <c r="I22" s="12" t="s">
-        <v>93</v>
+        <v>78</v>
       </c>
       <c r="J22" s="12" t="s">
         <v>13</v>
@@ -2132,222 +2112,190 @@
         <v>22</v>
       </c>
       <c r="B23" s="12" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="C23" s="13">
-        <v>12537</v>
+        <v>12534</v>
       </c>
       <c r="D23" s="13" t="s">
-        <v>55</v>
+        <v>49</v>
       </c>
       <c r="E23" s="12" t="s">
-        <v>73</v>
+        <v>12</v>
       </c>
       <c r="F23" s="13" t="s">
-        <v>57</v>
+        <v>48</v>
       </c>
       <c r="G23" s="12" t="s">
-        <v>79</v>
+        <v>26</v>
       </c>
       <c r="H23" s="12" t="s">
-        <v>102</v>
+        <v>27</v>
       </c>
       <c r="I23" s="12" t="s">
-        <v>81</v>
+        <v>85</v>
       </c>
       <c r="J23" s="12" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="24" spans="1:10" s="12" customFormat="1">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="24" spans="1:10">
       <c r="A24" s="8">
         <v>23</v>
       </c>
-      <c r="B24" s="12" t="s">
-        <v>142</v>
-      </c>
-      <c r="C24" s="13">
-        <v>12534</v>
-      </c>
-      <c r="D24" s="13" t="s">
-        <v>50</v>
-      </c>
-      <c r="E24" s="12" t="s">
-        <v>12</v>
-      </c>
-      <c r="F24" s="13" t="s">
-        <v>49</v>
-      </c>
-      <c r="G24" s="12" t="s">
-        <v>26</v>
-      </c>
-      <c r="H24" s="12" t="s">
-        <v>27</v>
-      </c>
-      <c r="I24" s="12" t="s">
-        <v>88</v>
-      </c>
-      <c r="J24" s="12" t="s">
-        <v>33</v>
+      <c r="B24" s="11" t="s">
+        <v>140</v>
+      </c>
+      <c r="C24" s="9">
+        <v>12538</v>
+      </c>
+      <c r="D24" s="10" t="s">
+        <v>22</v>
+      </c>
+      <c r="E24" s="8" t="s">
+        <v>15</v>
+      </c>
+      <c r="F24" s="10" t="s">
+        <v>39</v>
+      </c>
+      <c r="G24" s="8" t="s">
+        <v>102</v>
+      </c>
+      <c r="H24" s="8" t="s">
+        <v>103</v>
+      </c>
+      <c r="I24" s="8" t="s">
+        <v>104</v>
+      </c>
+      <c r="J24" s="8" t="s">
+        <v>13</v>
       </c>
     </row>
     <row r="25" spans="1:10">
       <c r="A25" s="8">
         <v>24</v>
       </c>
-      <c r="B25" s="11" t="s">
-        <v>143</v>
+      <c r="B25" s="8" t="s">
+        <v>141</v>
       </c>
       <c r="C25" s="9">
-        <v>12538</v>
+        <v>12539</v>
       </c>
       <c r="D25" s="10" t="s">
-        <v>22</v>
+        <v>112</v>
       </c>
       <c r="E25" s="8" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="F25" s="10" t="s">
-        <v>39</v>
+        <v>113</v>
       </c>
       <c r="G25" s="8" t="s">
-        <v>105</v>
+        <v>115</v>
       </c>
       <c r="H25" s="8" t="s">
-        <v>106</v>
+        <v>116</v>
       </c>
       <c r="I25" s="8" t="s">
-        <v>107</v>
+        <v>117</v>
       </c>
       <c r="J25" s="8" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="26" spans="1:10">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="26" spans="1:10" s="12" customFormat="1">
       <c r="A26" s="8">
         <v>25</v>
       </c>
-      <c r="B26" s="8" t="s">
-        <v>144</v>
-      </c>
-      <c r="C26" s="9">
-        <v>12539</v>
-      </c>
-      <c r="D26" s="10" t="s">
+      <c r="B26" s="12" t="s">
+        <v>142</v>
+      </c>
+      <c r="C26" s="13">
+        <v>12540</v>
+      </c>
+      <c r="D26" s="13" t="s">
+        <v>119</v>
+      </c>
+      <c r="E26" s="12" t="s">
+        <v>120</v>
+      </c>
+      <c r="F26" s="13" t="s">
+        <v>46</v>
+      </c>
+      <c r="G26" s="8" t="s">
         <v>115</v>
       </c>
-      <c r="E26" s="8" t="s">
-        <v>12</v>
-      </c>
-      <c r="F26" s="10" t="s">
-        <v>116</v>
-      </c>
-      <c r="G26" s="8" t="s">
-        <v>118</v>
-      </c>
       <c r="H26" s="8" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="I26" s="8" t="s">
-        <v>120</v>
-      </c>
-      <c r="J26" s="8" t="s">
-        <v>121</v>
-      </c>
-    </row>
-    <row r="27" spans="1:10" s="12" customFormat="1">
+        <v>122</v>
+      </c>
+      <c r="J26" s="12" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="27" spans="1:10" s="15" customFormat="1">
       <c r="A27" s="8">
         <v>26</v>
       </c>
-      <c r="B27" s="12" t="s">
-        <v>145</v>
-      </c>
-      <c r="C27" s="13">
-        <v>12540</v>
-      </c>
-      <c r="D27" s="13" t="s">
-        <v>122</v>
-      </c>
-      <c r="E27" s="12" t="s">
+      <c r="B27" s="15" t="s">
+        <v>143</v>
+      </c>
+      <c r="C27" s="16">
+        <v>12541</v>
+      </c>
+      <c r="D27" s="16" t="s">
         <v>123</v>
       </c>
-      <c r="F27" s="13" t="s">
-        <v>47</v>
+      <c r="E27" s="15" t="s">
+        <v>12</v>
+      </c>
+      <c r="F27" s="16" t="s">
+        <v>124</v>
       </c>
       <c r="G27" s="8" t="s">
-        <v>118</v>
+        <v>114</v>
       </c>
       <c r="H27" s="8" t="s">
-        <v>124</v>
+        <v>101</v>
       </c>
       <c r="I27" s="8" t="s">
         <v>125</v>
       </c>
-      <c r="J27" s="12" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="28" spans="1:10" s="15" customFormat="1">
+      <c r="J27" s="15" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="28" spans="1:10" s="12" customFormat="1">
       <c r="A28" s="8">
         <v>27</v>
       </c>
-      <c r="B28" s="15" t="s">
-        <v>146</v>
-      </c>
-      <c r="C28" s="16">
-        <v>12541</v>
-      </c>
-      <c r="D28" s="16" t="s">
-        <v>126</v>
-      </c>
-      <c r="E28" s="15" t="s">
+      <c r="B28" s="12" t="s">
+        <v>144</v>
+      </c>
+      <c r="C28" s="13">
+        <v>12542</v>
+      </c>
+      <c r="D28" s="13" t="s">
+        <v>119</v>
+      </c>
+      <c r="E28" s="12" t="s">
         <v>12</v>
       </c>
-      <c r="F28" s="16" t="s">
+      <c r="F28" s="13" t="s">
         <v>127</v>
       </c>
       <c r="G28" s="8" t="s">
-        <v>117</v>
+        <v>128</v>
       </c>
       <c r="H28" s="8" t="s">
-        <v>104</v>
+        <v>101</v>
       </c>
       <c r="I28" s="8" t="s">
-        <v>128</v>
-      </c>
-      <c r="J28" s="15" t="s">
         <v>129</v>
       </c>
-    </row>
-    <row r="29" spans="1:10" s="12" customFormat="1">
-      <c r="A29" s="8">
-        <v>28</v>
-      </c>
-      <c r="B29" s="12" t="s">
-        <v>147</v>
-      </c>
-      <c r="C29" s="13">
-        <v>12542</v>
-      </c>
-      <c r="D29" s="13" t="s">
-        <v>122</v>
-      </c>
-      <c r="E29" s="12" t="s">
-        <v>12</v>
-      </c>
-      <c r="F29" s="13" t="s">
-        <v>130</v>
-      </c>
-      <c r="G29" s="8" t="s">
-        <v>131</v>
-      </c>
-      <c r="H29" s="8" t="s">
-        <v>104</v>
-      </c>
-      <c r="I29" s="8" t="s">
-        <v>132</v>
-      </c>
-      <c r="J29" s="12" t="s">
+      <c r="J28" s="12" t="s">
         <v>33</v>
       </c>
     </row>
@@ -2440,7 +2388,7 @@
         <v>120</v>
       </c>
       <c r="C5" s="7" t="s">
-        <v>89</v>
+        <v>86</v>
       </c>
       <c r="D5" s="3"/>
       <c r="E5" s="3"/>
@@ -2454,7 +2402,7 @@
         <v>150</v>
       </c>
       <c r="C6" s="7" t="s">
-        <v>90</v>
+        <v>87</v>
       </c>
       <c r="D6" s="3"/>
       <c r="E6" s="3"/>
@@ -2534,8 +2482,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J15"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F8" sqref="F8"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D10" sqref="D10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25"/>
@@ -2556,7 +2504,7 @@
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
       <c r="C1" s="1" t="s">
         <v>3</v>
@@ -2592,25 +2540,25 @@
         <v>12600</v>
       </c>
       <c r="D2" s="21" t="s">
-        <v>193</v>
+        <v>188</v>
       </c>
       <c r="E2" s="8" t="s">
         <v>12</v>
       </c>
       <c r="F2" s="22" t="s">
-        <v>194</v>
+        <v>189</v>
       </c>
       <c r="G2" s="8" t="s">
-        <v>178</v>
+        <v>173</v>
       </c>
       <c r="H2" s="8" t="s">
-        <v>185</v>
+        <v>180</v>
       </c>
       <c r="I2" s="8" t="s">
-        <v>198</v>
+        <v>193</v>
       </c>
       <c r="J2" s="8" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
     </row>
     <row r="3" spans="1:10">
@@ -2622,25 +2570,25 @@
         <v>12601</v>
       </c>
       <c r="D3" s="21" t="s">
-        <v>193</v>
+        <v>188</v>
       </c>
       <c r="E3" s="8" t="s">
         <v>12</v>
       </c>
       <c r="F3" s="22" t="s">
-        <v>195</v>
+        <v>190</v>
       </c>
       <c r="G3" s="8" t="s">
-        <v>179</v>
+        <v>174</v>
       </c>
       <c r="H3" s="8" t="s">
-        <v>185</v>
+        <v>180</v>
       </c>
       <c r="I3" s="8" t="s">
-        <v>199</v>
+        <v>194</v>
       </c>
       <c r="J3" s="8" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
     </row>
     <row r="4" spans="1:10">
@@ -2652,25 +2600,25 @@
         <v>12602</v>
       </c>
       <c r="D4" s="21" t="s">
-        <v>193</v>
+        <v>188</v>
       </c>
       <c r="E4" s="8" t="s">
         <v>12</v>
       </c>
       <c r="F4" s="22" t="s">
-        <v>196</v>
+        <v>191</v>
       </c>
       <c r="G4" s="8" t="s">
+        <v>175</v>
+      </c>
+      <c r="H4" s="8" t="s">
         <v>180</v>
       </c>
-      <c r="H4" s="8" t="s">
-        <v>185</v>
-      </c>
       <c r="I4" s="8" t="s">
-        <v>189</v>
+        <v>184</v>
       </c>
       <c r="J4" s="8" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
     </row>
     <row r="5" spans="1:10">
@@ -2682,25 +2630,25 @@
         <v>12603</v>
       </c>
       <c r="D5" s="21" t="s">
-        <v>193</v>
+        <v>188</v>
       </c>
       <c r="E5" s="8" t="s">
         <v>12</v>
       </c>
       <c r="F5" s="22" t="s">
-        <v>197</v>
+        <v>192</v>
       </c>
       <c r="G5" s="8" t="s">
-        <v>181</v>
+        <v>176</v>
       </c>
       <c r="H5" s="8" t="s">
+        <v>180</v>
+      </c>
+      <c r="I5" s="8" t="s">
         <v>185</v>
       </c>
-      <c r="I5" s="8" t="s">
-        <v>190</v>
-      </c>
       <c r="J5" s="8" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
     </row>
     <row r="6" spans="1:10">
@@ -2712,25 +2660,25 @@
         <v>12604</v>
       </c>
       <c r="D6" s="21" t="s">
-        <v>193</v>
+        <v>188</v>
       </c>
       <c r="E6" s="8" t="s">
         <v>12</v>
       </c>
       <c r="F6" s="23" t="s">
-        <v>202</v>
+        <v>197</v>
       </c>
       <c r="G6" s="8" t="s">
-        <v>184</v>
+        <v>179</v>
       </c>
       <c r="H6" s="8" t="s">
-        <v>185</v>
+        <v>180</v>
       </c>
       <c r="I6" s="8" t="s">
-        <v>200</v>
+        <v>195</v>
       </c>
       <c r="J6" s="8" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
     </row>
     <row r="7" spans="1:10">
@@ -2742,25 +2690,25 @@
         <v>12605</v>
       </c>
       <c r="D7" s="21" t="s">
-        <v>193</v>
+        <v>188</v>
       </c>
       <c r="E7" s="8" t="s">
         <v>12</v>
       </c>
       <c r="F7" s="22" t="s">
-        <v>204</v>
+        <v>199</v>
       </c>
       <c r="G7" s="8" t="s">
-        <v>183</v>
+        <v>178</v>
       </c>
       <c r="H7" s="8" t="s">
-        <v>185</v>
+        <v>180</v>
       </c>
       <c r="I7" s="8" t="s">
-        <v>201</v>
+        <v>196</v>
       </c>
       <c r="J7" s="8" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
     </row>
     <row r="8" spans="1:10">
@@ -2772,25 +2720,25 @@
         <v>12606</v>
       </c>
       <c r="D8" s="21" t="s">
-        <v>193</v>
+        <v>188</v>
       </c>
       <c r="E8" s="8" t="s">
         <v>12</v>
       </c>
       <c r="F8" s="22" t="s">
-        <v>203</v>
+        <v>198</v>
       </c>
       <c r="G8" s="8" t="s">
-        <v>182</v>
+        <v>177</v>
       </c>
       <c r="H8" s="8" t="s">
-        <v>185</v>
+        <v>180</v>
       </c>
       <c r="I8" s="8" t="s">
-        <v>84</v>
+        <v>81</v>
       </c>
       <c r="J8" s="8" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
     </row>
     <row r="9" spans="1:10">
@@ -2802,25 +2750,25 @@
         <v>12607</v>
       </c>
       <c r="D9" s="10" t="s">
-        <v>167</v>
+        <v>162</v>
       </c>
       <c r="E9" s="8" t="s">
         <v>12</v>
       </c>
       <c r="F9" s="10" t="s">
+        <v>168</v>
+      </c>
+      <c r="G9" s="8" t="s">
         <v>173</v>
       </c>
-      <c r="G9" s="8" t="s">
-        <v>178</v>
-      </c>
       <c r="H9" s="8" t="s">
-        <v>185</v>
+        <v>180</v>
       </c>
       <c r="I9" s="8" t="s">
-        <v>186</v>
+        <v>181</v>
       </c>
       <c r="J9" s="8" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
     </row>
     <row r="10" spans="1:10">
@@ -2832,25 +2780,25 @@
         <v>12608</v>
       </c>
       <c r="D10" s="10" t="s">
-        <v>167</v>
+        <v>162</v>
       </c>
       <c r="E10" s="8" t="s">
         <v>12</v>
       </c>
       <c r="F10" s="10" t="s">
+        <v>169</v>
+      </c>
+      <c r="G10" s="8" t="s">
         <v>174</v>
       </c>
-      <c r="G10" s="8" t="s">
-        <v>179</v>
-      </c>
       <c r="H10" s="8" t="s">
-        <v>185</v>
+        <v>180</v>
       </c>
       <c r="I10" s="8" t="s">
-        <v>187</v>
+        <v>182</v>
       </c>
       <c r="J10" s="8" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
     </row>
     <row r="11" spans="1:10">
@@ -2862,25 +2810,25 @@
         <v>12609</v>
       </c>
       <c r="D11" s="10" t="s">
-        <v>167</v>
+        <v>162</v>
       </c>
       <c r="E11" s="8" t="s">
         <v>12</v>
       </c>
       <c r="F11" s="10" t="s">
+        <v>170</v>
+      </c>
+      <c r="G11" s="8" t="s">
         <v>175</v>
       </c>
-      <c r="G11" s="8" t="s">
+      <c r="H11" s="8" t="s">
         <v>180</v>
       </c>
-      <c r="H11" s="8" t="s">
-        <v>185</v>
-      </c>
       <c r="I11" s="8" t="s">
-        <v>188</v>
+        <v>183</v>
       </c>
       <c r="J11" s="8" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
     </row>
     <row r="12" spans="1:10">
@@ -2892,25 +2840,25 @@
         <v>12610</v>
       </c>
       <c r="D12" s="10" t="s">
-        <v>167</v>
+        <v>162</v>
       </c>
       <c r="E12" s="8" t="s">
         <v>12</v>
       </c>
       <c r="F12" s="10" t="s">
+        <v>171</v>
+      </c>
+      <c r="G12" s="8" t="s">
         <v>176</v>
       </c>
-      <c r="G12" s="8" t="s">
-        <v>181</v>
-      </c>
       <c r="H12" s="8" t="s">
-        <v>185</v>
+        <v>180</v>
       </c>
       <c r="I12" s="8" t="s">
-        <v>189</v>
+        <v>184</v>
       </c>
       <c r="J12" s="8" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
     </row>
     <row r="13" spans="1:10">
@@ -2922,25 +2870,25 @@
         <v>12611</v>
       </c>
       <c r="D13" s="10" t="s">
-        <v>167</v>
+        <v>162</v>
       </c>
       <c r="E13" s="8" t="s">
         <v>12</v>
       </c>
       <c r="F13" s="10" t="s">
-        <v>177</v>
+        <v>172</v>
       </c>
       <c r="G13" s="8" t="s">
-        <v>184</v>
+        <v>179</v>
       </c>
       <c r="H13" s="8" t="s">
+        <v>180</v>
+      </c>
+      <c r="I13" s="8" t="s">
         <v>185</v>
       </c>
-      <c r="I13" s="8" t="s">
-        <v>190</v>
-      </c>
       <c r="J13" s="8" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
     </row>
     <row r="14" spans="1:10">
@@ -2952,25 +2900,25 @@
         <v>12612</v>
       </c>
       <c r="D14" s="10" t="s">
-        <v>167</v>
+        <v>162</v>
       </c>
       <c r="E14" s="8" t="s">
         <v>12</v>
       </c>
       <c r="F14" s="10" t="s">
-        <v>168</v>
+        <v>163</v>
       </c>
       <c r="G14" s="8" t="s">
-        <v>183</v>
+        <v>178</v>
       </c>
       <c r="H14" s="8" t="s">
-        <v>185</v>
+        <v>180</v>
       </c>
       <c r="I14" s="8" t="s">
-        <v>191</v>
+        <v>186</v>
       </c>
       <c r="J14" s="8" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
     </row>
     <row r="15" spans="1:10">
@@ -2982,25 +2930,25 @@
         <v>12613</v>
       </c>
       <c r="D15" s="10" t="s">
-        <v>167</v>
+        <v>162</v>
       </c>
       <c r="E15" s="8" t="s">
         <v>12</v>
       </c>
       <c r="F15" s="10" t="s">
-        <v>169</v>
+        <v>164</v>
       </c>
       <c r="G15" s="8" t="s">
-        <v>182</v>
+        <v>177</v>
       </c>
       <c r="H15" s="8" t="s">
-        <v>185</v>
+        <v>180</v>
       </c>
       <c r="I15" s="8" t="s">
-        <v>192</v>
+        <v>187</v>
       </c>
       <c r="J15" s="8" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
     </row>
   </sheetData>
@@ -3050,7 +2998,7 @@
         <v>30</v>
       </c>
       <c r="C2" s="7" t="s">
-        <v>152</v>
+        <v>148</v>
       </c>
       <c r="D2" s="3"/>
       <c r="E2" s="6"/>
@@ -3064,7 +3012,7 @@
         <v>60</v>
       </c>
       <c r="C3" s="7" t="s">
-        <v>153</v>
+        <v>149</v>
       </c>
       <c r="D3" s="3"/>
       <c r="E3" s="6"/>
@@ -3078,7 +3026,7 @@
         <v>90</v>
       </c>
       <c r="C4" s="7" t="s">
-        <v>155</v>
+        <v>151</v>
       </c>
       <c r="D4" s="3"/>
       <c r="E4" s="3"/>
@@ -3092,7 +3040,7 @@
         <v>120</v>
       </c>
       <c r="C5" s="7" t="s">
-        <v>156</v>
+        <v>152</v>
       </c>
       <c r="D5" s="3"/>
       <c r="E5" s="3"/>
@@ -3106,7 +3054,7 @@
         <v>150</v>
       </c>
       <c r="C6" s="7" t="s">
-        <v>154</v>
+        <v>150</v>
       </c>
       <c r="D6" s="3"/>
       <c r="E6" s="3"/>

--- a/config_Release/active_daily_task_info_config.xlsx
+++ b/config_Release/active_daily_task_info_config.xlsx
@@ -5,11 +5,11 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\HLBY\HuanLe_doc\config_Release\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\HLBY\HuanLe_doc\config_debug\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="30720" windowHeight="13605"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="30720" windowHeight="13605" firstSheet="1" activeTab="4"/>
   </bookViews>
   <sheets>
     <sheet name="config|索引表" sheetId="7" r:id="rId1"/>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="360" uniqueCount="200">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="360" uniqueCount="202">
   <si>
     <t>id|行号</t>
     <phoneticPr fontId="4" type="noConversion"/>
@@ -601,26 +601,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>5000小游戏币</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>1万小游戏币，玩具锤*1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>5万金币</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>1万金币，1万小游戏币</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>2万金币，2万小游戏币</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>actp_own_task_p_task_fish_daily_1_2_no_cps</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -741,22 +721,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>"x10000","x10"</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>"x20000","x10"</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>"x100000","x20"</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>"x200000","x30"</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>水果消消乐</t>
   </si>
   <si>
@@ -772,22 +736,6 @@
     <t>水果消消乐累计消除西瓜200个</t>
   </si>
   <si>
-    <t>"x2000","x5"</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>"x5000","x5"</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>"x30000","x10"</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>"x20000","x20"</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>水果消消乐累计消除BAR100个</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -797,6 +745,66 @@
   </si>
   <si>
     <t>累计赢金100万(单局至少投入5千)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>"x500","x5"</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>"x1000","x5"</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>"x1000","x10"</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>"x1000","x10"</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>"x1000","x10"</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>"x2000","x20"</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>"x3000","x30"</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>"x3000","x10"</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>"x5000","x20"</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>"x10000","x30"</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2000小游戏币</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>3000小游戏币，玩具锤*1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1万金币</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>5000金币，5000小游戏币</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>3000万金币，5000小游戏币</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1309,7 +1317,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E3"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="E4" sqref="E4"/>
     </sheetView>
   </sheetViews>
@@ -1323,19 +1331,19 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1" s="20" t="s">
+        <v>149</v>
+      </c>
+      <c r="B1" s="20" t="s">
+        <v>150</v>
+      </c>
+      <c r="C1" s="20" t="s">
+        <v>152</v>
+      </c>
+      <c r="D1" s="20" t="s">
+        <v>153</v>
+      </c>
+      <c r="E1" s="20" t="s">
         <v>154</v>
-      </c>
-      <c r="B1" s="20" t="s">
-        <v>155</v>
-      </c>
-      <c r="C1" s="20" t="s">
-        <v>157</v>
-      </c>
-      <c r="D1" s="20" t="s">
-        <v>158</v>
-      </c>
-      <c r="E1" s="20" t="s">
-        <v>159</v>
       </c>
     </row>
     <row r="2" spans="1:5">
@@ -1343,13 +1351,13 @@
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>166</v>
+        <v>161</v>
       </c>
       <c r="C2" t="s">
-        <v>165</v>
+        <v>160</v>
       </c>
       <c r="D2" t="s">
-        <v>156</v>
+        <v>151</v>
       </c>
       <c r="E2">
         <v>13000</v>
@@ -1360,13 +1368,13 @@
         <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>167</v>
+        <v>162</v>
       </c>
       <c r="C3" t="s">
-        <v>161</v>
+        <v>156</v>
       </c>
       <c r="D3" t="s">
-        <v>160</v>
+        <v>155</v>
       </c>
       <c r="E3">
         <v>13001</v>
@@ -1632,7 +1640,7 @@
         <v>7</v>
       </c>
       <c r="B8" s="8" t="s">
-        <v>153</v>
+        <v>148</v>
       </c>
       <c r="C8" s="9">
         <v>12519</v>
@@ -2482,8 +2490,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J15"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D10" sqref="D10"/>
+    <sheetView topLeftCell="C1" workbookViewId="0">
+      <selection activeCell="I8" sqref="I8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25"/>
@@ -2540,22 +2548,22 @@
         <v>12600</v>
       </c>
       <c r="D2" s="21" t="s">
-        <v>188</v>
+        <v>179</v>
       </c>
       <c r="E2" s="8" t="s">
         <v>12</v>
       </c>
       <c r="F2" s="22" t="s">
-        <v>189</v>
+        <v>180</v>
       </c>
       <c r="G2" s="8" t="s">
-        <v>173</v>
+        <v>168</v>
       </c>
       <c r="H2" s="8" t="s">
-        <v>180</v>
+        <v>175</v>
       </c>
       <c r="I2" s="8" t="s">
-        <v>193</v>
+        <v>187</v>
       </c>
       <c r="J2" s="8" t="s">
         <v>69</v>
@@ -2570,22 +2578,22 @@
         <v>12601</v>
       </c>
       <c r="D3" s="21" t="s">
-        <v>188</v>
+        <v>179</v>
       </c>
       <c r="E3" s="8" t="s">
         <v>12</v>
       </c>
       <c r="F3" s="22" t="s">
-        <v>190</v>
+        <v>181</v>
       </c>
       <c r="G3" s="8" t="s">
-        <v>174</v>
+        <v>169</v>
       </c>
       <c r="H3" s="8" t="s">
-        <v>180</v>
+        <v>175</v>
       </c>
       <c r="I3" s="8" t="s">
-        <v>194</v>
+        <v>188</v>
       </c>
       <c r="J3" s="8" t="s">
         <v>69</v>
@@ -2600,22 +2608,22 @@
         <v>12602</v>
       </c>
       <c r="D4" s="21" t="s">
-        <v>188</v>
+        <v>179</v>
       </c>
       <c r="E4" s="8" t="s">
         <v>12</v>
       </c>
       <c r="F4" s="22" t="s">
-        <v>191</v>
+        <v>182</v>
       </c>
       <c r="G4" s="8" t="s">
+        <v>170</v>
+      </c>
+      <c r="H4" s="8" t="s">
         <v>175</v>
       </c>
-      <c r="H4" s="8" t="s">
-        <v>180</v>
-      </c>
       <c r="I4" s="8" t="s">
-        <v>184</v>
+        <v>189</v>
       </c>
       <c r="J4" s="8" t="s">
         <v>69</v>
@@ -2630,22 +2638,22 @@
         <v>12603</v>
       </c>
       <c r="D5" s="21" t="s">
-        <v>188</v>
+        <v>179</v>
       </c>
       <c r="E5" s="8" t="s">
         <v>12</v>
       </c>
       <c r="F5" s="22" t="s">
-        <v>192</v>
+        <v>183</v>
       </c>
       <c r="G5" s="8" t="s">
-        <v>176</v>
+        <v>171</v>
       </c>
       <c r="H5" s="8" t="s">
-        <v>180</v>
+        <v>175</v>
       </c>
       <c r="I5" s="8" t="s">
-        <v>185</v>
+        <v>190</v>
       </c>
       <c r="J5" s="8" t="s">
         <v>69</v>
@@ -2660,22 +2668,22 @@
         <v>12604</v>
       </c>
       <c r="D6" s="21" t="s">
-        <v>188</v>
+        <v>179</v>
       </c>
       <c r="E6" s="8" t="s">
         <v>12</v>
       </c>
       <c r="F6" s="23" t="s">
-        <v>197</v>
+        <v>184</v>
       </c>
       <c r="G6" s="8" t="s">
-        <v>179</v>
+        <v>174</v>
       </c>
       <c r="H6" s="8" t="s">
-        <v>180</v>
+        <v>175</v>
       </c>
       <c r="I6" s="8" t="s">
-        <v>195</v>
+        <v>191</v>
       </c>
       <c r="J6" s="8" t="s">
         <v>69</v>
@@ -2690,22 +2698,22 @@
         <v>12605</v>
       </c>
       <c r="D7" s="21" t="s">
-        <v>188</v>
+        <v>179</v>
       </c>
       <c r="E7" s="8" t="s">
         <v>12</v>
       </c>
       <c r="F7" s="22" t="s">
-        <v>199</v>
+        <v>186</v>
       </c>
       <c r="G7" s="8" t="s">
-        <v>178</v>
+        <v>173</v>
       </c>
       <c r="H7" s="8" t="s">
-        <v>180</v>
+        <v>175</v>
       </c>
       <c r="I7" s="8" t="s">
-        <v>196</v>
+        <v>192</v>
       </c>
       <c r="J7" s="8" t="s">
         <v>69</v>
@@ -2720,22 +2728,22 @@
         <v>12606</v>
       </c>
       <c r="D8" s="21" t="s">
-        <v>188</v>
+        <v>179</v>
       </c>
       <c r="E8" s="8" t="s">
         <v>12</v>
       </c>
       <c r="F8" s="22" t="s">
-        <v>198</v>
+        <v>185</v>
       </c>
       <c r="G8" s="8" t="s">
-        <v>177</v>
+        <v>172</v>
       </c>
       <c r="H8" s="8" t="s">
-        <v>180</v>
+        <v>175</v>
       </c>
       <c r="I8" s="8" t="s">
-        <v>81</v>
+        <v>193</v>
       </c>
       <c r="J8" s="8" t="s">
         <v>69</v>
@@ -2750,22 +2758,22 @@
         <v>12607</v>
       </c>
       <c r="D9" s="10" t="s">
-        <v>162</v>
+        <v>157</v>
       </c>
       <c r="E9" s="8" t="s">
         <v>12</v>
       </c>
       <c r="F9" s="10" t="s">
+        <v>163</v>
+      </c>
+      <c r="G9" s="8" t="s">
         <v>168</v>
       </c>
-      <c r="G9" s="8" t="s">
-        <v>173</v>
-      </c>
       <c r="H9" s="8" t="s">
-        <v>180</v>
+        <v>175</v>
       </c>
       <c r="I9" s="8" t="s">
-        <v>181</v>
+        <v>176</v>
       </c>
       <c r="J9" s="8" t="s">
         <v>69</v>
@@ -2780,22 +2788,22 @@
         <v>12608</v>
       </c>
       <c r="D10" s="10" t="s">
-        <v>162</v>
+        <v>157</v>
       </c>
       <c r="E10" s="8" t="s">
         <v>12</v>
       </c>
       <c r="F10" s="10" t="s">
+        <v>164</v>
+      </c>
+      <c r="G10" s="8" t="s">
         <v>169</v>
       </c>
-      <c r="G10" s="8" t="s">
-        <v>174</v>
-      </c>
       <c r="H10" s="8" t="s">
-        <v>180</v>
+        <v>175</v>
       </c>
       <c r="I10" s="8" t="s">
-        <v>182</v>
+        <v>177</v>
       </c>
       <c r="J10" s="8" t="s">
         <v>69</v>
@@ -2810,22 +2818,22 @@
         <v>12609</v>
       </c>
       <c r="D11" s="10" t="s">
-        <v>162</v>
+        <v>157</v>
       </c>
       <c r="E11" s="8" t="s">
         <v>12</v>
       </c>
       <c r="F11" s="10" t="s">
+        <v>165</v>
+      </c>
+      <c r="G11" s="8" t="s">
         <v>170</v>
       </c>
-      <c r="G11" s="8" t="s">
+      <c r="H11" s="8" t="s">
         <v>175</v>
       </c>
-      <c r="H11" s="8" t="s">
-        <v>180</v>
-      </c>
       <c r="I11" s="8" t="s">
-        <v>183</v>
+        <v>178</v>
       </c>
       <c r="J11" s="8" t="s">
         <v>69</v>
@@ -2840,22 +2848,22 @@
         <v>12610</v>
       </c>
       <c r="D12" s="10" t="s">
-        <v>162</v>
+        <v>157</v>
       </c>
       <c r="E12" s="8" t="s">
         <v>12</v>
       </c>
       <c r="F12" s="10" t="s">
+        <v>166</v>
+      </c>
+      <c r="G12" s="8" t="s">
         <v>171</v>
       </c>
-      <c r="G12" s="8" t="s">
-        <v>176</v>
-      </c>
       <c r="H12" s="8" t="s">
-        <v>180</v>
+        <v>175</v>
       </c>
       <c r="I12" s="8" t="s">
-        <v>184</v>
+        <v>178</v>
       </c>
       <c r="J12" s="8" t="s">
         <v>69</v>
@@ -2870,22 +2878,22 @@
         <v>12611</v>
       </c>
       <c r="D13" s="10" t="s">
-        <v>162</v>
+        <v>157</v>
       </c>
       <c r="E13" s="8" t="s">
         <v>12</v>
       </c>
       <c r="F13" s="10" t="s">
-        <v>172</v>
+        <v>167</v>
       </c>
       <c r="G13" s="8" t="s">
-        <v>179</v>
+        <v>174</v>
       </c>
       <c r="H13" s="8" t="s">
-        <v>180</v>
+        <v>175</v>
       </c>
       <c r="I13" s="8" t="s">
-        <v>185</v>
+        <v>194</v>
       </c>
       <c r="J13" s="8" t="s">
         <v>69</v>
@@ -2900,22 +2908,22 @@
         <v>12612</v>
       </c>
       <c r="D14" s="10" t="s">
-        <v>162</v>
+        <v>157</v>
       </c>
       <c r="E14" s="8" t="s">
         <v>12</v>
       </c>
       <c r="F14" s="10" t="s">
-        <v>163</v>
+        <v>158</v>
       </c>
       <c r="G14" s="8" t="s">
-        <v>178</v>
+        <v>173</v>
       </c>
       <c r="H14" s="8" t="s">
-        <v>180</v>
+        <v>175</v>
       </c>
       <c r="I14" s="8" t="s">
-        <v>186</v>
+        <v>195</v>
       </c>
       <c r="J14" s="8" t="s">
         <v>69</v>
@@ -2930,22 +2938,22 @@
         <v>12613</v>
       </c>
       <c r="D15" s="10" t="s">
-        <v>162</v>
+        <v>157</v>
       </c>
       <c r="E15" s="8" t="s">
         <v>12</v>
       </c>
       <c r="F15" s="10" t="s">
-        <v>164</v>
+        <v>159</v>
       </c>
       <c r="G15" s="8" t="s">
-        <v>177</v>
+        <v>172</v>
       </c>
       <c r="H15" s="8" t="s">
-        <v>180</v>
+        <v>175</v>
       </c>
       <c r="I15" s="8" t="s">
-        <v>187</v>
+        <v>196</v>
       </c>
       <c r="J15" s="8" t="s">
         <v>69</v>
@@ -2962,8 +2970,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G15"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B2" sqref="B2:C6"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B5" sqref="B5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="14.25"/>
@@ -2998,7 +3006,7 @@
         <v>30</v>
       </c>
       <c r="C2" s="7" t="s">
-        <v>148</v>
+        <v>197</v>
       </c>
       <c r="D2" s="3"/>
       <c r="E2" s="6"/>
@@ -3012,7 +3020,7 @@
         <v>60</v>
       </c>
       <c r="C3" s="7" t="s">
-        <v>149</v>
+        <v>198</v>
       </c>
       <c r="D3" s="3"/>
       <c r="E3" s="6"/>
@@ -3026,7 +3034,7 @@
         <v>90</v>
       </c>
       <c r="C4" s="7" t="s">
-        <v>151</v>
+        <v>201</v>
       </c>
       <c r="D4" s="3"/>
       <c r="E4" s="3"/>
@@ -3040,7 +3048,7 @@
         <v>120</v>
       </c>
       <c r="C5" s="7" t="s">
-        <v>152</v>
+        <v>200</v>
       </c>
       <c r="D5" s="3"/>
       <c r="E5" s="3"/>
@@ -3054,7 +3062,7 @@
         <v>150</v>
       </c>
       <c r="C6" s="7" t="s">
-        <v>150</v>
+        <v>199</v>
       </c>
       <c r="D6" s="3"/>
       <c r="E6" s="3"/>

--- a/config_Release/active_daily_task_info_config.xlsx
+++ b/config_Release/active_daily_task_info_config.xlsx
@@ -804,7 +804,7 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>3000万金币，5000小游戏币</t>
+    <t>3000金币，5000小游戏币</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -2971,7 +2971,7 @@
   <dimension ref="A1:G15"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B5" sqref="B5"/>
+      <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="14.25"/>

--- a/config_Release/active_daily_task_info_config.xlsx
+++ b/config_Release/active_daily_task_info_config.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="30720" windowHeight="13605" firstSheet="1" activeTab="4"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="30720" windowHeight="13605" firstSheet="1" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="config|索引表" sheetId="7" r:id="rId1"/>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="360" uniqueCount="202">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="360" uniqueCount="203">
   <si>
     <t>id|行号</t>
     <phoneticPr fontId="4" type="noConversion"/>
@@ -805,6 +805,10 @@
   </si>
   <si>
     <t>3000金币，5000小游戏币</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>"game_Eliminate",</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -2490,8 +2494,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J15"/>
   <sheetViews>
-    <sheetView topLeftCell="C1" workbookViewId="0">
-      <selection activeCell="I8" sqref="I8"/>
+    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
+      <selection activeCell="J8" sqref="J8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25"/>
@@ -2566,7 +2570,7 @@
         <v>187</v>
       </c>
       <c r="J2" s="8" t="s">
-        <v>69</v>
+        <v>202</v>
       </c>
     </row>
     <row r="3" spans="1:10">
@@ -2596,7 +2600,7 @@
         <v>188</v>
       </c>
       <c r="J3" s="8" t="s">
-        <v>69</v>
+        <v>202</v>
       </c>
     </row>
     <row r="4" spans="1:10">
@@ -2626,7 +2630,7 @@
         <v>189</v>
       </c>
       <c r="J4" s="8" t="s">
-        <v>69</v>
+        <v>202</v>
       </c>
     </row>
     <row r="5" spans="1:10">
@@ -2656,7 +2660,7 @@
         <v>190</v>
       </c>
       <c r="J5" s="8" t="s">
-        <v>69</v>
+        <v>202</v>
       </c>
     </row>
     <row r="6" spans="1:10">
@@ -2686,7 +2690,7 @@
         <v>191</v>
       </c>
       <c r="J6" s="8" t="s">
-        <v>69</v>
+        <v>202</v>
       </c>
     </row>
     <row r="7" spans="1:10">
@@ -2716,7 +2720,7 @@
         <v>192</v>
       </c>
       <c r="J7" s="8" t="s">
-        <v>69</v>
+        <v>202</v>
       </c>
     </row>
     <row r="8" spans="1:10">
@@ -2746,7 +2750,7 @@
         <v>193</v>
       </c>
       <c r="J8" s="8" t="s">
-        <v>69</v>
+        <v>202</v>
       </c>
     </row>
     <row r="9" spans="1:10">
@@ -2970,8 +2974,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G15"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C2" sqref="C2"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F20" sqref="F20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="14.25"/>

--- a/config_Release/active_daily_task_info_config.xlsx
+++ b/config_Release/active_daily_task_info_config.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="30720" windowHeight="13605" activeTab="3"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="30720" windowHeight="13605" firstSheet="3" activeTab="5"/>
   </bookViews>
   <sheets>
     <sheet name="config|索引表" sheetId="7" r:id="rId1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="357" uniqueCount="175">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="320" uniqueCount="164">
   <si>
     <t>id|行号</t>
     <phoneticPr fontId="4" type="noConversion"/>
@@ -270,52 +270,14 @@
     <t>累计赢金</t>
   </si>
   <si>
-    <t>红包场累计赢金500万</t>
-  </si>
-  <si>
-    <t>红包场累计赢金1000万</t>
-  </si>
-  <si>
     <t>cpl_cjj</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>红包场累计赢金1万</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>红包场累计赢金5万</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>红包场累计赢金10万</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>红包场累计赢金50万</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>红包场累计赢金100万</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>"ty_icon_jb_15y","ty_icon_hytb",</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>"ty_icon_jb_15y","ty_icon_hytb",</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>"ty_icon_jb_30y","ty_icon_hytb",</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>"ty_icon_jb_30y","ty_icon_hytb",</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>"ty_icon_jb_2498y","ty_icon_hytb",</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -324,113 +286,14 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>"ty_icon_jb_198y","ty_icon_hytb",</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>"金币","活跃度"</t>
   </si>
   <si>
-    <t>"x200","x5"</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>"x1000","x5"</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>"x2000","x10"</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>水果消消乐</t>
-  </si>
-  <si>
-    <t>水果消消乐游戏50次</t>
-  </si>
-  <si>
-    <t>水果消消乐累计消除苹果200个</t>
-  </si>
-  <si>
-    <t>水果消消乐累计消除铃铛200个</t>
-  </si>
-  <si>
-    <t>水果消消乐累计消除西瓜200个</t>
-  </si>
-  <si>
-    <t>水果消消乐累计消除BAR100个</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>出现幸运时刻(单局至少投入3万)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>累计赢金100万(单局至少投入5千)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>"x500","x5"</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>"x1000","x5"</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>"x1000","x10"</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>"x1000","x10"</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>"x1000","x10"</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>"x2000","x20"</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>"x3000","x30"</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>"x3000","x10"</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>"x5000","x20"</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>"x10000","x30"</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>2000小游戏币</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>3000小游戏币，玩具锤*1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>1万金币</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>5000金币，5000小游戏币</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>3000金币，5000小游戏币</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>"game_Eliminate",</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -628,10 +491,6 @@
   <si>
     <t>单笔充值</t>
     <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>rw_icon_mrzz</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>"shop_bay","jing_bi"</t>
@@ -764,6 +623,98 @@
   </si>
   <si>
     <t>"ty_icon_flq2","ty_icon_hytb",</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>水果消消乐游戏10次</t>
+  </si>
+  <si>
+    <t>水浒消消乐游戏20次</t>
+  </si>
+  <si>
+    <t>西游消消乐游戏20次</t>
+  </si>
+  <si>
+    <t>龙王争霸游戏20次</t>
+  </si>
+  <si>
+    <t>红包场累计赢金500万（单局至少投入6万）</t>
+  </si>
+  <si>
+    <t>单笔充值大于6元</t>
+  </si>
+  <si>
+    <t>单笔充值</t>
+  </si>
+  <si>
+    <t>水果消消乐</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>水浒消消乐</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>西游消消乐</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>龙王争霸</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>水果消消乐</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>rw_icon_mrzz</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>rw_icon_mrzz</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>"x20000","x50"</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>"x5000","x30"</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>"x2000","x30"</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>"x1000","x20"</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>"x500","x10"</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1500金币</t>
+  </si>
+  <si>
+    <t>3000金币</t>
+  </si>
+  <si>
+    <t>6000金币</t>
+  </si>
+  <si>
+    <t>8000金币</t>
+  </si>
+  <si>
+    <t>15000金币</t>
+  </si>
+  <si>
+    <t>"V2双倍", ""</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>水果消消乐出现一次幸运时刻（单局至少投入3万）</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -872,12 +823,6 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.59999389629810485"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor rgb="FFFFFF00"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -885,6 +830,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="9" tint="0.39997558519241921"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="-0.249977111117893"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -913,15 +864,16 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="4">
+  <cellStyleXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="23">
+  <cellXfs count="24">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -957,14 +909,17 @@
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="4" borderId="0" xfId="3" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="4" borderId="0" xfId="3" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="4" borderId="0" xfId="3" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1">
       <alignment vertical="center"/>
@@ -975,24 +930,25 @@
     <xf numFmtId="0" fontId="7" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="6" borderId="0" xfId="4" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="6" borderId="0" xfId="4" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="6" borderId="0" xfId="4" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
-  <cellStyles count="4">
+  <cellStyles count="5">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
     <cellStyle name="常规 2" xfId="2"/>
     <cellStyle name="常规 3" xfId="3"/>
     <cellStyle name="常规 4" xfId="1"/>
+    <cellStyle name="常规 5" xfId="4"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -1306,13 +1262,13 @@
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>154</v>
+        <v>117</v>
       </c>
       <c r="C2" t="s">
-        <v>111</v>
+        <v>75</v>
       </c>
       <c r="D2" t="s">
-        <v>112</v>
+        <v>76</v>
       </c>
       <c r="E2">
         <v>13002</v>
@@ -1323,10 +1279,10 @@
         <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>155</v>
+        <v>118</v>
       </c>
       <c r="C3" t="s">
-        <v>110</v>
+        <v>74</v>
       </c>
       <c r="D3" t="s">
         <v>52</v>
@@ -1340,7 +1296,7 @@
         <v>3</v>
       </c>
       <c r="B4" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="C4" t="s">
         <v>57</v>
@@ -1363,7 +1319,7 @@
   <dimension ref="A1:P8"/>
   <sheetViews>
     <sheetView topLeftCell="H1" workbookViewId="0">
-      <selection activeCell="K11" sqref="K11"/>
+      <selection activeCell="L1" sqref="L1:M1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25"/>
@@ -1386,7 +1342,7 @@
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>102</v>
+        <v>66</v>
       </c>
       <c r="C1" s="1" t="s">
         <v>42</v>
@@ -1416,261 +1372,261 @@
         <v>10</v>
       </c>
       <c r="L1" s="1" t="s">
-        <v>104</v>
+        <v>68</v>
       </c>
       <c r="M1" s="1" t="s">
-        <v>103</v>
+        <v>67</v>
       </c>
       <c r="N1" s="1"/>
       <c r="O1" s="1"/>
       <c r="P1" s="1"/>
     </row>
-    <row r="2" spans="1:16" s="20" customFormat="1">
-      <c r="A2" s="20">
+    <row r="2" spans="1:16" s="17" customFormat="1">
+      <c r="A2" s="17">
         <v>1</v>
       </c>
-      <c r="B2" s="20">
+      <c r="B2" s="17">
         <v>10</v>
       </c>
-      <c r="D2" s="21">
+      <c r="D2" s="18">
         <v>12553</v>
       </c>
-      <c r="E2" s="22" t="s">
+      <c r="E2" s="19" t="s">
         <v>43</v>
       </c>
-      <c r="F2" s="20" t="s">
+      <c r="F2" s="17" t="s">
         <v>44</v>
       </c>
-      <c r="G2" s="22" t="s">
+      <c r="G2" s="19" t="s">
         <v>45</v>
       </c>
-      <c r="H2" s="20" t="s">
+      <c r="H2" s="17" t="s">
         <v>46</v>
       </c>
-      <c r="I2" s="20" t="s">
+      <c r="I2" s="17" t="s">
         <v>47</v>
       </c>
-      <c r="J2" s="20" t="s">
+      <c r="J2" s="17" t="s">
         <v>48</v>
       </c>
-      <c r="K2" s="20" t="s">
+      <c r="K2" s="17" t="s">
         <v>49</v>
       </c>
     </row>
-    <row r="3" spans="1:16" s="16" customFormat="1">
-      <c r="A3" s="16">
+    <row r="3" spans="1:16" s="13" customFormat="1">
+      <c r="A3" s="13">
         <v>2</v>
       </c>
-      <c r="B3" s="16">
+      <c r="B3" s="13">
         <v>11</v>
       </c>
-      <c r="D3" s="17">
+      <c r="D3" s="14">
         <v>12545</v>
       </c>
-      <c r="E3" s="18" t="s">
+      <c r="E3" s="15" t="s">
         <v>19</v>
       </c>
-      <c r="F3" s="16" t="s">
+      <c r="F3" s="13" t="s">
         <v>16</v>
       </c>
-      <c r="G3" s="18" t="s">
+      <c r="G3" s="15" t="s">
         <v>17</v>
       </c>
-      <c r="H3" s="16" t="s">
+      <c r="H3" s="13" t="s">
         <v>23</v>
       </c>
-      <c r="I3" s="16" t="s">
+      <c r="I3" s="13" t="s">
         <v>25</v>
       </c>
-      <c r="J3" s="16" t="s">
-        <v>105</v>
-      </c>
-      <c r="K3" s="16" t="s">
+      <c r="J3" s="13" t="s">
+        <v>69</v>
+      </c>
+      <c r="K3" s="13" t="s">
         <v>13</v>
       </c>
-      <c r="L3" s="16">
+      <c r="L3" s="13">
         <v>1</v>
       </c>
-      <c r="M3" s="16" t="s">
-        <v>167</v>
-      </c>
-    </row>
-    <row r="4" spans="1:16" s="20" customFormat="1">
-      <c r="A4" s="20">
+      <c r="M3" s="13" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="4" spans="1:16" s="17" customFormat="1">
+      <c r="A4" s="17">
         <v>3</v>
       </c>
-      <c r="B4" s="20">
+      <c r="B4" s="17">
         <v>12</v>
       </c>
-      <c r="D4" s="21">
+      <c r="D4" s="18">
         <v>12554</v>
       </c>
-      <c r="E4" s="22" t="s">
-        <v>160</v>
-      </c>
-      <c r="F4" s="20" t="s">
-        <v>161</v>
-      </c>
-      <c r="G4" s="22" t="s">
-        <v>162</v>
-      </c>
-      <c r="H4" s="20" t="s">
+      <c r="E4" s="19" t="s">
+        <v>123</v>
+      </c>
+      <c r="F4" s="17" t="s">
+        <v>124</v>
+      </c>
+      <c r="G4" s="19" t="s">
+        <v>125</v>
+      </c>
+      <c r="H4" s="17" t="s">
         <v>37</v>
       </c>
-      <c r="I4" s="20" t="s">
+      <c r="I4" s="17" t="s">
         <v>41</v>
       </c>
-      <c r="J4" s="20" t="s">
+      <c r="J4" s="17" t="s">
         <v>36</v>
       </c>
-      <c r="K4" s="20" t="s">
+      <c r="K4" s="17" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="5" spans="1:16" s="16" customFormat="1">
-      <c r="A5" s="16">
+    <row r="5" spans="1:16" s="13" customFormat="1">
+      <c r="A5" s="13">
         <v>4</v>
       </c>
-      <c r="B5" s="16">
+      <c r="B5" s="13">
         <v>13</v>
       </c>
-      <c r="D5" s="17">
+      <c r="D5" s="14">
         <v>12546</v>
       </c>
-      <c r="E5" s="18" t="s">
+      <c r="E5" s="15" t="s">
         <v>20</v>
       </c>
-      <c r="F5" s="19" t="s">
+      <c r="F5" s="16" t="s">
         <v>18</v>
       </c>
-      <c r="G5" s="18" t="s">
+      <c r="G5" s="15" t="s">
         <v>14</v>
       </c>
-      <c r="H5" s="16" t="s">
+      <c r="H5" s="13" t="s">
         <v>24</v>
       </c>
-      <c r="I5" s="16" t="s">
+      <c r="I5" s="13" t="s">
         <v>25</v>
       </c>
-      <c r="J5" s="16" t="s">
-        <v>106</v>
-      </c>
-      <c r="K5" s="16" t="s">
+      <c r="J5" s="13" t="s">
+        <v>70</v>
+      </c>
+      <c r="K5" s="13" t="s">
         <v>13</v>
       </c>
-      <c r="L5" s="16">
+      <c r="L5" s="13">
         <v>2</v>
       </c>
-      <c r="M5" s="16" t="s">
-        <v>168</v>
-      </c>
-    </row>
-    <row r="6" spans="1:16" s="16" customFormat="1">
-      <c r="A6" s="16">
+      <c r="M5" s="13" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="6" spans="1:16" s="13" customFormat="1">
+      <c r="A6" s="13">
         <v>5</v>
       </c>
-      <c r="B6" s="16">
+      <c r="B6" s="13">
         <v>14</v>
       </c>
-      <c r="C6" s="19"/>
-      <c r="D6" s="17">
+      <c r="C6" s="16"/>
+      <c r="D6" s="14">
         <v>12547</v>
       </c>
-      <c r="E6" s="18" t="s">
+      <c r="E6" s="15" t="s">
         <v>21</v>
       </c>
-      <c r="F6" s="16" t="s">
+      <c r="F6" s="13" t="s">
         <v>15</v>
       </c>
-      <c r="G6" s="18" t="s">
+      <c r="G6" s="15" t="s">
         <v>35</v>
       </c>
-      <c r="H6" s="16" t="s">
+      <c r="H6" s="13" t="s">
         <v>24</v>
       </c>
-      <c r="I6" s="16" t="s">
+      <c r="I6" s="13" t="s">
         <v>25</v>
       </c>
-      <c r="J6" s="16" t="s">
-        <v>107</v>
-      </c>
-      <c r="K6" s="16" t="s">
+      <c r="J6" s="13" t="s">
+        <v>71</v>
+      </c>
+      <c r="K6" s="13" t="s">
         <v>13</v>
       </c>
-      <c r="L6" s="16">
+      <c r="L6" s="13">
         <v>3</v>
       </c>
-      <c r="M6" s="16" t="s">
-        <v>169</v>
-      </c>
-    </row>
-    <row r="7" spans="1:16" s="16" customFormat="1">
-      <c r="A7" s="16">
+      <c r="M6" s="13" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="7" spans="1:16" s="13" customFormat="1">
+      <c r="A7" s="13">
         <v>6</v>
       </c>
-      <c r="B7" s="16">
+      <c r="B7" s="13">
         <v>15</v>
       </c>
-      <c r="D7" s="17">
+      <c r="D7" s="14">
         <v>12543</v>
       </c>
-      <c r="E7" s="18" t="s">
+      <c r="E7" s="15" t="s">
         <v>27</v>
       </c>
-      <c r="F7" s="16" t="s">
+      <c r="F7" s="13" t="s">
         <v>29</v>
       </c>
-      <c r="G7" s="18" t="s">
+      <c r="G7" s="15" t="s">
         <v>28</v>
       </c>
-      <c r="H7" s="16" t="s">
+      <c r="H7" s="13" t="s">
         <v>46</v>
       </c>
-      <c r="I7" s="16" t="s">
+      <c r="I7" s="13" t="s">
         <v>25</v>
       </c>
-      <c r="J7" s="16" t="s">
-        <v>108</v>
-      </c>
-      <c r="K7" s="16" t="s">
+      <c r="J7" s="13" t="s">
+        <v>72</v>
+      </c>
+      <c r="K7" s="13" t="s">
         <v>13</v>
       </c>
-      <c r="L7" s="16">
+      <c r="L7" s="13">
         <v>5</v>
       </c>
-      <c r="M7" s="16" t="s">
-        <v>170</v>
-      </c>
-    </row>
-    <row r="8" spans="1:16" s="16" customFormat="1">
-      <c r="A8" s="16">
+      <c r="M7" s="13" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="8" spans="1:16" s="13" customFormat="1">
+      <c r="A8" s="13">
         <v>7</v>
       </c>
-      <c r="B8" s="16">
+      <c r="B8" s="13">
         <v>1</v>
       </c>
-      <c r="D8" s="17">
+      <c r="D8" s="14">
         <v>12544</v>
       </c>
-      <c r="E8" s="18" t="s">
+      <c r="E8" s="15" t="s">
         <v>11</v>
       </c>
-      <c r="F8" s="16" t="s">
+      <c r="F8" s="13" t="s">
         <v>12</v>
       </c>
-      <c r="G8" s="18" t="s">
+      <c r="G8" s="15" t="s">
         <v>26</v>
       </c>
-      <c r="H8" s="16" t="s">
+      <c r="H8" s="13" t="s">
         <v>24</v>
       </c>
-      <c r="I8" s="16" t="s">
+      <c r="I8" s="13" t="s">
         <v>25</v>
       </c>
-      <c r="J8" s="16" t="s">
-        <v>109</v>
-      </c>
-      <c r="K8" s="16" t="s">
+      <c r="J8" s="13" t="s">
+        <v>73</v>
+      </c>
+      <c r="K8" s="13" t="s">
         <v>31</v>
       </c>
     </row>
@@ -1686,7 +1642,7 @@
   <dimension ref="A1:E6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C23" sqref="C23"/>
+      <selection activeCell="D1" sqref="D1:E1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25"/>
@@ -1706,10 +1662,10 @@
         <v>2</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>153</v>
+        <v>116</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>103</v>
+        <v>67</v>
       </c>
     </row>
     <row r="2" spans="1:5" ht="16.5">
@@ -1720,13 +1676,13 @@
         <v>30</v>
       </c>
       <c r="C2" s="7" t="s">
-        <v>116</v>
+        <v>80</v>
       </c>
       <c r="D2" s="7">
         <v>1</v>
       </c>
       <c r="E2" s="3" t="s">
-        <v>163</v>
+        <v>126</v>
       </c>
     </row>
     <row r="3" spans="1:5" ht="16.5">
@@ -1737,13 +1693,13 @@
         <v>60</v>
       </c>
       <c r="C3" s="7" t="s">
-        <v>113</v>
+        <v>77</v>
       </c>
       <c r="D3" s="7">
         <v>2</v>
       </c>
       <c r="E3" s="3" t="s">
-        <v>164</v>
+        <v>127</v>
       </c>
     </row>
     <row r="4" spans="1:5" ht="16.5">
@@ -1754,7 +1710,7 @@
         <v>90</v>
       </c>
       <c r="C4" s="7" t="s">
-        <v>114</v>
+        <v>78</v>
       </c>
       <c r="D4" s="7"/>
       <c r="E4" s="3"/>
@@ -1767,13 +1723,13 @@
         <v>120</v>
       </c>
       <c r="C5" s="7" t="s">
-        <v>115</v>
+        <v>79</v>
       </c>
       <c r="D5" s="7">
         <v>3</v>
       </c>
       <c r="E5" s="3" t="s">
-        <v>165</v>
+        <v>128</v>
       </c>
     </row>
     <row r="6" spans="1:5" ht="16.5">
@@ -1784,13 +1740,13 @@
         <v>150</v>
       </c>
       <c r="C6" s="7" t="s">
-        <v>117</v>
+        <v>81</v>
       </c>
       <c r="D6" s="7">
         <v>5</v>
       </c>
       <c r="E6" s="3" t="s">
-        <v>166</v>
+        <v>129</v>
       </c>
     </row>
   </sheetData>
@@ -1804,8 +1760,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:O15"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="F1" workbookViewId="0">
-      <selection activeCell="H13" sqref="H13"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D24" sqref="D24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25"/>
@@ -1824,16 +1780,16 @@
   <sheetData>
     <row r="1" spans="1:15" ht="27">
       <c r="A1" s="1" t="s">
-        <v>118</v>
+        <v>82</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>102</v>
+        <v>66</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>119</v>
+        <v>83</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>120</v>
+        <v>84</v>
       </c>
       <c r="E1" s="1" t="s">
         <v>4</v>
@@ -1845,13 +1801,13 @@
         <v>5</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>132</v>
+        <v>96</v>
       </c>
       <c r="I1" s="1" t="s">
         <v>8</v>
       </c>
       <c r="J1" s="1" t="s">
-        <v>133</v>
+        <v>97</v>
       </c>
       <c r="K1" s="1" t="s">
         <v>10</v>
@@ -1871,28 +1827,28 @@
         <v>10</v>
       </c>
       <c r="C2" s="8" t="s">
-        <v>158</v>
+        <v>121</v>
       </c>
       <c r="D2" s="9">
         <v>12512</v>
       </c>
       <c r="E2" s="10" t="s">
-        <v>121</v>
+        <v>85</v>
       </c>
       <c r="F2" s="8" t="s">
-        <v>122</v>
+        <v>86</v>
       </c>
       <c r="G2" s="10" t="s">
-        <v>123</v>
+        <v>87</v>
       </c>
       <c r="H2" s="8" t="s">
-        <v>124</v>
+        <v>88</v>
       </c>
       <c r="I2" s="8" t="s">
-        <v>134</v>
+        <v>98</v>
       </c>
       <c r="J2" s="8" t="s">
-        <v>135</v>
+        <v>99</v>
       </c>
       <c r="K2" s="8" t="s">
         <v>13</v>
@@ -1901,7 +1857,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="3" spans="1:15" s="16" customFormat="1">
+    <row r="3" spans="1:15" s="13" customFormat="1">
       <c r="A3" s="8">
         <v>2</v>
       </c>
@@ -1909,7 +1865,7 @@
         <v>11</v>
       </c>
       <c r="C3" s="8" t="s">
-        <v>158</v>
+        <v>121</v>
       </c>
       <c r="D3" s="9">
         <v>12520</v>
@@ -1918,28 +1874,28 @@
         <v>19</v>
       </c>
       <c r="F3" s="8" t="s">
-        <v>125</v>
+        <v>89</v>
       </c>
       <c r="G3" s="10" t="s">
-        <v>136</v>
+        <v>100</v>
       </c>
       <c r="H3" s="8" t="s">
-        <v>137</v>
+        <v>101</v>
       </c>
       <c r="I3" s="8" t="s">
-        <v>134</v>
+        <v>98</v>
       </c>
       <c r="J3" s="8" t="s">
-        <v>138</v>
+        <v>102</v>
       </c>
       <c r="K3" s="8" t="s">
         <v>13</v>
       </c>
-      <c r="L3" s="16" t="s">
+      <c r="L3" s="13" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="4" spans="1:15" s="16" customFormat="1">
+    <row r="4" spans="1:15" s="13" customFormat="1">
       <c r="A4" s="8">
         <v>3</v>
       </c>
@@ -1947,7 +1903,7 @@
         <v>12</v>
       </c>
       <c r="C4" s="8" t="s">
-        <v>158</v>
+        <v>121</v>
       </c>
       <c r="D4" s="9">
         <v>12521</v>
@@ -1956,28 +1912,28 @@
         <v>22</v>
       </c>
       <c r="F4" s="8" t="s">
-        <v>139</v>
+        <v>103</v>
       </c>
       <c r="G4" s="10" t="s">
-        <v>126</v>
+        <v>90</v>
       </c>
       <c r="H4" s="8" t="s">
-        <v>127</v>
+        <v>91</v>
       </c>
       <c r="I4" s="8" t="s">
-        <v>128</v>
+        <v>92</v>
       </c>
       <c r="J4" s="8" t="s">
-        <v>140</v>
+        <v>104</v>
       </c>
       <c r="K4" s="8" t="s">
-        <v>141</v>
-      </c>
-      <c r="L4" s="16" t="s">
+        <v>105</v>
+      </c>
+      <c r="L4" s="13" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="5" spans="1:15" s="16" customFormat="1">
+    <row r="5" spans="1:15" s="13" customFormat="1">
       <c r="A5" s="8">
         <v>4</v>
       </c>
@@ -1985,7 +1941,7 @@
         <v>13</v>
       </c>
       <c r="C5" s="8" t="s">
-        <v>158</v>
+        <v>121</v>
       </c>
       <c r="D5" s="9">
         <v>12522</v>
@@ -1997,25 +1953,25 @@
         <v>18</v>
       </c>
       <c r="G5" s="10" t="s">
-        <v>142</v>
+        <v>106</v>
       </c>
       <c r="H5" s="8" t="s">
-        <v>143</v>
+        <v>107</v>
       </c>
       <c r="I5" s="8" t="s">
         <v>25</v>
       </c>
       <c r="J5" s="8" t="s">
-        <v>129</v>
+        <v>93</v>
       </c>
       <c r="K5" s="8" t="s">
-        <v>144</v>
-      </c>
-      <c r="L5" s="16" t="s">
+        <v>108</v>
+      </c>
+      <c r="L5" s="13" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="6" spans="1:15" s="16" customFormat="1">
+    <row r="6" spans="1:15" s="13" customFormat="1">
       <c r="A6" s="8">
         <v>5</v>
       </c>
@@ -2023,7 +1979,7 @@
         <v>14</v>
       </c>
       <c r="C6" s="11" t="s">
-        <v>159</v>
+        <v>122</v>
       </c>
       <c r="D6" s="9">
         <v>12523</v>
@@ -2035,25 +1991,25 @@
         <v>15</v>
       </c>
       <c r="G6" s="10" t="s">
-        <v>145</v>
+        <v>109</v>
       </c>
       <c r="H6" s="8" t="s">
         <v>24</v>
       </c>
       <c r="I6" s="8" t="s">
-        <v>134</v>
+        <v>98</v>
       </c>
       <c r="J6" s="8" t="s">
-        <v>146</v>
+        <v>110</v>
       </c>
       <c r="K6" s="8" t="s">
-        <v>144</v>
-      </c>
-      <c r="L6" s="16" t="s">
+        <v>108</v>
+      </c>
+      <c r="L6" s="13" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="7" spans="1:15" s="16" customFormat="1">
+    <row r="7" spans="1:15" s="13" customFormat="1">
       <c r="A7" s="8">
         <v>6</v>
       </c>
@@ -2061,37 +2017,37 @@
         <v>15</v>
       </c>
       <c r="C7" s="8" t="s">
-        <v>158</v>
+        <v>121</v>
       </c>
       <c r="D7" s="9">
         <v>12516</v>
       </c>
       <c r="E7" s="10" t="s">
-        <v>130</v>
+        <v>94</v>
       </c>
       <c r="F7" s="8" t="s">
-        <v>147</v>
+        <v>111</v>
       </c>
       <c r="G7" s="10" t="s">
         <v>28</v>
       </c>
       <c r="H7" s="8" t="s">
-        <v>148</v>
+        <v>112</v>
       </c>
       <c r="I7" s="8" t="s">
         <v>25</v>
       </c>
       <c r="J7" s="8" t="s">
-        <v>149</v>
+        <v>113</v>
       </c>
       <c r="K7" s="8" t="s">
-        <v>144</v>
-      </c>
-      <c r="L7" s="16" t="s">
+        <v>108</v>
+      </c>
+      <c r="L7" s="13" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="8" spans="1:15" s="16" customFormat="1">
+    <row r="8" spans="1:15" s="13" customFormat="1">
       <c r="A8" s="8">
         <v>7</v>
       </c>
@@ -2099,33 +2055,33 @@
         <v>1</v>
       </c>
       <c r="C8" s="8" t="s">
-        <v>158</v>
+        <v>121</v>
       </c>
       <c r="D8" s="9">
         <v>12519</v>
       </c>
       <c r="E8" s="10" t="s">
+        <v>114</v>
+      </c>
+      <c r="F8" s="8" t="s">
         <v>150</v>
-      </c>
-      <c r="F8" s="8" t="s">
-        <v>151</v>
       </c>
       <c r="G8" s="10" t="s">
         <v>26</v>
       </c>
       <c r="H8" s="8" t="s">
-        <v>143</v>
+        <v>107</v>
       </c>
       <c r="I8" s="8" t="s">
-        <v>134</v>
+        <v>98</v>
       </c>
       <c r="J8" s="8" t="s">
-        <v>131</v>
+        <v>95</v>
       </c>
       <c r="K8" s="8" t="s">
-        <v>152</v>
-      </c>
-      <c r="L8" s="16" t="s">
+        <v>115</v>
+      </c>
+      <c r="L8" s="13" t="s">
         <v>31</v>
       </c>
     </row>
@@ -2137,7 +2093,7 @@
         <v>10</v>
       </c>
       <c r="C9" s="11" t="s">
-        <v>157</v>
+        <v>120</v>
       </c>
       <c r="D9" s="9">
         <v>12555</v>
@@ -2167,7 +2123,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="10" spans="1:15" s="16" customFormat="1">
+    <row r="10" spans="1:15" s="13" customFormat="1">
       <c r="A10" s="8">
         <v>9</v>
       </c>
@@ -2175,7 +2131,7 @@
         <v>11</v>
       </c>
       <c r="C10" s="11" t="s">
-        <v>157</v>
+        <v>120</v>
       </c>
       <c r="D10" s="9">
         <v>12549</v>
@@ -2196,16 +2152,16 @@
         <v>25</v>
       </c>
       <c r="J10" s="8" t="s">
-        <v>94</v>
+        <v>65</v>
       </c>
       <c r="K10" s="8" t="s">
         <v>13</v>
       </c>
-      <c r="L10" s="16" t="s">
+      <c r="L10" s="13" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="11" spans="1:15" s="16" customFormat="1">
+    <row r="11" spans="1:15" s="13" customFormat="1">
       <c r="A11" s="8">
         <v>10</v>
       </c>
@@ -2213,7 +2169,7 @@
         <v>12</v>
       </c>
       <c r="C11" s="11" t="s">
-        <v>157</v>
+        <v>120</v>
       </c>
       <c r="D11" s="9">
         <v>12556</v>
@@ -2222,16 +2178,16 @@
         <v>22</v>
       </c>
       <c r="F11" s="8" t="s">
-        <v>139</v>
+        <v>103</v>
       </c>
       <c r="G11" s="10" t="s">
-        <v>126</v>
+        <v>90</v>
       </c>
       <c r="H11" s="8" t="s">
         <v>37</v>
       </c>
       <c r="I11" s="8" t="s">
-        <v>128</v>
+        <v>92</v>
       </c>
       <c r="J11" s="8" t="s">
         <v>36</v>
@@ -2239,11 +2195,11 @@
       <c r="K11" s="8" t="s">
         <v>13</v>
       </c>
-      <c r="L11" s="16" t="s">
+      <c r="L11" s="13" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="12" spans="1:15" s="16" customFormat="1">
+    <row r="12" spans="1:15" s="13" customFormat="1">
       <c r="A12" s="8">
         <v>11</v>
       </c>
@@ -2251,7 +2207,7 @@
         <v>13</v>
       </c>
       <c r="C12" s="11" t="s">
-        <v>157</v>
+        <v>120</v>
       </c>
       <c r="D12" s="9">
         <v>12550</v>
@@ -2272,16 +2228,16 @@
         <v>25</v>
       </c>
       <c r="J12" s="8" t="s">
-        <v>129</v>
+        <v>93</v>
       </c>
       <c r="K12" s="8" t="s">
         <v>13</v>
       </c>
-      <c r="L12" s="16" t="s">
+      <c r="L12" s="13" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="13" spans="1:15" s="16" customFormat="1">
+    <row r="13" spans="1:15" s="13" customFormat="1">
       <c r="A13" s="8">
         <v>12</v>
       </c>
@@ -2289,7 +2245,7 @@
         <v>14</v>
       </c>
       <c r="C13" s="11" t="s">
-        <v>157</v>
+        <v>120</v>
       </c>
       <c r="D13" s="9">
         <v>12551</v>
@@ -2304,22 +2260,22 @@
         <v>35</v>
       </c>
       <c r="H13" s="8" t="s">
-        <v>174</v>
+        <v>137</v>
       </c>
       <c r="I13" s="8" t="s">
-        <v>171</v>
+        <v>134</v>
       </c>
       <c r="J13" s="8" t="s">
-        <v>172</v>
+        <v>135</v>
       </c>
       <c r="K13" s="8" t="s">
         <v>13</v>
       </c>
-      <c r="L13" s="16" t="s">
+      <c r="L13" s="13" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="14" spans="1:15" s="16" customFormat="1">
+    <row r="14" spans="1:15" s="13" customFormat="1">
       <c r="A14" s="8">
         <v>13</v>
       </c>
@@ -2327,7 +2283,7 @@
         <v>15</v>
       </c>
       <c r="C14" s="11" t="s">
-        <v>157</v>
+        <v>120</v>
       </c>
       <c r="D14" s="9">
         <v>12552</v>
@@ -2348,16 +2304,16 @@
         <v>25</v>
       </c>
       <c r="J14" s="8" t="s">
-        <v>129</v>
+        <v>93</v>
       </c>
       <c r="K14" s="8" t="s">
         <v>13</v>
       </c>
-      <c r="L14" s="16" t="s">
+      <c r="L14" s="13" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="15" spans="1:15" s="16" customFormat="1">
+    <row r="15" spans="1:15" s="13" customFormat="1">
       <c r="A15" s="8">
         <v>14</v>
       </c>
@@ -2365,7 +2321,7 @@
         <v>1</v>
       </c>
       <c r="C15" s="11" t="s">
-        <v>157</v>
+        <v>120</v>
       </c>
       <c r="D15" s="9">
         <v>12548</v>
@@ -2380,18 +2336,18 @@
         <v>26</v>
       </c>
       <c r="H15" s="8" t="s">
-        <v>174</v>
+        <v>137</v>
       </c>
       <c r="I15" s="8" t="s">
-        <v>171</v>
+        <v>134</v>
       </c>
       <c r="J15" s="8" t="s">
-        <v>173</v>
+        <v>136</v>
       </c>
       <c r="K15" s="8" t="s">
         <v>31</v>
       </c>
-      <c r="L15" s="16" t="s">
+      <c r="L15" s="13" t="s">
         <v>31</v>
       </c>
     </row>
@@ -2562,10 +2518,10 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:K15"/>
+  <dimension ref="A1:M8"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E14" sqref="E14"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G6" sqref="G6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25"/>
@@ -2580,9 +2536,11 @@
     <col min="9" max="9" width="29.125" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="14.625" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="20.375" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="4.5" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="10.875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" ht="40.5">
+    <row r="1" spans="1:13" ht="40.5">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -2593,7 +2551,7 @@
         <v>3</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>156</v>
+        <v>119</v>
       </c>
       <c r="E1" s="1" t="s">
         <v>4</v>
@@ -2616,467 +2574,259 @@
       <c r="K1" s="1" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="2" spans="1:11">
+      <c r="L1" s="22" t="s">
+        <v>68</v>
+      </c>
+      <c r="M1" s="22" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="2" spans="1:13">
       <c r="A2" s="8">
         <v>1</v>
       </c>
-      <c r="B2" s="8"/>
-      <c r="C2" s="9">
-        <v>12600</v>
+      <c r="C2" s="23">
+        <v>12614</v>
       </c>
       <c r="D2" s="9">
-        <v>1</v>
-      </c>
-      <c r="E2" s="13" t="s">
-        <v>78</v>
+        <v>2</v>
+      </c>
+      <c r="E2" s="21" t="s">
+        <v>145</v>
       </c>
       <c r="F2" s="8" t="s">
         <v>12</v>
       </c>
-      <c r="G2" s="14" t="s">
-        <v>79</v>
+      <c r="G2" s="20" t="s">
+        <v>138</v>
       </c>
       <c r="H2" s="8" t="s">
-        <v>67</v>
+        <v>60</v>
       </c>
       <c r="I2" s="8" t="s">
-        <v>74</v>
+        <v>63</v>
       </c>
       <c r="J2" s="8" t="s">
-        <v>86</v>
+        <v>156</v>
       </c>
       <c r="K2" s="8" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="3" spans="1:11">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="3" spans="1:13">
       <c r="A3" s="8">
         <v>2</v>
       </c>
-      <c r="B3" s="8"/>
-      <c r="C3" s="9">
-        <v>12601</v>
+      <c r="C3" s="23">
+        <v>12615</v>
       </c>
       <c r="D3" s="9">
-        <v>2</v>
-      </c>
-      <c r="E3" s="13" t="s">
-        <v>78</v>
+        <v>3</v>
+      </c>
+      <c r="E3" s="21" t="s">
+        <v>146</v>
       </c>
       <c r="F3" s="8" t="s">
         <v>12</v>
       </c>
-      <c r="G3" s="14" t="s">
-        <v>80</v>
+      <c r="G3" s="20" t="s">
+        <v>139</v>
       </c>
       <c r="H3" s="8" t="s">
-        <v>68</v>
+        <v>23</v>
       </c>
       <c r="I3" s="8" t="s">
-        <v>74</v>
+        <v>63</v>
       </c>
       <c r="J3" s="8" t="s">
-        <v>87</v>
+        <v>155</v>
       </c>
       <c r="K3" s="8" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="4" spans="1:11">
+        <v>38</v>
+      </c>
+      <c r="L3" s="13">
+        <v>1</v>
+      </c>
+      <c r="M3" s="13" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="4" spans="1:13">
       <c r="A4" s="8">
         <v>3</v>
       </c>
-      <c r="B4" s="8"/>
-      <c r="C4" s="9">
-        <v>12602</v>
+      <c r="C4" s="23">
+        <v>12616</v>
       </c>
       <c r="D4" s="9">
-        <v>3</v>
-      </c>
-      <c r="E4" s="13" t="s">
-        <v>78</v>
+        <v>4</v>
+      </c>
+      <c r="E4" s="21" t="s">
+        <v>147</v>
       </c>
       <c r="F4" s="8" t="s">
         <v>12</v>
       </c>
-      <c r="G4" s="14" t="s">
-        <v>81</v>
+      <c r="G4" s="20" t="s">
+        <v>140</v>
       </c>
       <c r="H4" s="8" t="s">
-        <v>69</v>
+        <v>23</v>
       </c>
       <c r="I4" s="8" t="s">
-        <v>74</v>
+        <v>63</v>
       </c>
       <c r="J4" s="8" t="s">
-        <v>88</v>
+        <v>155</v>
       </c>
       <c r="K4" s="8" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="5" spans="1:11">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="5" spans="1:13">
       <c r="A5" s="8">
         <v>4</v>
       </c>
-      <c r="B5" s="8"/>
-      <c r="C5" s="9">
-        <v>12603</v>
+      <c r="C5" s="23">
+        <v>12617</v>
       </c>
       <c r="D5" s="9">
-        <v>4</v>
-      </c>
-      <c r="E5" s="13" t="s">
-        <v>78</v>
+        <v>5</v>
+      </c>
+      <c r="E5" s="21" t="s">
+        <v>148</v>
       </c>
       <c r="F5" s="8" t="s">
         <v>12</v>
       </c>
-      <c r="G5" s="14" t="s">
-        <v>82</v>
+      <c r="G5" s="20" t="s">
+        <v>141</v>
       </c>
       <c r="H5" s="8" t="s">
-        <v>70</v>
+        <v>62</v>
       </c>
       <c r="I5" s="8" t="s">
-        <v>74</v>
+        <v>63</v>
       </c>
       <c r="J5" s="8" t="s">
-        <v>89</v>
+        <v>154</v>
       </c>
       <c r="K5" s="8" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="6" spans="1:11">
+        <v>38</v>
+      </c>
+      <c r="L5" s="13">
+        <v>2</v>
+      </c>
+      <c r="M5" s="13" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="6" spans="1:13">
       <c r="A6" s="8">
         <v>5</v>
       </c>
-      <c r="B6" s="11"/>
-      <c r="C6" s="9">
-        <v>12604</v>
+      <c r="C6" s="23">
+        <v>12618</v>
       </c>
       <c r="D6" s="9">
-        <v>5</v>
-      </c>
-      <c r="E6" s="13" t="s">
-        <v>78</v>
+        <v>6</v>
+      </c>
+      <c r="E6" s="21" t="s">
+        <v>149</v>
       </c>
       <c r="F6" s="8" t="s">
         <v>12</v>
       </c>
-      <c r="G6" s="15" t="s">
-        <v>83</v>
+      <c r="G6" s="20" t="s">
+        <v>163</v>
       </c>
       <c r="H6" s="8" t="s">
-        <v>73</v>
+        <v>62</v>
       </c>
       <c r="I6" s="8" t="s">
-        <v>74</v>
+        <v>63</v>
       </c>
       <c r="J6" s="8" t="s">
-        <v>90</v>
+        <v>64</v>
       </c>
       <c r="K6" s="8" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="7" spans="1:11">
+        <v>38</v>
+      </c>
+      <c r="L6" s="13">
+        <v>3</v>
+      </c>
+      <c r="M6" s="13" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="7" spans="1:13">
       <c r="A7" s="8">
         <v>6</v>
       </c>
-      <c r="B7" s="8"/>
-      <c r="C7" s="9">
-        <v>12605</v>
+      <c r="C7" s="23">
+        <v>12619</v>
       </c>
       <c r="D7" s="9">
-        <v>6</v>
-      </c>
-      <c r="E7" s="13" t="s">
-        <v>78</v>
+        <v>7</v>
+      </c>
+      <c r="E7" s="21" t="s">
+        <v>58</v>
       </c>
       <c r="F7" s="8" t="s">
         <v>12</v>
       </c>
-      <c r="G7" s="14" t="s">
-        <v>85</v>
+      <c r="G7" s="20" t="s">
+        <v>142</v>
       </c>
       <c r="H7" s="8" t="s">
-        <v>72</v>
+        <v>62</v>
       </c>
       <c r="I7" s="8" t="s">
-        <v>74</v>
+        <v>63</v>
       </c>
       <c r="J7" s="8" t="s">
-        <v>91</v>
+        <v>153</v>
       </c>
       <c r="K7" s="8" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="8" spans="1:11">
+        <v>38</v>
+      </c>
+      <c r="L7" s="13">
+        <v>5</v>
+      </c>
+      <c r="M7" s="13" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="8" spans="1:13">
       <c r="A8" s="8">
         <v>7</v>
       </c>
-      <c r="B8" s="8"/>
-      <c r="C8" s="9">
-        <v>12606</v>
-      </c>
-      <c r="D8" s="9">
-        <v>7</v>
-      </c>
-      <c r="E8" s="13" t="s">
-        <v>78</v>
+      <c r="C8" s="23">
+        <v>12620</v>
+      </c>
+      <c r="D8">
+        <v>1</v>
+      </c>
+      <c r="E8" s="21" t="s">
+        <v>144</v>
       </c>
       <c r="F8" s="8" t="s">
-        <v>12</v>
-      </c>
-      <c r="G8" s="14" t="s">
-        <v>84</v>
+        <v>151</v>
+      </c>
+      <c r="G8" s="20" t="s">
+        <v>143</v>
       </c>
       <c r="H8" s="8" t="s">
-        <v>71</v>
+        <v>61</v>
       </c>
       <c r="I8" s="8" t="s">
-        <v>74</v>
+        <v>63</v>
       </c>
       <c r="J8" s="8" t="s">
-        <v>92</v>
-      </c>
-      <c r="K8" s="8" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="9" spans="1:11">
-      <c r="A9" s="8">
-        <v>8</v>
-      </c>
-      <c r="B9" s="8"/>
-      <c r="C9" s="9">
-        <v>12607</v>
-      </c>
-      <c r="D9" s="9">
-        <v>8</v>
-      </c>
-      <c r="E9" s="10" t="s">
-        <v>58</v>
-      </c>
-      <c r="F9" s="8" t="s">
-        <v>12</v>
-      </c>
-      <c r="G9" s="10" t="s">
-        <v>62</v>
-      </c>
-      <c r="H9" s="8" t="s">
-        <v>67</v>
-      </c>
-      <c r="I9" s="8" t="s">
-        <v>74</v>
-      </c>
-      <c r="J9" s="8" t="s">
-        <v>75</v>
-      </c>
-      <c r="K9" s="8" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="10" spans="1:11">
-      <c r="A10" s="8">
-        <v>9</v>
-      </c>
-      <c r="B10" s="8"/>
-      <c r="C10" s="9">
-        <v>12608</v>
-      </c>
-      <c r="D10" s="9">
-        <v>9</v>
-      </c>
-      <c r="E10" s="10" t="s">
-        <v>58</v>
-      </c>
-      <c r="F10" s="8" t="s">
-        <v>12</v>
-      </c>
-      <c r="G10" s="10" t="s">
-        <v>63</v>
-      </c>
-      <c r="H10" s="8" t="s">
-        <v>68</v>
-      </c>
-      <c r="I10" s="8" t="s">
-        <v>74</v>
-      </c>
-      <c r="J10" s="8" t="s">
-        <v>76</v>
-      </c>
-      <c r="K10" s="8" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="11" spans="1:11">
-      <c r="A11" s="8">
-        <v>10</v>
-      </c>
-      <c r="B11" s="8"/>
-      <c r="C11" s="9">
-        <v>12609</v>
-      </c>
-      <c r="D11" s="9">
-        <v>10</v>
-      </c>
-      <c r="E11" s="10" t="s">
-        <v>58</v>
-      </c>
-      <c r="F11" s="8" t="s">
-        <v>12</v>
-      </c>
-      <c r="G11" s="10" t="s">
-        <v>64</v>
-      </c>
-      <c r="H11" s="8" t="s">
-        <v>69</v>
-      </c>
-      <c r="I11" s="8" t="s">
-        <v>74</v>
-      </c>
-      <c r="J11" s="8" t="s">
-        <v>77</v>
-      </c>
-      <c r="K11" s="8" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="12" spans="1:11">
-      <c r="A12" s="8">
-        <v>11</v>
-      </c>
-      <c r="B12" s="8"/>
-      <c r="C12" s="9">
-        <v>12610</v>
-      </c>
-      <c r="D12" s="9">
-        <v>11</v>
-      </c>
-      <c r="E12" s="10" t="s">
-        <v>58</v>
-      </c>
-      <c r="F12" s="8" t="s">
-        <v>12</v>
-      </c>
-      <c r="G12" s="10" t="s">
-        <v>65</v>
-      </c>
-      <c r="H12" s="8" t="s">
-        <v>70</v>
-      </c>
-      <c r="I12" s="8" t="s">
-        <v>74</v>
-      </c>
-      <c r="J12" s="8" t="s">
-        <v>77</v>
-      </c>
-      <c r="K12" s="8" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="13" spans="1:11">
-      <c r="A13" s="8">
-        <v>12</v>
-      </c>
-      <c r="B13" s="11"/>
-      <c r="C13" s="9">
-        <v>12611</v>
-      </c>
-      <c r="D13" s="9">
-        <v>12</v>
-      </c>
-      <c r="E13" s="10" t="s">
-        <v>58</v>
-      </c>
-      <c r="F13" s="8" t="s">
-        <v>12</v>
-      </c>
-      <c r="G13" s="10" t="s">
-        <v>66</v>
-      </c>
-      <c r="H13" s="8" t="s">
-        <v>73</v>
-      </c>
-      <c r="I13" s="8" t="s">
-        <v>74</v>
-      </c>
-      <c r="J13" s="8" t="s">
-        <v>93</v>
-      </c>
-      <c r="K13" s="8" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="14" spans="1:11">
-      <c r="A14" s="8">
-        <v>13</v>
-      </c>
-      <c r="B14" s="8"/>
-      <c r="C14" s="9">
-        <v>12612</v>
-      </c>
-      <c r="D14" s="9">
-        <v>13</v>
-      </c>
-      <c r="E14" s="10" t="s">
-        <v>58</v>
-      </c>
-      <c r="F14" s="8" t="s">
-        <v>12</v>
-      </c>
-      <c r="G14" s="10" t="s">
-        <v>59</v>
-      </c>
-      <c r="H14" s="8" t="s">
-        <v>72</v>
-      </c>
-      <c r="I14" s="8" t="s">
-        <v>74</v>
-      </c>
-      <c r="J14" s="8" t="s">
-        <v>94</v>
-      </c>
-      <c r="K14" s="8" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="15" spans="1:11">
-      <c r="A15" s="8">
-        <v>14</v>
-      </c>
-      <c r="B15" s="8"/>
-      <c r="C15" s="9">
-        <v>12613</v>
-      </c>
-      <c r="D15" s="9">
-        <v>14</v>
-      </c>
-      <c r="E15" s="10" t="s">
-        <v>58</v>
-      </c>
-      <c r="F15" s="8" t="s">
-        <v>12</v>
-      </c>
-      <c r="G15" s="10" t="s">
-        <v>60</v>
-      </c>
-      <c r="H15" s="8" t="s">
-        <v>71</v>
-      </c>
-      <c r="I15" s="8" t="s">
-        <v>74</v>
-      </c>
-      <c r="J15" s="8" t="s">
-        <v>95</v>
-      </c>
-      <c r="K15" s="8" t="s">
-        <v>38</v>
+        <v>152</v>
+      </c>
+      <c r="K8" s="13" t="s">
+        <v>31</v>
       </c>
     </row>
   </sheetData>
@@ -3091,7 +2841,7 @@
   <dimension ref="A1:G15"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F20" sqref="F20"/>
+      <selection activeCell="D6" sqref="D6:E6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="14.25"/>
@@ -3099,8 +2849,9 @@
     <col min="1" max="1" width="8.5" style="2" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="20.625" style="2" customWidth="1"/>
     <col min="3" max="3" width="29.5" style="2" customWidth="1"/>
-    <col min="4" max="4" width="14.5" style="2" customWidth="1"/>
-    <col min="5" max="7" width="22" style="2" customWidth="1"/>
+    <col min="4" max="4" width="4.5" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="9"/>
+    <col min="6" max="7" width="22" style="2" customWidth="1"/>
     <col min="8" max="8" width="20.125" style="2" customWidth="1"/>
     <col min="9" max="9" width="8.875" style="2"/>
     <col min="10" max="10" width="70.625" style="2" customWidth="1"/>
@@ -3117,6 +2868,12 @@
       <c r="C1" s="1" t="s">
         <v>2</v>
       </c>
+      <c r="D1" s="22" t="s">
+        <v>68</v>
+      </c>
+      <c r="E1" s="22" t="s">
+        <v>67</v>
+      </c>
     </row>
     <row r="2" spans="1:7" ht="16.5">
       <c r="A2" s="2">
@@ -3126,10 +2883,14 @@
         <v>30</v>
       </c>
       <c r="C2" s="7" t="s">
-        <v>96</v>
-      </c>
-      <c r="D2" s="3"/>
-      <c r="E2" s="6"/>
+        <v>157</v>
+      </c>
+      <c r="D2" s="7">
+        <v>1</v>
+      </c>
+      <c r="E2" s="3" t="s">
+        <v>126</v>
+      </c>
       <c r="F2" s="6"/>
     </row>
     <row r="3" spans="1:7" ht="16.5">
@@ -3140,10 +2901,14 @@
         <v>60</v>
       </c>
       <c r="C3" s="7" t="s">
-        <v>97</v>
-      </c>
-      <c r="D3" s="3"/>
-      <c r="E3" s="6"/>
+        <v>158</v>
+      </c>
+      <c r="D3" s="7">
+        <v>2</v>
+      </c>
+      <c r="E3" s="3" t="s">
+        <v>127</v>
+      </c>
       <c r="F3" s="6"/>
     </row>
     <row r="4" spans="1:7" ht="16.5">
@@ -3154,9 +2919,9 @@
         <v>90</v>
       </c>
       <c r="C4" s="7" t="s">
-        <v>100</v>
-      </c>
-      <c r="D4" s="3"/>
+        <v>159</v>
+      </c>
+      <c r="D4" s="7"/>
       <c r="E4" s="3"/>
       <c r="F4" s="6"/>
     </row>
@@ -3168,10 +2933,14 @@
         <v>120</v>
       </c>
       <c r="C5" s="7" t="s">
-        <v>99</v>
-      </c>
-      <c r="D5" s="3"/>
-      <c r="E5" s="3"/>
+        <v>160</v>
+      </c>
+      <c r="D5" s="7">
+        <v>3</v>
+      </c>
+      <c r="E5" s="3" t="s">
+        <v>128</v>
+      </c>
       <c r="F5" s="3"/>
     </row>
     <row r="6" spans="1:7" ht="16.5">
@@ -3182,72 +2951,58 @@
         <v>150</v>
       </c>
       <c r="C6" s="7" t="s">
-        <v>98</v>
-      </c>
-      <c r="D6" s="3"/>
-      <c r="E6" s="3"/>
+        <v>161</v>
+      </c>
+      <c r="D6" s="7">
+        <v>5</v>
+      </c>
+      <c r="E6" s="3" t="s">
+        <v>129</v>
+      </c>
       <c r="F6" s="3"/>
     </row>
     <row r="7" spans="1:7" ht="16.5">
       <c r="C7" s="3"/>
-      <c r="D7" s="3"/>
-      <c r="E7" s="3"/>
       <c r="F7" s="3"/>
       <c r="G7" s="3"/>
     </row>
     <row r="8" spans="1:7" ht="16.5">
       <c r="C8" s="3"/>
-      <c r="D8" s="3"/>
-      <c r="E8" s="3"/>
       <c r="F8" s="3"/>
       <c r="G8" s="3"/>
     </row>
     <row r="9" spans="1:7">
       <c r="C9" s="4"/>
-      <c r="D9" s="4"/>
-      <c r="E9" s="4"/>
       <c r="F9" s="4"/>
       <c r="G9" s="4"/>
     </row>
     <row r="10" spans="1:7" ht="16.5">
       <c r="C10" s="3"/>
-      <c r="D10" s="3"/>
-      <c r="E10" s="3"/>
       <c r="F10" s="3"/>
       <c r="G10" s="3"/>
     </row>
     <row r="11" spans="1:7" ht="16.5">
       <c r="C11" s="3"/>
-      <c r="D11" s="3"/>
-      <c r="E11" s="3"/>
       <c r="F11" s="3"/>
       <c r="G11" s="3"/>
     </row>
     <row r="12" spans="1:7" ht="16.5">
       <c r="C12" s="3"/>
-      <c r="D12" s="3"/>
-      <c r="E12" s="3"/>
       <c r="F12" s="3"/>
       <c r="G12" s="3"/>
     </row>
     <row r="13" spans="1:7">
       <c r="C13" s="5"/>
-      <c r="D13" s="5"/>
-      <c r="E13" s="5"/>
       <c r="F13" s="5"/>
       <c r="G13" s="5"/>
     </row>
     <row r="14" spans="1:7">
       <c r="C14" s="5"/>
-      <c r="D14" s="5"/>
-      <c r="E14" s="5"/>
       <c r="F14" s="5"/>
       <c r="G14" s="5"/>
     </row>
     <row r="15" spans="1:7">
       <c r="C15" s="5"/>
-      <c r="D15" s="5"/>
-      <c r="E15" s="5"/>
       <c r="F15" s="5"/>
       <c r="G15" s="5"/>
     </row>

--- a/config_Release/active_daily_task_info_config.xlsx
+++ b/config_Release/active_daily_task_info_config.xlsx
@@ -5,11 +5,11 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\HLBY\HuanLe_doc\config_debug\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\JYHD\HuanLe_doc\config_debug\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="30720" windowHeight="13605" firstSheet="3" activeTab="5"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="30720" windowHeight="13605" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="config|索引表" sheetId="7" r:id="rId1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="320" uniqueCount="164">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="320" uniqueCount="165">
   <si>
     <t>id|行号</t>
     <phoneticPr fontId="4" type="noConversion"/>
@@ -610,10 +610,6 @@
     <t>"V5三倍", ""</t>
   </si>
   <si>
-    <t>"红包券","活跃度"</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>"x30","x30"</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -626,9 +622,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>水果消消乐游戏10次</t>
-  </si>
-  <si>
     <t>水浒消消乐游戏20次</t>
   </si>
   <si>
@@ -647,10 +640,6 @@
     <t>单笔充值</t>
   </si>
   <si>
-    <t>水果消消乐</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>水浒消消乐</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -663,10 +652,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>水果消消乐</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>rw_icon_mrzz</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -714,7 +699,27 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>水果消消乐出现一次幸运时刻（单局至少投入3万）</t>
+    <t>萌宠消消乐出现一次幸运时刻（单局至少投入3万）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>萌宠消消乐</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>萌宠消消乐</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>萌宠消消乐游戏10次</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>"福利券","活跃度"</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>"福利券","活跃度"</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1318,8 +1323,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:P8"/>
   <sheetViews>
-    <sheetView topLeftCell="H1" workbookViewId="0">
-      <selection activeCell="L1" sqref="L1:M1048576"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="H6" sqref="H6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25"/>
@@ -1642,7 +1647,7 @@
   <dimension ref="A1:E6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D1" sqref="D1:E1048576"/>
+      <selection activeCell="K39" sqref="K39"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25"/>
@@ -1760,8 +1765,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:O15"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D24" sqref="D24"/>
+    <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
+      <selection activeCell="I21" sqref="I21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25"/>
@@ -2064,7 +2069,7 @@
         <v>114</v>
       </c>
       <c r="F8" s="8" t="s">
-        <v>150</v>
+        <v>146</v>
       </c>
       <c r="G8" s="10" t="s">
         <v>26</v>
@@ -2260,13 +2265,13 @@
         <v>35</v>
       </c>
       <c r="H13" s="8" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="I13" s="8" t="s">
+        <v>164</v>
+      </c>
+      <c r="J13" s="8" t="s">
         <v>134</v>
-      </c>
-      <c r="J13" s="8" t="s">
-        <v>135</v>
       </c>
       <c r="K13" s="8" t="s">
         <v>13</v>
@@ -2336,13 +2341,13 @@
         <v>26</v>
       </c>
       <c r="H15" s="8" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="I15" s="8" t="s">
-        <v>134</v>
+        <v>163</v>
       </c>
       <c r="J15" s="8" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="K15" s="8" t="s">
         <v>31</v>
@@ -2520,8 +2525,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:M8"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G6" sqref="G6"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="H25" sqref="H25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25"/>
@@ -2592,13 +2597,13 @@
         <v>2</v>
       </c>
       <c r="E2" s="21" t="s">
-        <v>145</v>
+        <v>161</v>
       </c>
       <c r="F2" s="8" t="s">
         <v>12</v>
       </c>
       <c r="G2" s="20" t="s">
-        <v>138</v>
+        <v>162</v>
       </c>
       <c r="H2" s="8" t="s">
         <v>60</v>
@@ -2607,7 +2612,7 @@
         <v>63</v>
       </c>
       <c r="J2" s="8" t="s">
-        <v>156</v>
+        <v>152</v>
       </c>
       <c r="K2" s="8" t="s">
         <v>38</v>
@@ -2624,13 +2629,13 @@
         <v>3</v>
       </c>
       <c r="E3" s="21" t="s">
-        <v>146</v>
+        <v>143</v>
       </c>
       <c r="F3" s="8" t="s">
         <v>12</v>
       </c>
       <c r="G3" s="20" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="H3" s="8" t="s">
         <v>23</v>
@@ -2639,7 +2644,7 @@
         <v>63</v>
       </c>
       <c r="J3" s="8" t="s">
-        <v>155</v>
+        <v>151</v>
       </c>
       <c r="K3" s="8" t="s">
         <v>38</v>
@@ -2662,13 +2667,13 @@
         <v>4</v>
       </c>
       <c r="E4" s="21" t="s">
-        <v>147</v>
+        <v>144</v>
       </c>
       <c r="F4" s="8" t="s">
         <v>12</v>
       </c>
       <c r="G4" s="20" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="H4" s="8" t="s">
         <v>23</v>
@@ -2677,7 +2682,7 @@
         <v>63</v>
       </c>
       <c r="J4" s="8" t="s">
-        <v>155</v>
+        <v>151</v>
       </c>
       <c r="K4" s="8" t="s">
         <v>38</v>
@@ -2694,13 +2699,13 @@
         <v>5</v>
       </c>
       <c r="E5" s="21" t="s">
-        <v>148</v>
+        <v>145</v>
       </c>
       <c r="F5" s="8" t="s">
         <v>12</v>
       </c>
       <c r="G5" s="20" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="H5" s="8" t="s">
         <v>62</v>
@@ -2709,7 +2714,7 @@
         <v>63</v>
       </c>
       <c r="J5" s="8" t="s">
-        <v>154</v>
+        <v>150</v>
       </c>
       <c r="K5" s="8" t="s">
         <v>38</v>
@@ -2718,7 +2723,7 @@
         <v>2</v>
       </c>
       <c r="M5" s="13" t="s">
-        <v>162</v>
+        <v>158</v>
       </c>
     </row>
     <row r="6" spans="1:13">
@@ -2732,13 +2737,13 @@
         <v>6</v>
       </c>
       <c r="E6" s="21" t="s">
-        <v>149</v>
+        <v>160</v>
       </c>
       <c r="F6" s="8" t="s">
         <v>12</v>
       </c>
       <c r="G6" s="20" t="s">
-        <v>163</v>
+        <v>159</v>
       </c>
       <c r="H6" s="8" t="s">
         <v>62</v>
@@ -2776,7 +2781,7 @@
         <v>12</v>
       </c>
       <c r="G7" s="20" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="H7" s="8" t="s">
         <v>62</v>
@@ -2785,7 +2790,7 @@
         <v>63</v>
       </c>
       <c r="J7" s="8" t="s">
-        <v>153</v>
+        <v>149</v>
       </c>
       <c r="K7" s="8" t="s">
         <v>38</v>
@@ -2808,13 +2813,13 @@
         <v>1</v>
       </c>
       <c r="E8" s="21" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="F8" s="8" t="s">
-        <v>151</v>
+        <v>147</v>
       </c>
       <c r="G8" s="20" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="H8" s="8" t="s">
         <v>61</v>
@@ -2823,7 +2828,7 @@
         <v>63</v>
       </c>
       <c r="J8" s="8" t="s">
-        <v>152</v>
+        <v>148</v>
       </c>
       <c r="K8" s="13" t="s">
         <v>31</v>
@@ -2841,7 +2846,7 @@
   <dimension ref="A1:G15"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D6" sqref="D6:E6"/>
+      <selection activeCell="J8" sqref="J8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="14.25"/>
@@ -2883,7 +2888,7 @@
         <v>30</v>
       </c>
       <c r="C2" s="7" t="s">
-        <v>157</v>
+        <v>153</v>
       </c>
       <c r="D2" s="7">
         <v>1</v>
@@ -2901,7 +2906,7 @@
         <v>60</v>
       </c>
       <c r="C3" s="7" t="s">
-        <v>158</v>
+        <v>154</v>
       </c>
       <c r="D3" s="7">
         <v>2</v>
@@ -2919,7 +2924,7 @@
         <v>90</v>
       </c>
       <c r="C4" s="7" t="s">
-        <v>159</v>
+        <v>155</v>
       </c>
       <c r="D4" s="7"/>
       <c r="E4" s="3"/>
@@ -2933,7 +2938,7 @@
         <v>120</v>
       </c>
       <c r="C5" s="7" t="s">
-        <v>160</v>
+        <v>156</v>
       </c>
       <c r="D5" s="7">
         <v>3</v>
@@ -2951,7 +2956,7 @@
         <v>150</v>
       </c>
       <c r="C6" s="7" t="s">
-        <v>161</v>
+        <v>157</v>
       </c>
       <c r="D6" s="7">
         <v>5</v>

--- a/config_Release/active_daily_task_info_config.xlsx
+++ b/config_Release/active_daily_task_info_config.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="30720" windowHeight="13605" activeTab="3"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="30720" windowHeight="13605" firstSheet="4" activeTab="5"/>
   </bookViews>
   <sheets>
     <sheet name="config|索引表" sheetId="7" r:id="rId1"/>
@@ -628,9 +628,6 @@
     <t>西游消消乐游戏20次</t>
   </si>
   <si>
-    <t>龙王争霸游戏20次</t>
-  </si>
-  <si>
     <t>红包场累计赢金500万（单局至少投入6万）</t>
   </si>
   <si>
@@ -648,10 +645,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>龙王争霸</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>rw_icon_mrzz</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -720,6 +713,14 @@
   </si>
   <si>
     <t>"福利券","活跃度"</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>三国消消乐游戏20次</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>三国消消乐</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1765,7 +1766,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:O15"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
+    <sheetView topLeftCell="D1" workbookViewId="0">
       <selection activeCell="I21" sqref="I21"/>
     </sheetView>
   </sheetViews>
@@ -2069,7 +2070,7 @@
         <v>114</v>
       </c>
       <c r="F8" s="8" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="G8" s="10" t="s">
         <v>26</v>
@@ -2268,7 +2269,7 @@
         <v>136</v>
       </c>
       <c r="I13" s="8" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="J13" s="8" t="s">
         <v>134</v>
@@ -2344,7 +2345,7 @@
         <v>136</v>
       </c>
       <c r="I15" s="8" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="J15" s="8" t="s">
         <v>135</v>
@@ -2525,8 +2526,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:M8"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="H25" sqref="H25"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E5" sqref="E5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25"/>
@@ -2597,13 +2598,13 @@
         <v>2</v>
       </c>
       <c r="E2" s="21" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="F2" s="8" t="s">
         <v>12</v>
       </c>
       <c r="G2" s="20" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="H2" s="8" t="s">
         <v>60</v>
@@ -2612,7 +2613,7 @@
         <v>63</v>
       </c>
       <c r="J2" s="8" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="K2" s="8" t="s">
         <v>38</v>
@@ -2629,7 +2630,7 @@
         <v>3</v>
       </c>
       <c r="E3" s="21" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="F3" s="8" t="s">
         <v>12</v>
@@ -2644,7 +2645,7 @@
         <v>63</v>
       </c>
       <c r="J3" s="8" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="K3" s="8" t="s">
         <v>38</v>
@@ -2667,7 +2668,7 @@
         <v>4</v>
       </c>
       <c r="E4" s="21" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="F4" s="8" t="s">
         <v>12</v>
@@ -2682,7 +2683,7 @@
         <v>63</v>
       </c>
       <c r="J4" s="8" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="K4" s="8" t="s">
         <v>38</v>
@@ -2699,13 +2700,13 @@
         <v>5</v>
       </c>
       <c r="E5" s="21" t="s">
-        <v>145</v>
+        <v>164</v>
       </c>
       <c r="F5" s="8" t="s">
         <v>12</v>
       </c>
       <c r="G5" s="20" t="s">
-        <v>139</v>
+        <v>163</v>
       </c>
       <c r="H5" s="8" t="s">
         <v>62</v>
@@ -2714,7 +2715,7 @@
         <v>63</v>
       </c>
       <c r="J5" s="8" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="K5" s="8" t="s">
         <v>38</v>
@@ -2723,7 +2724,7 @@
         <v>2</v>
       </c>
       <c r="M5" s="13" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
     </row>
     <row r="6" spans="1:13">
@@ -2737,13 +2738,13 @@
         <v>6</v>
       </c>
       <c r="E6" s="21" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="F6" s="8" t="s">
         <v>12</v>
       </c>
       <c r="G6" s="20" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="H6" s="8" t="s">
         <v>62</v>
@@ -2781,7 +2782,7 @@
         <v>12</v>
       </c>
       <c r="G7" s="20" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="H7" s="8" t="s">
         <v>62</v>
@@ -2790,7 +2791,7 @@
         <v>63</v>
       </c>
       <c r="J7" s="8" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="K7" s="8" t="s">
         <v>38</v>
@@ -2813,13 +2814,13 @@
         <v>1</v>
       </c>
       <c r="E8" s="21" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="F8" s="8" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="G8" s="20" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="H8" s="8" t="s">
         <v>61</v>
@@ -2828,7 +2829,7 @@
         <v>63</v>
       </c>
       <c r="J8" s="8" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="K8" s="13" t="s">
         <v>31</v>
@@ -2888,7 +2889,7 @@
         <v>30</v>
       </c>
       <c r="C2" s="7" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="D2" s="7">
         <v>1</v>
@@ -2906,7 +2907,7 @@
         <v>60</v>
       </c>
       <c r="C3" s="7" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="D3" s="7">
         <v>2</v>
@@ -2924,7 +2925,7 @@
         <v>90</v>
       </c>
       <c r="C4" s="7" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="D4" s="7"/>
       <c r="E4" s="3"/>
@@ -2938,7 +2939,7 @@
         <v>120</v>
       </c>
       <c r="C5" s="7" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="D5" s="7">
         <v>3</v>
@@ -2956,7 +2957,7 @@
         <v>150</v>
       </c>
       <c r="C6" s="7" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="D6" s="7">
         <v>5</v>
